--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace/processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace/processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:X109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="B2" t="n">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="C2" t="n">
-        <v>1033</v>
+        <v>981</v>
       </c>
       <c r="D2" t="n">
-        <v>3.263049906254595</v>
+        <v>3.307956904527913</v>
       </c>
       <c r="E2" t="n">
-        <v>2.659886654340342</v>
+        <v>2.705517240207732</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6031632519142536</v>
+        <v>-0.6024396643201807</v>
       </c>
       <c r="G2" t="n">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="H2" t="n">
-        <v>362.0906637312878</v>
+        <v>43.93824536993066</v>
       </c>
       <c r="I2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="K2" t="n">
-        <v>358.3879720215356</v>
+        <v>244.2375291871201</v>
       </c>
       <c r="L2" t="n">
-        <v>9.067260525522007</v>
+        <v>9.192589457712602</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.7815278171854041</v>
+        <v>0.667242051515793</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="R2" t="n">
-        <v>0.106104144132675</v>
+        <v>0.07193329204963708</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8864908598153824</v>
+        <v>0.9100681439178877</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>687</v>
+        <v>1362</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>362</v>
+        <v>981</v>
       </c>
       <c r="B3" t="n">
-        <v>431</v>
+        <v>1004</v>
       </c>
       <c r="C3" t="n">
-        <v>524</v>
+        <v>1039</v>
       </c>
       <c r="D3" t="n">
-        <v>3.114643326688593</v>
+        <v>2.488620029317236</v>
       </c>
       <c r="E3" t="n">
-        <v>2.470547717853862</v>
+        <v>1.886180364997056</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6440956088347303</v>
+        <v>-0.6024396643201807</v>
       </c>
       <c r="G3" t="n">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="H3" t="n">
-        <v>98.75030933124214</v>
+        <v>17.35958051675652</v>
       </c>
       <c r="I3" t="n">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J3" t="n">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
-        <v>299.6416313435887</v>
+        <v>116.4492867238076</v>
       </c>
       <c r="L3" t="n">
-        <v>17.25693236282699</v>
+        <v>6.915707461134192</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.7138742539510797</v>
+        <v>0.7091150403639328</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1973248046520658</v>
+        <v>0.1206269933904379</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9649642397118356</v>
+        <v>0.9455036191527182</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>688</v>
+        <v>1363</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="B4" t="n">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="C4" t="n">
-        <v>1376</v>
+        <v>1321</v>
       </c>
       <c r="D4" t="n">
-        <v>1.841105225515261</v>
+        <v>1.971869831521046</v>
       </c>
       <c r="E4" t="n">
-        <v>1.19700961668053</v>
+        <v>1.325300810769933</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6440956088347303</v>
+        <v>-0.6465690207511129</v>
       </c>
       <c r="G4" t="n">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="H4" t="n">
-        <v>65.66788666945536</v>
+        <v>65.7717157924933</v>
       </c>
       <c r="I4" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J4" t="n">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="K4" t="n">
-        <v>168.4940993148914</v>
+        <v>120.7156145123505</v>
       </c>
       <c r="L4" t="n">
-        <v>10.20079187793973</v>
+        <v>10.99248520853215</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.9016367456834825</v>
+        <v>0.8441810751757267</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.336283185840708</v>
+        <v>0.421875</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793210113730717</v>
+        <v>0.333281761821672</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7708401931924513</v>
+        <v>0.8754171911390536</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>689</v>
+        <v>1364</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,65 +815,65 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1376</v>
+        <v>1381</v>
       </c>
       <c r="B5" t="n">
-        <v>1508</v>
+        <v>1411</v>
       </c>
       <c r="C5" t="n">
-        <v>1692</v>
+        <v>1468</v>
       </c>
       <c r="D5" t="n">
-        <v>2.229115564043074</v>
+        <v>1.268051883113385</v>
       </c>
       <c r="E5" t="n">
-        <v>1.585019955208344</v>
+        <v>0.6214828623622721</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6440956088347303</v>
+        <v>-0.6465690207511129</v>
       </c>
       <c r="G5" t="n">
-        <v>316</v>
+        <v>87</v>
       </c>
       <c r="H5" t="n">
-        <v>83.60575295548119</v>
+        <v>50.35649422340634</v>
       </c>
       <c r="I5" t="n">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="J5" t="n">
-        <v>184</v>
+        <v>57</v>
       </c>
       <c r="K5" t="n">
-        <v>287.9098236119448</v>
+        <v>68.00929627767371</v>
       </c>
       <c r="L5" t="n">
-        <v>12.35059442858073</v>
+        <v>7.068946106864991</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1420), 'value': np.float64(0.47855551906896326), 'amplitude': np.float64(1.1226511279036935), 'start_idx': np.int64(1417), 'end_idx': np.int64(1463), 'duration': np.float64(46.0), 'fwhm': np.float64(46.81889086109982), 'rise_time': np.float64(3.0), 'decay_time': np.float64(43.0), 'auc': np.float64(36.21005346815994)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.5017332258629739</v>
+        <v>0.7633128400756433</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7173913043478261</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3199792371486871</v>
+        <v>0.1597602343667904</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5132323437606728</v>
+        <v>0.8770216175718166</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>690</v>
+        <v>1365</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1476</v>
+        <v>1468</v>
       </c>
       <c r="B6" t="n">
-        <v>1538</v>
+        <v>1503</v>
       </c>
       <c r="C6" t="n">
-        <v>1661</v>
+        <v>1599</v>
       </c>
       <c r="D6" t="n">
-        <v>2.45891466052626</v>
+        <v>2.416876938945701</v>
       </c>
       <c r="E6" t="n">
-        <v>1.788633383371606</v>
+        <v>1.770307918194588</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6702812771546541</v>
+        <v>-0.6465690207511129</v>
       </c>
       <c r="G6" t="n">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="H6" t="n">
-        <v>131.9392451407198</v>
+        <v>80.07026558957227</v>
       </c>
       <c r="I6" t="n">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="J6" t="n">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="K6" t="n">
-        <v>333.1738966866532</v>
+        <v>171.5872267798069</v>
       </c>
       <c r="L6" t="n">
-        <v>7.587357857431268</v>
+        <v>13.4732443174049</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.725211814299239</v>
+        <v>0.7873862644917453</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5040650406504065</v>
+        <v>0.3645833333333333</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4225479938190543</v>
+        <v>0.1132303357508488</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4769052093073247</v>
+        <v>0.8988311925021636</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>691</v>
+        <v>1366</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2492</v>
+        <v>1599</v>
       </c>
       <c r="B7" t="n">
-        <v>2530</v>
+        <v>1629</v>
       </c>
       <c r="C7" t="n">
-        <v>2646</v>
+        <v>1699</v>
       </c>
       <c r="D7" t="n">
-        <v>2.341133168849202</v>
+        <v>1.032715558080805</v>
       </c>
       <c r="E7" t="n">
-        <v>1.670851891694548</v>
+        <v>0.3861465373296918</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6702812771546541</v>
+        <v>-0.6465690207511129</v>
       </c>
       <c r="G7" t="n">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>71.73862274146813</v>
+        <v>32.22937609430232</v>
       </c>
       <c r="I7" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J7" t="n">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="K7" t="n">
-        <v>191.156739571412</v>
+        <v>48.2310721516803</v>
       </c>
       <c r="L7" t="n">
-        <v>7.223925022334568</v>
+        <v>5.757028336940257</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8811246243990953</v>
+        <v>0.8885794885535414</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3275862068965517</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3291595735516901</v>
+        <v>0.372627717769645</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6950412356046921</v>
+        <v>0.9520562439792041</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>692</v>
+        <v>1367</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2567</v>
+        <v>1699</v>
       </c>
       <c r="B8" t="n">
-        <v>2750</v>
+        <v>1733</v>
       </c>
       <c r="C8" t="n">
-        <v>2998</v>
+        <v>1782</v>
       </c>
       <c r="D8" t="n">
-        <v>4.140556653435431</v>
+        <v>2.11108696528495</v>
       </c>
       <c r="E8" t="n">
-        <v>3.521147739686493</v>
+        <v>1.464517944533837</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6194089137489387</v>
+        <v>-0.6465690207511129</v>
       </c>
       <c r="G8" t="n">
-        <v>431</v>
+        <v>83</v>
       </c>
       <c r="H8" t="n">
-        <v>191.4405567723393</v>
+        <v>37.68767296505121</v>
       </c>
       <c r="I8" t="n">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="J8" t="n">
-        <v>248</v>
+        <v>49</v>
       </c>
       <c r="K8" t="n">
-        <v>812.3265387254205</v>
+        <v>85.89181576274795</v>
       </c>
       <c r="L8" t="n">
-        <v>23.30709803677989</v>
+        <v>11.76857207755915</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.5955465129012301</v>
+        <v>0.6855396904521909</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7379032258064516</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7631899497809226</v>
+        <v>0.09695283871084159</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7922230644353694</v>
+        <v>0.9021566476576771</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>693</v>
+        <v>1368</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>165</v>
+        <v>1782</v>
       </c>
       <c r="B9" t="n">
-        <v>198</v>
+        <v>1832</v>
       </c>
       <c r="C9" t="n">
-        <v>353</v>
+        <v>1908</v>
       </c>
       <c r="D9" t="n">
-        <v>2.353858528067386</v>
+        <v>2.243152661040352</v>
       </c>
       <c r="E9" t="n">
-        <v>1.771090642680669</v>
+        <v>1.596583640289239</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.582767885386718</v>
+        <v>-0.6465690207511129</v>
       </c>
       <c r="G9" t="n">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="H9" t="n">
-        <v>51.92617797409963</v>
+        <v>66.27831405651432</v>
       </c>
       <c r="I9" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J9" t="n">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="K9" t="n">
-        <v>281.0669936500424</v>
+        <v>152.9385013589933</v>
       </c>
       <c r="L9" t="n">
-        <v>5.963331169899243</v>
+        <v>12.50479217887584</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8951193138581705</v>
+        <v>0.6817504417923645</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2129032258064516</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2567956814763765</v>
+        <v>0.1380340043784725</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9192615142188643</v>
+        <v>0.7413963362706754</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>694</v>
+        <v>1369</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>353</v>
+        <v>725</v>
       </c>
       <c r="B10" t="n">
-        <v>404</v>
+        <v>772</v>
       </c>
       <c r="C10" t="n">
-        <v>575</v>
+        <v>832</v>
       </c>
       <c r="D10" t="n">
-        <v>3.690851799934959</v>
+        <v>2.17759663719331</v>
       </c>
       <c r="E10" t="n">
-        <v>3.108083914548242</v>
+        <v>1.466870564799699</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.582767885386718</v>
+        <v>-0.7107260723936109</v>
       </c>
       <c r="G10" t="n">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="H10" t="n">
-        <v>51.0724092636234</v>
+        <v>51.38248019599064</v>
       </c>
       <c r="I10" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J10" t="n">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="K10" t="n">
-        <v>438.3977496275739</v>
+        <v>134.7475174502202</v>
       </c>
       <c r="L10" t="n">
-        <v>9.35050739863359</v>
+        <v>7.009430439092293</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8683978937988032</v>
+        <v>0.7876233771162598</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2982456140350877</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3662929279217201</v>
+        <v>0.2960724133574235</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7915981691689643</v>
+        <v>0.9770154481855402</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>695</v>
+        <v>1370</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2050</v>
+        <v>2814</v>
       </c>
       <c r="B11" t="n">
-        <v>2093</v>
+        <v>2865</v>
       </c>
       <c r="C11" t="n">
-        <v>2258</v>
+        <v>2998</v>
       </c>
       <c r="D11" t="n">
-        <v>2.712471117965697</v>
+        <v>2.95206084689445</v>
       </c>
       <c r="E11" t="n">
-        <v>2.094798146636377</v>
+        <v>2.24133477450084</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6176729713293199</v>
+        <v>-0.7107260723936109</v>
       </c>
       <c r="G11" t="n">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="H11" t="n">
-        <v>45.97699233418189</v>
+        <v>71.68128505073355</v>
       </c>
       <c r="I11" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J11" t="n">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="K11" t="n">
-        <v>265.473252640002</v>
+        <v>362.7103827877844</v>
       </c>
       <c r="L11" t="n">
-        <v>26.48492796593018</v>
+        <v>9.502340702061636</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.8957238579484437</v>
+        <v>0.83323186026511</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2606060606060606</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4908719370635755</v>
+        <v>0.2837389323418356</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9395452521843998</v>
+        <v>0.7925764664094518</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>696</v>
+        <v>1371</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>788</v>
+        <v>1048</v>
       </c>
       <c r="B12" t="n">
-        <v>826</v>
+        <v>1095</v>
       </c>
       <c r="C12" t="n">
-        <v>899</v>
+        <v>1188</v>
       </c>
       <c r="D12" t="n">
-        <v>1.844234830673932</v>
+        <v>2.686415613485591</v>
       </c>
       <c r="E12" t="n">
-        <v>1.266836473808043</v>
+        <v>2.009115279105781</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5773983568658888</v>
+        <v>-0.6773003343798109</v>
       </c>
       <c r="G12" t="n">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="H12" t="n">
-        <v>73.48347144292779</v>
+        <v>55.48860510542272</v>
       </c>
       <c r="I12" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J12" t="n">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="K12" t="n">
-        <v>113.5787217526298</v>
+        <v>273.4589608222823</v>
       </c>
       <c r="L12" t="n">
-        <v>7.271639447104023</v>
+        <v>8.283888388112976</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.7974129720362223</v>
+        <v>0.7008479517684139</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.5205479452054794</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1834353524300004</v>
+        <v>0.2996086879221329</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9644729596537885</v>
+        <v>0.8970624708847048</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>697</v>
+        <v>1372</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1479</v>
       </c>
       <c r="B13" t="n">
-        <v>23</v>
+        <v>1530</v>
       </c>
       <c r="C13" t="n">
-        <v>104</v>
+        <v>1667</v>
       </c>
       <c r="D13" t="n">
-        <v>4.445765189006619</v>
+        <v>2.630307086037538</v>
       </c>
       <c r="E13" t="n">
-        <v>3.890640000385819</v>
+        <v>1.953006751657727</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5551251886208001</v>
+        <v>-0.6773003343798109</v>
       </c>
       <c r="G13" t="n">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="H13" t="n">
-        <v>39.3436275924622</v>
+        <v>126.9353613982244</v>
       </c>
       <c r="I13" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="J13" t="n">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="K13" t="n">
-        <v>313.3063297783821</v>
+        <v>343.1314552773356</v>
       </c>
       <c r="L13" t="n">
-        <v>14.08636123017148</v>
+        <v>8.110870938144398</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.9939207651997721</v>
+        <v>0.7948102276866538</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2839506172839506</v>
+        <v>0.3722627737226277</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2660984634372778</v>
+        <v>0.4242899183318526</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9950612638445206</v>
+        <v>0.5349714617559003</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>698</v>
+        <v>1373</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>1667</v>
       </c>
       <c r="B14" t="n">
-        <v>42</v>
+        <v>1698</v>
       </c>
       <c r="C14" t="n">
-        <v>109</v>
+        <v>1751</v>
       </c>
       <c r="D14" t="n">
-        <v>3.821215266074654</v>
+        <v>3.02296679280908</v>
       </c>
       <c r="E14" t="n">
-        <v>3.282902571230024</v>
+        <v>2.345666458429269</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5383126948446307</v>
+        <v>-0.6773003343798109</v>
       </c>
       <c r="G14" t="n">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="H14" t="n">
-        <v>52.53405698031071</v>
+        <v>70.71940278241163</v>
       </c>
       <c r="I14" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J14" t="n">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K14" t="n">
-        <v>365.3909294474474</v>
+        <v>164.6759689451147</v>
       </c>
       <c r="L14" t="n">
-        <v>14.02756466142829</v>
+        <v>9.321684770924435</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.4938269714748764</v>
+        <v>0.6959806458292482</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6268656716417911</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07778132858898971</v>
+        <v>0.09937444723642369</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8328171689025435</v>
+        <v>0.9968637351241355</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>699</v>
+        <v>1374</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>229</v>
+        <v>2494</v>
       </c>
       <c r="B15" t="n">
-        <v>302</v>
+        <v>2533</v>
       </c>
       <c r="C15" t="n">
-        <v>401</v>
+        <v>2653</v>
       </c>
       <c r="D15" t="n">
-        <v>2.197889326057775</v>
+        <v>2.372100961603872</v>
       </c>
       <c r="E15" t="n">
-        <v>1.530637737010622</v>
+        <v>1.694800627224061</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6672515890471531</v>
+        <v>-0.6773003343798109</v>
       </c>
       <c r="G15" t="n">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="H15" t="n">
-        <v>117.3049764486999</v>
+        <v>48.96505023243935</v>
       </c>
       <c r="I15" t="n">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="J15" t="n">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>199.833359821499</v>
+        <v>198.2096556359338</v>
       </c>
       <c r="L15" t="n">
-        <v>6.966131535963404</v>
+        <v>7.314661034807648</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.6734172804290072</v>
+        <v>0.8606535742784844</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7373737373737373</v>
+        <v>0.325</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1169660047920244</v>
+        <v>0.3495219465678727</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9598302879270662</v>
+        <v>0.6395152546255813</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>700</v>
+        <v>1375</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2825</v>
+        <v>2940</v>
       </c>
       <c r="B16" t="n">
-        <v>2864</v>
+        <v>2965</v>
       </c>
       <c r="C16" t="n">
         <v>2998</v>
       </c>
       <c r="D16" t="n">
-        <v>1.997747792937817</v>
+        <v>1.539696644487508</v>
       </c>
       <c r="E16" t="n">
-        <v>1.330496203890664</v>
+        <v>1.156692671323526</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6672515890471531</v>
+        <v>-0.3830039731639816</v>
       </c>
       <c r="G16" t="n">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="H16" t="n">
-        <v>33.68468591781811</v>
+        <v>22.07732291343336</v>
       </c>
       <c r="I16" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="K16" t="n">
-        <v>231.3292165071415</v>
+        <v>57.2882792172618</v>
       </c>
       <c r="L16" t="n">
-        <v>6.331790111673531</v>
+        <v>6.604479603533733</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.7508040477505787</v>
+        <v>0.8247207551220611</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.291044776119403</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1882319836589607</v>
+        <v>0.3248939287184567</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4509893435163171</v>
+        <v>0.9942783171973328</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>701</v>
+        <v>1376</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>141</v>
+        <v>2806</v>
       </c>
       <c r="B17" t="n">
-        <v>181</v>
+        <v>2860</v>
       </c>
       <c r="C17" t="n">
-        <v>328</v>
+        <v>2998</v>
       </c>
       <c r="D17" t="n">
-        <v>2.709538269353161</v>
+        <v>3.14733942337324</v>
       </c>
       <c r="E17" t="n">
-        <v>2.029018763582603</v>
+        <v>2.527485005456074</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6805195057705588</v>
+        <v>-0.6198544179171663</v>
       </c>
       <c r="G17" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H17" t="n">
-        <v>78.36242493870418</v>
+        <v>29.14745188614961</v>
       </c>
       <c r="I17" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J17" t="n">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="K17" t="n">
-        <v>239.0089725390136</v>
+        <v>369.1857217778698</v>
       </c>
       <c r="L17" t="n">
-        <v>6.792417014607931</v>
+        <v>17.63001733024692</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.9719845712836197</v>
+        <v>0.6678253566365379</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.272108843537415</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3446222534806685</v>
+        <v>0.4750061889366793</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9524558103416882</v>
+        <v>0.9414093286171515</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>702</v>
+        <v>1377</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>627</v>
+        <v>11</v>
       </c>
       <c r="C18" t="n">
-        <v>862</v>
+        <v>61</v>
       </c>
       <c r="D18" t="n">
-        <v>3.682960831862522</v>
+        <v>2.676636374316993</v>
       </c>
       <c r="E18" t="n">
-        <v>2.969161087859016</v>
+        <v>2.070128639923879</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7137997440035061</v>
+        <v>-0.6065077343931146</v>
       </c>
       <c r="G18" t="n">
-        <v>401</v>
+        <v>61</v>
       </c>
       <c r="H18" t="n">
-        <v>190.478367460231</v>
+        <v>18.92472006213347</v>
       </c>
       <c r="I18" t="n">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>235</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
-        <v>736.33101856193</v>
+        <v>126.3622659909133</v>
       </c>
       <c r="L18" t="n">
-        <v>8.090876546870115</v>
+        <v>6.675545465454523</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7393722112970305</v>
+        <v>0.8664318907983294</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7063829787234043</v>
+        <v>0.22</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2574039545298561</v>
+        <v>0.166186811290303</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9357590650706809</v>
+        <v>0.9173827877798394</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>703</v>
+        <v>1378</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,73 +2019,73 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>349</v>
+        <v>61</v>
       </c>
       <c r="B19" t="n">
-        <v>403</v>
+        <v>96</v>
       </c>
       <c r="C19" t="n">
-        <v>719</v>
+        <v>170</v>
       </c>
       <c r="D19" t="n">
-        <v>3.015825089621941</v>
+        <v>2.463364173584836</v>
       </c>
       <c r="E19" t="n">
-        <v>2.433713141910438</v>
+        <v>1.856856439191721</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5821119477115031</v>
+        <v>-0.6065077343931146</v>
       </c>
       <c r="G19" t="n">
-        <v>370</v>
+        <v>109</v>
       </c>
       <c r="H19" t="n">
-        <v>135.8257840647796</v>
+        <v>68.83319418966678</v>
       </c>
       <c r="I19" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="J19" t="n">
-        <v>316</v>
+        <v>74</v>
       </c>
       <c r="K19" t="n">
-        <v>566.5189027254431</v>
+        <v>220.297835965056</v>
       </c>
       <c r="L19" t="n">
-        <v>7.619061284432938</v>
+        <v>6.143643453598933</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(563), 'value': np.float64(1.5064475504534847), 'amplitude': np.float64(2.0885594981649875), 'start_idx': np.int64(522), 'end_idx': np.int64(583), 'duration': np.float64(61.0), 'fwhm': np.float64(48.31663538852979), 'rise_time': np.float64(41.0), 'decay_time': np.float64(20.0), 'auc': np.float64(96.72892387679161)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.7890120762995285</v>
+        <v>0.6794541874971277</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1708860759493671</v>
+        <v>0.472972972972973</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3990247114655789</v>
+        <v>0.07743022221769454</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3260373827372225</v>
+        <v>0.7750653861319783</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>704</v>
+        <v>1379</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1420</v>
+        <v>170</v>
       </c>
       <c r="B20" t="n">
-        <v>1458</v>
+        <v>199</v>
       </c>
       <c r="C20" t="n">
-        <v>1528</v>
+        <v>358</v>
       </c>
       <c r="D20" t="n">
-        <v>2.981171667830936</v>
+        <v>2.571642055521838</v>
       </c>
       <c r="E20" t="n">
-        <v>2.443900458856344</v>
+        <v>1.965134321128723</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5372712089745914</v>
+        <v>-0.6065077343931146</v>
       </c>
       <c r="G20" t="n">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="H20" t="n">
-        <v>34.53794932214691</v>
+        <v>33.39617850977797</v>
       </c>
       <c r="I20" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J20" t="n">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="K20" t="n">
-        <v>243.5909980414435</v>
+        <v>280.7055219654905</v>
       </c>
       <c r="L20" t="n">
-        <v>29.7107970760808</v>
+        <v>6.413689071565258</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.781431418004912</v>
+        <v>0.8295503554134924</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.5428571428571428</v>
+        <v>0.1823899371069182</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2661014757187576</v>
+        <v>0.3042364824418764</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9891199954848581</v>
+        <v>0.911925145060187</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>705</v>
+        <v>1380</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2449</v>
+        <v>443</v>
       </c>
       <c r="B21" t="n">
-        <v>2499</v>
+        <v>466</v>
       </c>
       <c r="C21" t="n">
-        <v>2641</v>
+        <v>580</v>
       </c>
       <c r="D21" t="n">
-        <v>3.943480236643719</v>
+        <v>2.402662980661178</v>
       </c>
       <c r="E21" t="n">
-        <v>3.406209027669127</v>
+        <v>1.796155246268064</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5372712089745914</v>
+        <v>-0.6065077343931146</v>
       </c>
       <c r="G21" t="n">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="H21" t="n">
-        <v>84.52558964869513</v>
+        <v>32.53982198789902</v>
       </c>
       <c r="I21" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="J21" t="n">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="K21" t="n">
-        <v>348.6833345126074</v>
+        <v>244.2336961554886</v>
       </c>
       <c r="L21" t="n">
-        <v>39.30130637854333</v>
+        <v>5.992254353063153</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.9323471019160982</v>
+        <v>0.7938731737118044</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.352112676056338</v>
+        <v>0.2017543859649123</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2625114273927939</v>
+        <v>0.179862753436174</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9529281822329526</v>
+        <v>0.7400353963993509</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>706</v>
+        <v>1381</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2641</v>
+        <v>2249</v>
       </c>
       <c r="B22" t="n">
-        <v>2722</v>
+        <v>2265</v>
       </c>
       <c r="C22" t="n">
-        <v>2855</v>
+        <v>2296</v>
       </c>
       <c r="D22" t="n">
-        <v>3.188652949618174</v>
+        <v>1.937424496732765</v>
       </c>
       <c r="E22" t="n">
-        <v>2.651381740643583</v>
+        <v>1.33091676233965</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5372712089745914</v>
+        <v>-0.6065077343931146</v>
       </c>
       <c r="G22" t="n">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="H22" t="n">
-        <v>89.56210531826628</v>
+        <v>28.94728675131728</v>
       </c>
       <c r="I22" t="n">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="J22" t="n">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="K22" t="n">
-        <v>345.7963018454161</v>
+        <v>69.3663164848731</v>
       </c>
       <c r="L22" t="n">
-        <v>31.77858616947137</v>
+        <v>4.831947080269793</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.6678234910579498</v>
+        <v>0.7266818161914327</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.6090225563909775</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1052963203810503</v>
+        <v>0.1342621485872102</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7130947649699805</v>
+        <v>0.8192402316239349</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>707</v>
+        <v>1382</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1984</v>
+        <v>627</v>
       </c>
       <c r="B23" t="n">
-        <v>2018</v>
+        <v>661</v>
       </c>
       <c r="C23" t="n">
-        <v>2102</v>
+        <v>750</v>
       </c>
       <c r="D23" t="n">
-        <v>3.116249200222502</v>
+        <v>2.738896296551037</v>
       </c>
       <c r="E23" t="n">
-        <v>2.624546786859345</v>
+        <v>2.124586936404803</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.4917024133631564</v>
+        <v>-0.6143093601462338</v>
       </c>
       <c r="G23" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H23" t="n">
-        <v>41.14801033735171</v>
+        <v>69.95270868502269</v>
       </c>
       <c r="I23" t="n">
         <v>34</v>
       </c>
       <c r="J23" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K23" t="n">
-        <v>251.0570611303766</v>
+        <v>186.5892897913947</v>
       </c>
       <c r="L23" t="n">
-        <v>20.86433151125966</v>
+        <v>26.59732763168778</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.8484614195343354</v>
+        <v>0.8401256821669973</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.4047619047619048</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2926187250949518</v>
+        <v>0.1541279001047455</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9389971138064291</v>
+        <v>0.9833880931194545</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>708</v>
+        <v>1383</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1243</v>
+        <v>750</v>
       </c>
       <c r="B24" t="n">
-        <v>1324</v>
+        <v>776</v>
       </c>
       <c r="C24" t="n">
-        <v>1441</v>
+        <v>840</v>
       </c>
       <c r="D24" t="n">
-        <v>2.773472338848635</v>
+        <v>0.7848331329428996</v>
       </c>
       <c r="E24" t="n">
-        <v>2.21609737928779</v>
+        <v>0.1705237727966657</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.5573749595608459</v>
+        <v>-0.6143093601462338</v>
       </c>
       <c r="G24" t="n">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="H24" t="n">
-        <v>169.5527506698561</v>
+        <v>27.9069583410826</v>
       </c>
       <c r="I24" t="n">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="J24" t="n">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="K24" t="n">
-        <v>337.8928415279073</v>
+        <v>54.73730498570622</v>
       </c>
       <c r="L24" t="n">
-        <v>7.401513578753064</v>
+        <v>7.621487531080496</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.5417044817028915</v>
+        <v>0.8472776263768187</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.40625</v>
       </c>
       <c r="R24" t="n">
-        <v>0.09358917916134576</v>
+        <v>0.1883382695089386</v>
       </c>
       <c r="S24" t="n">
-        <v>0.7995527218470245</v>
+        <v>0.879233397772427</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>709</v>
+        <v>1384</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,73 +2535,73 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>737</v>
+        <v>840</v>
       </c>
       <c r="B25" t="n">
-        <v>921</v>
+        <v>874</v>
       </c>
       <c r="C25" t="n">
-        <v>1345</v>
+        <v>924</v>
       </c>
       <c r="D25" t="n">
-        <v>3.017153938345885</v>
+        <v>0.7803760899416095</v>
       </c>
       <c r="E25" t="n">
-        <v>2.54809271416903</v>
+        <v>0.1660667297953757</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.4690612241768543</v>
+        <v>-0.6143093601462338</v>
       </c>
       <c r="G25" t="n">
-        <v>608</v>
+        <v>84</v>
       </c>
       <c r="H25" t="n">
-        <v>60.77801941493715</v>
+        <v>63.29061771863257</v>
       </c>
       <c r="I25" t="n">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="J25" t="n">
-        <v>424</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>469.9406406824015</v>
+        <v>49.02141212407427</v>
       </c>
       <c r="L25" t="n">
-        <v>10.3544022894019</v>
+        <v>7.578205339957337</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1126), 'value': np.float64(1.1522803666284325), 'amplitude': np.float64(1.6213415908052866), 'start_idx': np.int64(1086), 'end_idx': np.int64(1163), 'duration': np.float64(77.0), 'fwhm': np.float64(39.39930402831783), 'rise_time': np.float64(40.0), 'decay_time': np.float64(37.0), 'auc': np.float64(82.89791472614253)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.5578860569260063</v>
+        <v>0.7683286406684017</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4339622641509434</v>
+        <v>0.68</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4586553892733037</v>
+        <v>0.2099083674963702</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6767544781663406</v>
+        <v>0.9677051508857922</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>710</v>
+        <v>1385</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1350</v>
+        <v>1834</v>
       </c>
       <c r="B26" t="n">
-        <v>1402</v>
+        <v>1890</v>
       </c>
       <c r="C26" t="n">
-        <v>1547</v>
+        <v>1975</v>
       </c>
       <c r="D26" t="n">
-        <v>2.549015404168025</v>
+        <v>3.7193998640437</v>
       </c>
       <c r="E26" t="n">
-        <v>1.838308867111178</v>
+        <v>3.105090503897466</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.7107065370568468</v>
+        <v>-0.6143093601462338</v>
       </c>
       <c r="G26" t="n">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="H26" t="n">
-        <v>131.279493598922</v>
+        <v>182.1167333250878</v>
       </c>
       <c r="I26" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J26" t="n">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="K26" t="n">
-        <v>276.903245784235</v>
+        <v>349.5646367767911</v>
       </c>
       <c r="L26" t="n">
-        <v>8.080851521108087</v>
+        <v>36.11896401546793</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.7764929948331083</v>
+        <v>0.7605561235709924</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3586206896551724</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="R26" t="n">
-        <v>0.163949447735476</v>
+        <v>0.2899113810169226</v>
       </c>
       <c r="S26" t="n">
-        <v>0.8884991293835536</v>
+        <v>0.941471298994992</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>711</v>
+        <v>1386</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>313</v>
+        <v>1975</v>
       </c>
       <c r="B27" t="n">
-        <v>339</v>
+        <v>2007</v>
       </c>
       <c r="C27" t="n">
-        <v>505</v>
+        <v>2055</v>
       </c>
       <c r="D27" t="n">
-        <v>2.426542954753119</v>
+        <v>2.670969079461149</v>
       </c>
       <c r="E27" t="n">
-        <v>1.822785984628517</v>
+        <v>2.056659719314915</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.6037569701246017</v>
+        <v>-0.6143093601462338</v>
       </c>
       <c r="G27" t="n">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="H27" t="n">
-        <v>32.34044901597304</v>
+        <v>28.78146079865451</v>
       </c>
       <c r="I27" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J27" t="n">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="K27" t="n">
-        <v>168.0369605080851</v>
+        <v>168.9654608643985</v>
       </c>
       <c r="L27" t="n">
-        <v>10.95996615392421</v>
+        <v>25.93768876535919</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.776217619021436</v>
+        <v>0.7445376384897029</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.1566265060240964</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R27" t="n">
-        <v>0.6767845124353422</v>
+        <v>0.118878944605017</v>
       </c>
       <c r="S27" t="n">
-        <v>0.740600168700901</v>
+        <v>0.9928039134357335</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>712</v>
+        <v>1387</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2227</v>
+        <v>2055</v>
       </c>
       <c r="B28" t="n">
-        <v>2261</v>
+        <v>2088</v>
       </c>
       <c r="C28" t="n">
-        <v>2399</v>
+        <v>2253</v>
       </c>
       <c r="D28" t="n">
-        <v>3.954492921488636</v>
+        <v>2.79138502351038</v>
       </c>
       <c r="E28" t="n">
-        <v>3.347535783961054</v>
+        <v>2.177075663364147</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6069571375275815</v>
+        <v>-0.6143093601462338</v>
       </c>
       <c r="G28" t="n">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="H28" t="n">
-        <v>270.8126235907607</v>
+        <v>46.23130718501807</v>
       </c>
       <c r="I28" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J28" t="n">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="K28" t="n">
-        <v>486.2007323146954</v>
+        <v>255.8734830862365</v>
       </c>
       <c r="L28" t="n">
-        <v>15.61037383005934</v>
+        <v>27.10704385192798</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.7957904251688001</v>
+        <v>0.8574437235164861</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.2463768115942029</v>
+        <v>0.2</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1233957220365337</v>
+        <v>0.4588558697966031</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9234121534858737</v>
+        <v>0.8763634039448807</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>713</v>
+        <v>1388</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2399</v>
+        <v>2917</v>
       </c>
       <c r="B29" t="n">
-        <v>2419</v>
+        <v>2936</v>
       </c>
       <c r="C29" t="n">
-        <v>2499</v>
+        <v>2998</v>
       </c>
       <c r="D29" t="n">
-        <v>2.497154172669549</v>
+        <v>3.112076735172095</v>
       </c>
       <c r="E29" t="n">
-        <v>1.890197035141968</v>
+        <v>2.497767375025861</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.6069571375275815</v>
+        <v>-0.6143093601462338</v>
       </c>
       <c r="G29" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H29" t="n">
-        <v>30.23759775943245</v>
+        <v>17.32486222277475</v>
       </c>
       <c r="I29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J29" t="n">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K29" t="n">
-        <v>169.9461342878622</v>
+        <v>191.0291369537127</v>
       </c>
       <c r="L29" t="n">
-        <v>9.857524319955024</v>
+        <v>30.22127002200029</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.9244931444171001</v>
+        <v>0.8983724569756604</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.25</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2920428473711478</v>
+        <v>0.2875990762375805</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9068915123659556</v>
+        <v>0.9852025572793428</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>714</v>
+        <v>1389</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2096</v>
+        <v>792</v>
       </c>
       <c r="B30" t="n">
-        <v>2148</v>
+        <v>823</v>
       </c>
       <c r="C30" t="n">
-        <v>2335</v>
+        <v>901</v>
       </c>
       <c r="D30" t="n">
-        <v>3.523092088715164</v>
+        <v>1.936947982425094</v>
       </c>
       <c r="E30" t="n">
-        <v>2.829116894066212</v>
+        <v>1.359216359434312</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.693975194648952</v>
+        <v>-0.5777316229907822</v>
       </c>
       <c r="G30" t="n">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="H30" t="n">
-        <v>79.16077696496313</v>
+        <v>42.93860754502941</v>
       </c>
       <c r="I30" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="J30" t="n">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="K30" t="n">
-        <v>462.8792616224356</v>
+        <v>114.0703260618978</v>
       </c>
       <c r="L30" t="n">
-        <v>17.10400470032885</v>
+        <v>7.705687831179241</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.9470408745472262</v>
+        <v>0.9037375430083323</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.2780748663101604</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2017932689807623</v>
+        <v>0.1978824163150089</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9511311943881882</v>
+        <v>0.9381471619048362</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>715</v>
+        <v>1390</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2390</v>
+        <v>2915</v>
       </c>
       <c r="B31" t="n">
-        <v>2425</v>
+        <v>2950</v>
       </c>
       <c r="C31" t="n">
-        <v>2562</v>
+        <v>2998</v>
       </c>
       <c r="D31" t="n">
-        <v>2.142555582988567</v>
+        <v>1.335487483344391</v>
       </c>
       <c r="E31" t="n">
-        <v>1.448580388339614</v>
+        <v>0.7577558603536092</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.693975194648952</v>
+        <v>-0.5777316229907822</v>
       </c>
       <c r="G31" t="n">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="H31" t="n">
-        <v>139.596711631546</v>
+        <v>24.05118202331641</v>
       </c>
       <c r="I31" t="n">
         <v>35</v>
       </c>
       <c r="J31" t="n">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="K31" t="n">
-        <v>296.1847555591264</v>
+        <v>56.14662177129924</v>
       </c>
       <c r="L31" t="n">
-        <v>10.40173797316686</v>
+        <v>5.312919986738485</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.7728556953300401</v>
+        <v>0.6940311662080156</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.2554744525547445</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="R31" t="n">
-        <v>0.2706612926639253</v>
+        <v>0.3869335935049395</v>
       </c>
       <c r="S31" t="n">
-        <v>0.3211697608492124</v>
+        <v>0.5684230546772002</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>716</v>
+        <v>1391</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2562</v>
+        <v>337</v>
       </c>
       <c r="B32" t="n">
-        <v>2608</v>
+        <v>493</v>
       </c>
       <c r="C32" t="n">
-        <v>2680</v>
+        <v>767</v>
       </c>
       <c r="D32" t="n">
-        <v>2.189848055122023</v>
+        <v>2.900843433856918</v>
       </c>
       <c r="E32" t="n">
-        <v>1.495872860473072</v>
+        <v>2.247547819356734</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.693975194648952</v>
+        <v>-0.6532956145001835</v>
       </c>
       <c r="G32" t="n">
-        <v>118</v>
+        <v>430</v>
       </c>
       <c r="H32" t="n">
-        <v>60.89019943248286</v>
+        <v>139.5791660643198</v>
       </c>
       <c r="I32" t="n">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="J32" t="n">
-        <v>72</v>
+        <v>274</v>
       </c>
       <c r="K32" t="n">
-        <v>189.5962155063209</v>
+        <v>599.6112492431992</v>
       </c>
       <c r="L32" t="n">
-        <v>10.63133477202766</v>
+        <v>6.548928835673225</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.7669540053281503</v>
+        <v>0.6228254248733535</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.5693430656934306</v>
       </c>
       <c r="R32" t="n">
-        <v>0.175619880460081</v>
+        <v>0.3253705171898048</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9424684168171547</v>
+        <v>0.7437335009892615</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>717</v>
+        <v>1392</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2680</v>
+        <v>1285</v>
       </c>
       <c r="B33" t="n">
-        <v>2725</v>
+        <v>1308</v>
       </c>
       <c r="C33" t="n">
-        <v>2785</v>
+        <v>1410</v>
       </c>
       <c r="D33" t="n">
-        <v>3.835681438015962</v>
+        <v>2.862044110429381</v>
       </c>
       <c r="E33" t="n">
-        <v>3.14170624336701</v>
+        <v>2.208748495929197</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.693975194648952</v>
+        <v>-0.6532956145001835</v>
       </c>
       <c r="G33" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="H33" t="n">
-        <v>79.16873850902584</v>
+        <v>23.65544102943954</v>
       </c>
       <c r="I33" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J33" t="n">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="K33" t="n">
-        <v>257.6459468854804</v>
+        <v>195.1335460019494</v>
       </c>
       <c r="L33" t="n">
-        <v>18.62157209995461</v>
+        <v>6.461335687751632</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.6905408834435414</v>
+        <v>0.8396540363692931</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.75</v>
+        <v>0.2254901960784314</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1456203514957497</v>
+        <v>0.4456901535190052</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9546332750796844</v>
+        <v>0.8391175276672243</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>718</v>
+        <v>1393</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2127</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>2172</v>
+        <v>26</v>
       </c>
       <c r="C34" t="n">
-        <v>2259</v>
+        <v>99</v>
       </c>
       <c r="D34" t="n">
-        <v>3.47780260931995</v>
+        <v>4.664939518326262</v>
       </c>
       <c r="E34" t="n">
-        <v>3.017970072221226</v>
+        <v>4.096454081310123</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.4598325370987238</v>
+        <v>-0.5684854370161395</v>
       </c>
       <c r="G34" t="n">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="H34" t="n">
-        <v>154.5215464352646</v>
+        <v>24.77049391606892</v>
       </c>
       <c r="I34" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="J34" t="n">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="K34" t="n">
-        <v>322.2087675382407</v>
+        <v>304.5842181588651</v>
       </c>
       <c r="L34" t="n">
-        <v>14.8675866580159</v>
+        <v>14.56991456888925</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.7547552572728927</v>
+        <v>0.836490331389906</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2219644245807778</v>
+        <v>0.2596788188074818</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7101364289804487</v>
+        <v>0.971351667960178</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>719</v>
+        <v>1394</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2902</v>
+        <v>1159</v>
       </c>
       <c r="B35" t="n">
-        <v>2943</v>
+        <v>1187</v>
       </c>
       <c r="C35" t="n">
-        <v>2998</v>
+        <v>1250</v>
       </c>
       <c r="D35" t="n">
-        <v>6.091921913800515</v>
+        <v>1.815100024499332</v>
       </c>
       <c r="E35" t="n">
-        <v>5.694088496130264</v>
+        <v>1.246614587483193</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3978334176702512</v>
+        <v>-0.5684854370161395</v>
       </c>
       <c r="G35" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H35" t="n">
-        <v>34.89361425691823</v>
+        <v>52.08597847756073</v>
       </c>
       <c r="I35" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="J35" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K35" t="n">
-        <v>335.531825304504</v>
+        <v>81.67779185664222</v>
       </c>
       <c r="L35" t="n">
-        <v>18.49106233125681</v>
+        <v>5.669066487797163</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.7512015667780212</v>
+        <v>0.7909956001639499</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7454545454545455</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="R35" t="n">
-        <v>0.3281286177076418</v>
+        <v>0.1747110642764287</v>
       </c>
       <c r="S35" t="n">
-        <v>0.6831536010420013</v>
+        <v>0.798988732272924</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>720</v>
+        <v>1395</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1309</v>
+        <v>226</v>
       </c>
       <c r="B36" t="n">
-        <v>1338</v>
+        <v>254</v>
       </c>
       <c r="C36" t="n">
-        <v>1418</v>
+        <v>301</v>
       </c>
       <c r="D36" t="n">
-        <v>3.365276917901942</v>
+        <v>1.617257906291943</v>
       </c>
       <c r="E36" t="n">
-        <v>2.75000000917491</v>
+        <v>1.075464664234844</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.6152769087270317</v>
+        <v>-0.5417932420570994</v>
       </c>
       <c r="G36" t="n">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="H36" t="n">
-        <v>35.30537098934701</v>
+        <v>27.01500143747739</v>
       </c>
       <c r="I36" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J36" t="n">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="K36" t="n">
-        <v>276.181591697173</v>
+        <v>66.23598385597161</v>
       </c>
       <c r="L36" t="n">
-        <v>19.79599011296043</v>
+        <v>6.02039187106627</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.8656314588782806</v>
+        <v>0.8307303020696293</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.3625</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1542848452941326</v>
+        <v>0.3277038506898153</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9821623532385036</v>
+        <v>0.8763255660346508</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>721</v>
+        <v>1396</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1897</v>
+        <v>537</v>
       </c>
       <c r="B37" t="n">
-        <v>1937</v>
+        <v>554</v>
       </c>
       <c r="C37" t="n">
-        <v>2011</v>
+        <v>577</v>
       </c>
       <c r="D37" t="n">
-        <v>2.443468122701052</v>
+        <v>1.15176335607314</v>
       </c>
       <c r="E37" t="n">
-        <v>1.82819121397402</v>
+        <v>0.6099701140160405</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.6152769087270317</v>
+        <v>-0.5417932420570994</v>
       </c>
       <c r="G37" t="n">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="H37" t="n">
-        <v>69.67380809025394</v>
+        <v>15.12123865777608</v>
       </c>
       <c r="I37" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J37" t="n">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="K37" t="n">
-        <v>153.5863552299431</v>
+        <v>32.03450896988576</v>
       </c>
       <c r="L37" t="n">
-        <v>14.37351872620352</v>
+        <v>4.287545430643898</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.8299311122292692</v>
+        <v>0.8078484294810431</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.5405405405405406</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="R37" t="n">
-        <v>0.3254920808804929</v>
+        <v>0.2722656808296635</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9698011003791831</v>
+        <v>0.9044517184630331</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>722</v>
+        <v>1397</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2452</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>2485</v>
+        <v>31</v>
       </c>
       <c r="C38" t="n">
-        <v>2533</v>
+        <v>125</v>
       </c>
       <c r="D38" t="n">
-        <v>1.714784104255592</v>
+        <v>3.66258133167999</v>
       </c>
       <c r="E38" t="n">
-        <v>1.09950719552856</v>
+        <v>2.97694041498542</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.6152769087270317</v>
+        <v>-0.6856409166945699</v>
       </c>
       <c r="G38" t="n">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="H38" t="n">
-        <v>132.3111515206288</v>
+        <v>27.01478662642481</v>
       </c>
       <c r="I38" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J38" t="n">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="K38" t="n">
-        <v>102.7027565759423</v>
+        <v>322.7225395512751</v>
       </c>
       <c r="L38" t="n">
-        <v>10.08708941398758</v>
+        <v>11.3296975367815</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.7253416534791028</v>
+        <v>0.6788545326624205</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.6875</v>
+        <v>0.3297872340425532</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1840596913039914</v>
+        <v>0.2035051479223153</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9816311984944078</v>
+        <v>0.8782125452237414</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>723</v>
+        <v>1398</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2533</v>
+        <v>231</v>
       </c>
       <c r="B39" t="n">
-        <v>2569</v>
+        <v>297</v>
       </c>
       <c r="C39" t="n">
-        <v>2638</v>
+        <v>393</v>
       </c>
       <c r="D39" t="n">
-        <v>1.405407450383667</v>
+        <v>2.295599362426385</v>
       </c>
       <c r="E39" t="n">
-        <v>0.790130541656635</v>
+        <v>1.609958445731815</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.6152769087270317</v>
+        <v>-0.6856409166945699</v>
       </c>
       <c r="G39" t="n">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="H39" t="n">
-        <v>33.37799736953275</v>
+        <v>49.53307336780546</v>
       </c>
       <c r="I39" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J39" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="K39" t="n">
-        <v>78.38721811098083</v>
+        <v>200.3319478537213</v>
       </c>
       <c r="L39" t="n">
-        <v>8.267204355301931</v>
+        <v>7.101124613112574</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.859610506886617</v>
+        <v>0.6006196898920462</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.6875</v>
       </c>
       <c r="R39" t="n">
-        <v>0.4077903832349644</v>
+        <v>0.1952571135167044</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9909093053771033</v>
+        <v>0.9372975503858978</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>724</v>
+        <v>1399</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1670</v>
+        <v>1121</v>
       </c>
       <c r="B40" t="n">
-        <v>1740</v>
+        <v>1149</v>
       </c>
       <c r="C40" t="n">
-        <v>1871</v>
+        <v>1196</v>
       </c>
       <c r="D40" t="n">
-        <v>4.032730523496608</v>
+        <v>2.816905132113329</v>
       </c>
       <c r="E40" t="n">
-        <v>3.536611836166041</v>
+        <v>2.13126421541876</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4961186873305671</v>
+        <v>-0.6856409166945699</v>
       </c>
       <c r="G40" t="n">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="H40" t="n">
-        <v>143.4513063566062</v>
+        <v>161.9751186396045</v>
       </c>
       <c r="I40" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="J40" t="n">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="K40" t="n">
-        <v>443.1183934813299</v>
+        <v>159.54726370551</v>
       </c>
       <c r="L40" t="n">
-        <v>20.02229780158428</v>
+        <v>8.713713156511016</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.7050629521585257</v>
+        <v>0.7467815356060278</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.5343511450381679</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="R40" t="n">
-        <v>1.019862643249605</v>
+        <v>0.1928496012814613</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8306685438102993</v>
+        <v>0.9450051985809429</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n50</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>725</v>
+        <v>1400</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,85 +3911,5933 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1871</v>
+        <v>145</v>
       </c>
       <c r="B41" t="n">
-        <v>1933</v>
+        <v>179</v>
       </c>
       <c r="C41" t="n">
-        <v>2017</v>
+        <v>327</v>
       </c>
       <c r="D41" t="n">
-        <v>3.186793475024554</v>
+        <v>2.857411871825149</v>
       </c>
       <c r="E41" t="n">
-        <v>2.690674787693987</v>
+        <v>2.166189211118798</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4961186873305671</v>
+        <v>-0.6912226607063517</v>
       </c>
       <c r="G41" t="n">
+        <v>182</v>
+      </c>
+      <c r="H41" t="n">
+        <v>68.96439616041653</v>
+      </c>
+      <c r="I41" t="n">
+        <v>34</v>
+      </c>
+      <c r="J41" t="n">
+        <v>148</v>
+      </c>
+      <c r="K41" t="n">
+        <v>237.6157668455807</v>
+      </c>
+      <c r="L41" t="n">
+        <v>7.176846431940409</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.9540126498368361</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.2297297297297297</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.3525841162291162</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.9241284652570638</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>1401</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>393</v>
+      </c>
+      <c r="B42" t="n">
+        <v>422</v>
+      </c>
+      <c r="C42" t="n">
+        <v>577</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.487976132289541</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.796753471583189</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.6912226607063517</v>
+      </c>
+      <c r="G42" t="n">
+        <v>184</v>
+      </c>
+      <c r="H42" t="n">
+        <v>128.5671682253899</v>
+      </c>
+      <c r="I42" t="n">
+        <v>29</v>
+      </c>
+      <c r="J42" t="n">
+        <v>155</v>
+      </c>
+      <c r="K42" t="n">
+        <v>277.7622865629212</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6.248949549009128</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.8387107277900213</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.1870967741935484</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.2067593418256168</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.7989107111822686</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>1402</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>988</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1253</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3.255973358588605</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.564750697882254</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.6912226607063517</v>
+      </c>
+      <c r="G43" t="n">
+        <v>265</v>
+      </c>
+      <c r="H43" t="n">
+        <v>105.4405657394565</v>
+      </c>
+      <c r="I43" t="n">
+        <v>35</v>
+      </c>
+      <c r="J43" t="n">
+        <v>230</v>
+      </c>
+      <c r="K43" t="n">
+        <v>333.8774703276302</v>
+      </c>
+      <c r="L43" t="n">
+        <v>8.177897282324155</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8523003767222592</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.1521739130434783</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.4313807252395734</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.6408297364215325</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>1403</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>364</v>
+      </c>
+      <c r="B44" t="n">
+        <v>407</v>
+      </c>
+      <c r="C44" t="n">
+        <v>530</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.637394853534529</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.105217982270259</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.5321768712642698</v>
+      </c>
+      <c r="G44" t="n">
+        <v>166</v>
+      </c>
+      <c r="H44" t="n">
+        <v>53.81688131887262</v>
+      </c>
+      <c r="I44" t="n">
+        <v>43</v>
+      </c>
+      <c r="J44" t="n">
+        <v>123</v>
+      </c>
+      <c r="K44" t="n">
+        <v>351.938777824857</v>
+      </c>
+      <c r="L44" t="n">
+        <v>15.34939544517842</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.8935169451795382</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.3495934959349594</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.3897197665666474</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.8084936295422913</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>1404</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>185</v>
+      </c>
+      <c r="B45" t="n">
+        <v>207</v>
+      </c>
+      <c r="C45" t="n">
+        <v>253</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.155601740174177</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.5596527252982665</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.5959490148759107</v>
+      </c>
+      <c r="G45" t="n">
+        <v>68</v>
+      </c>
+      <c r="H45" t="n">
+        <v>41.97768462182955</v>
+      </c>
+      <c r="I45" t="n">
+        <v>22</v>
+      </c>
+      <c r="J45" t="n">
+        <v>46</v>
+      </c>
+      <c r="K45" t="n">
+        <v>59.92711778156576</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.333863215550218</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.812183097618408</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.33530778132286</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.7918260663254646</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>1405</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1197</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.308431784993036</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.7124827701171248</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.5959490148759107</v>
+      </c>
+      <c r="G46" t="n">
+        <v>127</v>
+      </c>
+      <c r="H46" t="n">
+        <v>31.11230810041639</v>
+      </c>
+      <c r="I46" t="n">
+        <v>50</v>
+      </c>
+      <c r="J46" t="n">
+        <v>77</v>
+      </c>
+      <c r="K46" t="n">
+        <v>73.08199154623983</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4.907023056389078</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.6826281176326492</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.6493506493506493</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.4043241197114963</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.7786334435862292</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>1406</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1197</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1229</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1293</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.090305810558936</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.494356795683025</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.5959490148759107</v>
+      </c>
+      <c r="G47" t="n">
+        <v>96</v>
+      </c>
+      <c r="H47" t="n">
+        <v>43.66037652088585</v>
+      </c>
+      <c r="I47" t="n">
+        <v>32</v>
+      </c>
+      <c r="J47" t="n">
+        <v>64</v>
+      </c>
+      <c r="K47" t="n">
+        <v>101.4652645612701</v>
+      </c>
+      <c r="L47" t="n">
+        <v>7.839291986759061</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.7759228368767467</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.1179567917555462</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.9635843948049929</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>1407</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1439</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1466</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1520</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.369346034838069</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.773397019962158</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.5959490148759107</v>
+      </c>
+      <c r="G48" t="n">
+        <v>81</v>
+      </c>
+      <c r="H48" t="n">
+        <v>15.10000754931548</v>
+      </c>
+      <c r="I48" t="n">
+        <v>27</v>
+      </c>
+      <c r="J48" t="n">
+        <v>54</v>
+      </c>
+      <c r="K48" t="n">
+        <v>135.8252190028096</v>
+      </c>
+      <c r="L48" t="n">
+        <v>8.885778956811514</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.786984337046024</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.3288597518116</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.9273550870557394</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>1408</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2937</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2960</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.706030088925693</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.110081074049782</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.5959490148759107</v>
+      </c>
+      <c r="G49" t="n">
+        <v>61</v>
+      </c>
+      <c r="H49" t="n">
+        <v>33.80108926571893</v>
+      </c>
+      <c r="I49" t="n">
+        <v>23</v>
+      </c>
+      <c r="J49" t="n">
+        <v>38</v>
+      </c>
+      <c r="K49" t="n">
+        <v>125.0911410440832</v>
+      </c>
+      <c r="L49" t="n">
+        <v>10.14844808108329</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.7404249776977168</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.6052631578947368</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.1317664024773371</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.9872539628287973</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>1409</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>195</v>
+      </c>
+      <c r="B50" t="n">
+        <v>226</v>
+      </c>
+      <c r="C50" t="n">
+        <v>465</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.968825518648301</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.268482929563338</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.7003425890849637</v>
+      </c>
+      <c r="G50" t="n">
+        <v>270</v>
+      </c>
+      <c r="H50" t="n">
+        <v>24.68509100671966</v>
+      </c>
+      <c r="I50" t="n">
+        <v>31</v>
+      </c>
+      <c r="J50" t="n">
+        <v>239</v>
+      </c>
+      <c r="K50" t="n">
+        <v>244.1961507274164</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4.334907431043876</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(334), 'value': np.float64(0.677617590599821), 'amplitude': np.float64(1.3779601796847847), 'start_idx': np.int64(301), 'end_idx': np.int64(356), 'duration': np.float64(55.0), 'fwhm': np.float64(33.17629783542844), 'rise_time': np.float64(33.0), 'decay_time': np.float64(22.0), 'auc': np.float64(53.77989921534251)}]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.6792153302195657</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.1297071129707113</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.481075964449285</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.454075776189047</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>1410</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>465</v>
+      </c>
+      <c r="B51" t="n">
+        <v>627</v>
+      </c>
+      <c r="C51" t="n">
+        <v>867</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3.83291437658275</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.132571787497786</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.7003425890849637</v>
+      </c>
+      <c r="G51" t="n">
+        <v>402</v>
+      </c>
+      <c r="H51" t="n">
+        <v>186.1698001252322</v>
+      </c>
+      <c r="I51" t="n">
+        <v>162</v>
+      </c>
+      <c r="J51" t="n">
+        <v>240</v>
+      </c>
+      <c r="K51" t="n">
+        <v>732.7510429291009</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.439208480500971</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.6582293501028257</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.2295152728973961</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.9262475347267772</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>1411</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1416</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1473</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1584</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.849287067094812</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.148944478009849</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.7003425890849637</v>
+      </c>
+      <c r="G52" t="n">
+        <v>168</v>
+      </c>
+      <c r="H52" t="n">
+        <v>96.04832968021401</v>
+      </c>
+      <c r="I52" t="n">
+        <v>57</v>
+      </c>
+      <c r="J52" t="n">
+        <v>111</v>
+      </c>
+      <c r="K52" t="n">
+        <v>200.4799158494976</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4.071710861806771</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.6970993876458631</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.326736335698066</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.7366529187104742</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>1412</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>41</v>
+      </c>
+      <c r="C53" t="n">
+        <v>101</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.854832782678578</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.196104173088893</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.6587286095896849</v>
+      </c>
+      <c r="G53" t="n">
+        <v>101</v>
+      </c>
+      <c r="H53" t="n">
+        <v>39.05103705789905</v>
+      </c>
+      <c r="I53" t="n">
+        <v>41</v>
+      </c>
+      <c r="J53" t="n">
+        <v>60</v>
+      </c>
+      <c r="K53" t="n">
+        <v>104.5185256616057</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4.658245120567647</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.6487869767783673</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.6833333333333333</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.2042593206229421</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.9311720076619865</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>1413</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>607</v>
+      </c>
+      <c r="B54" t="n">
+        <v>684</v>
+      </c>
+      <c r="C54" t="n">
+        <v>906</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.547115890176038</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.8883872805863535</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.6587286095896849</v>
+      </c>
+      <c r="G54" t="n">
+        <v>299</v>
+      </c>
+      <c r="H54" t="n">
+        <v>60.88735432389262</v>
+      </c>
+      <c r="I54" t="n">
+        <v>77</v>
+      </c>
+      <c r="J54" t="n">
+        <v>222</v>
+      </c>
+      <c r="K54" t="n">
+        <v>241.1549803231991</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.885441918897801</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(773), 'value': np.float64(0.7223397043349741), 'amplitude': np.float64(1.3810683139246591), 'start_idx': np.int64(738), 'end_idx': np.int64(782), 'duration': np.float64(44.0), 'fwhm': np.float64(63.01749823925377), 'rise_time': np.float64(35.0), 'decay_time': np.float64(9.0), 'auc': np.float64(46.43886925769373)}]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.6947925725018382</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.3468468468468469</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.354688366532177</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.4577614790700675</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>1414</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>458</v>
+      </c>
+      <c r="B55" t="n">
+        <v>469</v>
+      </c>
+      <c r="C55" t="n">
+        <v>520</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.088498984602312</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.481493258253889</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.6070057263484233</v>
+      </c>
+      <c r="G55" t="n">
+        <v>62</v>
+      </c>
+      <c r="H55" t="n">
+        <v>23.2385062769045</v>
+      </c>
+      <c r="I55" t="n">
+        <v>11</v>
+      </c>
+      <c r="J55" t="n">
+        <v>51</v>
+      </c>
+      <c r="K55" t="n">
+        <v>97.65801754519821</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5.136400035857343</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.8642538793057887</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.1591088773546979</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.8079537647415902</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>1415</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>184</v>
+      </c>
+      <c r="B56" t="n">
+        <v>207</v>
+      </c>
+      <c r="C56" t="n">
+        <v>242</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.656343887978338</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.013134284128672</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.6432096038496659</v>
+      </c>
+      <c r="G56" t="n">
+        <v>58</v>
+      </c>
+      <c r="H56" t="n">
+        <v>32.92003739214977</v>
+      </c>
+      <c r="I56" t="n">
+        <v>23</v>
+      </c>
+      <c r="J56" t="n">
+        <v>35</v>
+      </c>
+      <c r="K56" t="n">
+        <v>54.49480146113539</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4.762457443784274</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.7163624211272697</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.1337060979925511</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.9437250005037023</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>1416</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>549</v>
+      </c>
+      <c r="B57" t="n">
+        <v>578</v>
+      </c>
+      <c r="C57" t="n">
+        <v>636</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.428205663066521</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.784996059216855</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.6432096038496659</v>
+      </c>
+      <c r="G57" t="n">
+        <v>87</v>
+      </c>
+      <c r="H57" t="n">
+        <v>235.9337315641915</v>
+      </c>
+      <c r="I57" t="n">
+        <v>29</v>
+      </c>
+      <c r="J57" t="n">
+        <v>58</v>
+      </c>
+      <c r="K57" t="n">
+        <v>205.6152283458682</v>
+      </c>
+      <c r="L57" t="n">
+        <v>9.85706150600296</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.7119074931700022</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.1175240644565949</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.9642497094620848</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>1417</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>636</v>
+      </c>
+      <c r="B58" t="n">
+        <v>665</v>
+      </c>
+      <c r="C58" t="n">
+        <v>725</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.634334352652142</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.991124748802476</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.6432096038496659</v>
+      </c>
+      <c r="G58" t="n">
+        <v>89</v>
+      </c>
+      <c r="H58" t="n">
+        <v>33.97492777257287</v>
+      </c>
+      <c r="I58" t="n">
+        <v>29</v>
+      </c>
+      <c r="J58" t="n">
+        <v>60</v>
+      </c>
+      <c r="K58" t="n">
+        <v>189.6053286654198</v>
+      </c>
+      <c r="L58" t="n">
+        <v>7.574456813142715</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.7447083664278968</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.1079527580246432</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.7336063511150137</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>1418</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>725</v>
+      </c>
+      <c r="B59" t="n">
+        <v>744</v>
+      </c>
+      <c r="C59" t="n">
+        <v>896</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.273394952430568</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.630185348580902</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.6432096038496659</v>
+      </c>
+      <c r="G59" t="n">
+        <v>171</v>
+      </c>
+      <c r="H59" t="n">
+        <v>46.73939333974783</v>
+      </c>
+      <c r="I59" t="n">
+        <v>19</v>
+      </c>
+      <c r="J59" t="n">
+        <v>152</v>
+      </c>
+      <c r="K59" t="n">
+        <v>240.6640245128557</v>
+      </c>
+      <c r="L59" t="n">
+        <v>6.536653887182484</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.7953650395884779</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.3308139431737208</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.6519411552445998</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>1419</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1322</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1348</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1381</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.844555511584651</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.201345907734986</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.6432096038496659</v>
+      </c>
+      <c r="G60" t="n">
+        <v>59</v>
+      </c>
+      <c r="H60" t="n">
+        <v>29.19412128402041</v>
+      </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>33</v>
+      </c>
+      <c r="K60" t="n">
+        <v>62.67559663432282</v>
+      </c>
+      <c r="L60" t="n">
+        <v>5.303619127874319</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.64769079120257</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.08206466713697627</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.9289545352641657</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>1420</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2225</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2253</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2348</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.373388733379513</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.7301791295298468</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.6432096038496659</v>
+      </c>
+      <c r="G61" t="n">
+        <v>123</v>
+      </c>
+      <c r="H61" t="n">
+        <v>21.97684152252714</v>
+      </c>
+      <c r="I61" t="n">
+        <v>28</v>
+      </c>
+      <c r="J61" t="n">
+        <v>95</v>
+      </c>
+      <c r="K61" t="n">
+        <v>122.8348829530144</v>
+      </c>
+      <c r="L61" t="n">
+        <v>3.948881294497375</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.7792160113041192</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.2947368421052631</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.5115965394446248</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.4922493228956833</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>1421</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>786</v>
+      </c>
+      <c r="B62" t="n">
+        <v>811</v>
+      </c>
+      <c r="C62" t="n">
+        <v>920</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.1208118875372</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.632858626146865</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.4879532613903346</v>
+      </c>
+      <c r="G62" t="n">
+        <v>134</v>
+      </c>
+      <c r="H62" t="n">
+        <v>38.09172704513196</v>
+      </c>
+      <c r="I62" t="n">
+        <v>25</v>
+      </c>
+      <c r="J62" t="n">
+        <v>109</v>
+      </c>
+      <c r="K62" t="n">
+        <v>295.5412810295264</v>
+      </c>
+      <c r="L62" t="n">
+        <v>7.132536902633849</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.9094349603957387</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.2293577981651376</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.2624711604615277</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.9284067348586454</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>1422</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1429</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1454</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1516</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.176523692795569</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.639967617294715</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.5365560755008544</v>
+      </c>
+      <c r="G63" t="n">
+        <v>87</v>
+      </c>
+      <c r="H63" t="n">
+        <v>25.98780712661096</v>
+      </c>
+      <c r="I63" t="n">
+        <v>25</v>
+      </c>
+      <c r="J63" t="n">
+        <v>62</v>
+      </c>
+      <c r="K63" t="n">
+        <v>205.9509203981237</v>
+      </c>
+      <c r="L63" t="n">
+        <v>28.54529609955554</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.866474690588833</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.4032258064516129</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.2034498160131921</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.9237799592867117</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>1423</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2451</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2493</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2647</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.956856848275242</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.420300772774388</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.5365560755008544</v>
+      </c>
+      <c r="G64" t="n">
+        <v>196</v>
+      </c>
+      <c r="H64" t="n">
+        <v>82.04218147873371</v>
+      </c>
+      <c r="I64" t="n">
+        <v>42</v>
+      </c>
+      <c r="J64" t="n">
+        <v>154</v>
+      </c>
+      <c r="K64" t="n">
+        <v>350.1822111965337</v>
+      </c>
+      <c r="L64" t="n">
+        <v>35.55762880464054</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.9669513654977583</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.2302675956158363</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.9273184487886605</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>1424</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2689</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2717</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2861</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3.494788290284765</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.958232214783911</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.5365560755008544</v>
+      </c>
+      <c r="G65" t="n">
+        <v>172</v>
+      </c>
+      <c r="H65" t="n">
+        <v>72.2600834300174</v>
+      </c>
+      <c r="I65" t="n">
+        <v>28</v>
+      </c>
+      <c r="J65" t="n">
+        <v>144</v>
+      </c>
+      <c r="K65" t="n">
+        <v>294.7233898757014</v>
+      </c>
+      <c r="L65" t="n">
+        <v>31.4053273953837</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.8638896377827004</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.1944444444444444</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.3648862752316683</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.642956611362805</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>1425</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2861</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2893</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2945</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.394627970157991</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.8580718946571364</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.5365560755008544</v>
+      </c>
+      <c r="G66" t="n">
+        <v>84</v>
+      </c>
+      <c r="H66" t="n">
+        <v>31.58653725767681</v>
+      </c>
+      <c r="I66" t="n">
+        <v>32</v>
+      </c>
+      <c r="J66" t="n">
+        <v>52</v>
+      </c>
+      <c r="K66" t="n">
+        <v>56.14013034241744</v>
+      </c>
+      <c r="L66" t="n">
+        <v>12.53258977641883</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.8242672704360845</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.1888038661890085</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.9693678100822296</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>1426</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1920</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3.261872473049412</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.763965392287304</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.4979070807621084</v>
+      </c>
+      <c r="G67" t="n">
+        <v>67</v>
+      </c>
+      <c r="H67" t="n">
+        <v>34.09598766029171</v>
+      </c>
+      <c r="I67" t="n">
+        <v>29</v>
+      </c>
+      <c r="J67" t="n">
+        <v>38</v>
+      </c>
+      <c r="K67" t="n">
+        <v>172.3858449488125</v>
+      </c>
+      <c r="L67" t="n">
+        <v>20.18089452262664</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.6480527409598508</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.07821525211268199</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.9353425034450359</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>1427</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2094</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3.249196848319899</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.751289767557791</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.4979070807621084</v>
+      </c>
+      <c r="G68" t="n">
+        <v>107</v>
+      </c>
+      <c r="H68" t="n">
+        <v>28.48725907683502</v>
+      </c>
+      <c r="I68" t="n">
+        <v>35</v>
+      </c>
+      <c r="J68" t="n">
+        <v>72</v>
+      </c>
+      <c r="K68" t="n">
+        <v>238.52898671886</v>
+      </c>
+      <c r="L68" t="n">
+        <v>20.10247163890318</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.7269454141712411</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.3008402861330947</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.8897661283602577</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>1428</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>699</v>
+      </c>
+      <c r="B69" t="n">
+        <v>752</v>
+      </c>
+      <c r="C69" t="n">
+        <v>825</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.835483909858773</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.247801845421479</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.5876820644372943</v>
+      </c>
+      <c r="G69" t="n">
+        <v>126</v>
+      </c>
+      <c r="H69" t="n">
+        <v>80.42195519774748</v>
+      </c>
+      <c r="I69" t="n">
+        <v>53</v>
+      </c>
+      <c r="J69" t="n">
+        <v>73</v>
+      </c>
+      <c r="K69" t="n">
+        <v>156.3071773410744</v>
+      </c>
+      <c r="L69" t="n">
+        <v>4.841708281434036</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.6073928419676007</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.726027397260274</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.6187967712342024</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.4382617398469988</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>1429</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1128</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1255</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.680311724809614</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.192516787544114</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.4877949372654997</v>
+      </c>
+      <c r="G70" t="n">
+        <v>207</v>
+      </c>
+      <c r="H70" t="n">
+        <v>34.52203420113483</v>
+      </c>
+      <c r="I70" t="n">
+        <v>80</v>
+      </c>
+      <c r="J70" t="n">
+        <v>127</v>
+      </c>
+      <c r="K70" t="n">
+        <v>151.7817256083005</v>
+      </c>
+      <c r="L70" t="n">
+        <v>5.663895796798165</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.5510509617342848</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.6299212598425197</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.3234106788147</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.8554127381713383</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>1430</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>724</v>
+      </c>
+      <c r="B71" t="n">
+        <v>750</v>
+      </c>
+      <c r="C71" t="n">
+        <v>825</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.481395093067409</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.9419983023114211</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.539396790755988</v>
+      </c>
+      <c r="G71" t="n">
+        <v>101</v>
+      </c>
+      <c r="H71" t="n">
+        <v>34.98061966538535</v>
+      </c>
+      <c r="I71" t="n">
+        <v>26</v>
+      </c>
+      <c r="J71" t="n">
+        <v>75</v>
+      </c>
+      <c r="K71" t="n">
+        <v>82.84816506524825</v>
+      </c>
+      <c r="L71" t="n">
+        <v>4.319891245847491</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.9019495616806678</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.3466666666666667</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.265710814388784</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.7922588891323404</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>1431</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>922</v>
+      </c>
+      <c r="B72" t="n">
+        <v>990</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1123</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4.424750730009031</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.885353939253043</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.539396790755988</v>
+      </c>
+      <c r="G72" t="n">
+        <v>201</v>
+      </c>
+      <c r="H72" t="n">
+        <v>101.071852949943</v>
+      </c>
+      <c r="I72" t="n">
+        <v>68</v>
+      </c>
+      <c r="J72" t="n">
+        <v>133</v>
+      </c>
+      <c r="K72" t="n">
+        <v>443.6281028479954</v>
+      </c>
+      <c r="L72" t="n">
+        <v>12.90300071403944</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.7653144032269455</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.5112781954887218</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.2315708163939998</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.9692875214968367</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>1432</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>444</v>
+      </c>
+      <c r="B73" t="n">
+        <v>465</v>
+      </c>
+      <c r="C73" t="n">
+        <v>519</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.49086620473621</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.001963993321218</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.4889022114149922</v>
+      </c>
+      <c r="G73" t="n">
+        <v>75</v>
+      </c>
+      <c r="H73" t="n">
+        <v>23.6421963569864</v>
+      </c>
+      <c r="I73" t="n">
+        <v>21</v>
+      </c>
+      <c r="J73" t="n">
+        <v>54</v>
+      </c>
+      <c r="K73" t="n">
+        <v>71.22532611406031</v>
+      </c>
+      <c r="L73" t="n">
+        <v>4.972322266350377</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.8722120872936622</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.2887991932863159</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.8152597452207941</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>1433</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1157</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1243</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3.041202440875472</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.55230022946048</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.4889022114149922</v>
+      </c>
+      <c r="G74" t="n">
         <v>146</v>
       </c>
-      <c r="H41" t="n">
-        <v>56.65614532298741</v>
-      </c>
-      <c r="I41" t="n">
-        <v>62</v>
-      </c>
-      <c r="J41" t="n">
+      <c r="H74" t="n">
+        <v>34.97448193023615</v>
+      </c>
+      <c r="I74" t="n">
+        <v>60</v>
+      </c>
+      <c r="J74" t="n">
+        <v>86</v>
+      </c>
+      <c r="K74" t="n">
+        <v>141.915494686638</v>
+      </c>
+      <c r="L74" t="n">
+        <v>10.14298839507188</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.6524099401734703</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.2380410483885928</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.7718378896425235</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>1434</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>12</v>
+      </c>
+      <c r="B75" t="n">
+        <v>61</v>
+      </c>
+      <c r="C75" t="n">
+        <v>126</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.117042957639308</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.395813787699773</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.7212291699395355</v>
+      </c>
+      <c r="G75" t="n">
+        <v>114</v>
+      </c>
+      <c r="H75" t="n">
+        <v>94.32182779436147</v>
+      </c>
+      <c r="I75" t="n">
+        <v>49</v>
+      </c>
+      <c r="J75" t="n">
+        <v>65</v>
+      </c>
+      <c r="K75" t="n">
+        <v>162.7954742997937</v>
+      </c>
+      <c r="L75" t="n">
+        <v>6.702371158306837</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.4782562058296396</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.7538461538461538</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.1520552746727767</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.7417358888021457</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>1435</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1352</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1397</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1559</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.706453729846005</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.985224559906469</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.7212291699395355</v>
+      </c>
+      <c r="G76" t="n">
+        <v>207</v>
+      </c>
+      <c r="H76" t="n">
+        <v>123.9259657592836</v>
+      </c>
+      <c r="I76" t="n">
+        <v>45</v>
+      </c>
+      <c r="J76" t="n">
+        <v>162</v>
+      </c>
+      <c r="K76" t="n">
+        <v>283.1378409177436</v>
+      </c>
+      <c r="L76" t="n">
+        <v>8.568393643008152</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.8733777504398349</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.207737248482065</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.8378075909045187</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>1436</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1838</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1859</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1938</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.345581830888531</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.624352660948995</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.7212291699395355</v>
+      </c>
+      <c r="G77" t="n">
+        <v>100</v>
+      </c>
+      <c r="H77" t="n">
+        <v>43.57752280234808</v>
+      </c>
+      <c r="I77" t="n">
+        <v>21</v>
+      </c>
+      <c r="J77" t="n">
+        <v>79</v>
+      </c>
+      <c r="K77" t="n">
+        <v>206.1171913259454</v>
+      </c>
+      <c r="L77" t="n">
+        <v>7.42590506067298</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.8543268272331948</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.1985601107113987</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.545663893804986</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>1437</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2210</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2245</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.299209176167677</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.577980006228142</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.7212291699395355</v>
+      </c>
+      <c r="G78" t="n">
+        <v>180</v>
+      </c>
+      <c r="H78" t="n">
+        <v>71.05445618074873</v>
+      </c>
+      <c r="I78" t="n">
+        <v>35</v>
+      </c>
+      <c r="J78" t="n">
+        <v>145</v>
+      </c>
+      <c r="K78" t="n">
+        <v>219.3788841546243</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7.279093328575797</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>0.9182313845012411</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.2471386186380984</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.7423217819570002</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>1438</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2577</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2607</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2672</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.943940031615287</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.222710861675751</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.7212291699395355</v>
+      </c>
+      <c r="G79" t="n">
+        <v>95</v>
+      </c>
+      <c r="H79" t="n">
+        <v>55.94466100120644</v>
+      </c>
+      <c r="I79" t="n">
+        <v>30</v>
+      </c>
+      <c r="J79" t="n">
+        <v>65</v>
+      </c>
+      <c r="K79" t="n">
+        <v>112.6580874492156</v>
+      </c>
+      <c r="L79" t="n">
+        <v>6.154342572200275</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0.8551547889415937</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.3384846504428479</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.9436015641662965</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>1439</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>313</v>
+      </c>
+      <c r="B80" t="n">
+        <v>340</v>
+      </c>
+      <c r="C80" t="n">
+        <v>493</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.678121929985426</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.07126036678653</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.6068615631988957</v>
+      </c>
+      <c r="G80" t="n">
+        <v>180</v>
+      </c>
+      <c r="H80" t="n">
+        <v>26.93248982011636</v>
+      </c>
+      <c r="I80" t="n">
+        <v>27</v>
+      </c>
+      <c r="J80" t="n">
+        <v>153</v>
+      </c>
+      <c r="K80" t="n">
+        <v>166.569626523908</v>
+      </c>
+      <c r="L80" t="n">
+        <v>12.00447775700693</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>0.7547121838884497</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.6647373931093429</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.6372948326621957</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>1440</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1445</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1475</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1520</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.737853079791232</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.130991516592336</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.6068615631988957</v>
+      </c>
+      <c r="G81" t="n">
+        <v>75</v>
+      </c>
+      <c r="H81" t="n">
+        <v>59.27876611864531</v>
+      </c>
+      <c r="I81" t="n">
+        <v>30</v>
+      </c>
+      <c r="J81" t="n">
+        <v>45</v>
+      </c>
+      <c r="K81" t="n">
+        <v>146.0828706624604</v>
+      </c>
+      <c r="L81" t="n">
+        <v>12.27221809071465</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>0.6512744526572354</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.09870250285063976</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.8892594989483869</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>1441</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1816</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1847</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3.224447229519643</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.617585666320748</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.6068615631988957</v>
+      </c>
+      <c r="G82" t="n">
+        <v>87</v>
+      </c>
+      <c r="H82" t="n">
+        <v>32.37484646516918</v>
+      </c>
+      <c r="I82" t="n">
+        <v>31</v>
+      </c>
+      <c r="J82" t="n">
+        <v>56</v>
+      </c>
+      <c r="K82" t="n">
+        <v>193.028053574852</v>
+      </c>
+      <c r="L82" t="n">
+        <v>14.45333933904265</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0.8621187731547126</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.3314479884770388</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.9348239329115247</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>1442</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2250</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2273</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2351</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4.181764675181319</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3.621655582610011</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.5601090925713078</v>
+      </c>
+      <c r="G83" t="n">
+        <v>101</v>
+      </c>
+      <c r="H83" t="n">
+        <v>143.9560216406885</v>
+      </c>
+      <c r="I83" t="n">
+        <v>23</v>
+      </c>
+      <c r="J83" t="n">
+        <v>78</v>
+      </c>
+      <c r="K83" t="n">
+        <v>300.2805728806237</v>
+      </c>
+      <c r="L83" t="n">
+        <v>17.01353229660753</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0.8995951682879382</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.2948717948717949</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.2791135075701007</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.9431094872036468</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
+        <v>1443</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2351</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2382</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2425</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3.503646829017928</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.943537736446621</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.5601090925713078</v>
+      </c>
+      <c r="G84" t="n">
+        <v>74</v>
+      </c>
+      <c r="H84" t="n">
+        <v>37.61530175377675</v>
+      </c>
+      <c r="I84" t="n">
+        <v>31</v>
+      </c>
+      <c r="J84" t="n">
+        <v>43</v>
+      </c>
+      <c r="K84" t="n">
+        <v>176.2160745233971</v>
+      </c>
+      <c r="L84" t="n">
+        <v>14.25460615590916</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>0.6598531033608361</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.7209302325581395</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.06844865916525111</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.9861812666569589</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
+        <v>1444</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1958</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.73315533261475</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.1320845266807</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.6010708059340496</v>
+      </c>
+      <c r="G85" t="n">
+        <v>65</v>
+      </c>
+      <c r="H85" t="n">
+        <v>20.88586868049151</v>
+      </c>
+      <c r="I85" t="n">
+        <v>20</v>
+      </c>
+      <c r="J85" t="n">
+        <v>45</v>
+      </c>
+      <c r="K85" t="n">
+        <v>64.61535793188858</v>
+      </c>
+      <c r="L85" t="n">
+        <v>6.774314200600859</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0.870331011972247</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.3044286255099506</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.9008080649403155</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>1445</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2056</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2150</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3.241200807694875</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2.640130001760825</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.6010708059340496</v>
+      </c>
+      <c r="G86" t="n">
+        <v>127</v>
+      </c>
+      <c r="H86" t="n">
+        <v>38.3232808878679</v>
+      </c>
+      <c r="I86" t="n">
+        <v>33</v>
+      </c>
+      <c r="J86" t="n">
+        <v>94</v>
+      </c>
+      <c r="K86" t="n">
+        <v>195.0543946829001</v>
+      </c>
+      <c r="L86" t="n">
+        <v>12.66875059919803</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>0.8965719745446259</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.351063829787234</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.2920876683358092</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.8758846788611437</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U86" t="n">
+        <v>1446</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2284</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2308</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2403</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3.462022287849256</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.860951481915206</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.6010708059340496</v>
+      </c>
+      <c r="G87" t="n">
+        <v>119</v>
+      </c>
+      <c r="H87" t="n">
+        <v>20.9480747900011</v>
+      </c>
+      <c r="I87" t="n">
+        <v>24</v>
+      </c>
+      <c r="J87" t="n">
+        <v>95</v>
+      </c>
+      <c r="K87" t="n">
+        <v>306.7782886587555</v>
+      </c>
+      <c r="L87" t="n">
+        <v>13.53186659385656</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>0.8151084685907655</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.2526315789473684</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.2527521317699524</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.6916512135899691</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>1447</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2403</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2425</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2492</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.795748042240944</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.194677236306894</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.6010708059340496</v>
+      </c>
+      <c r="G88" t="n">
+        <v>89</v>
+      </c>
+      <c r="H88" t="n">
+        <v>23.18755156257021</v>
+      </c>
+      <c r="I88" t="n">
+        <v>22</v>
+      </c>
+      <c r="J88" t="n">
+        <v>67</v>
+      </c>
+      <c r="K88" t="n">
+        <v>157.2328588452006</v>
+      </c>
+      <c r="L88" t="n">
+        <v>10.92762737848884</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>0.8687991662605141</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.3283582089552239</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.2920425883839323</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.7937181394493905</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U88" t="n">
+        <v>1448</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1902</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.040843896535419</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.3454520581512841</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.6953918383841349</v>
+      </c>
+      <c r="G89" t="n">
+        <v>88</v>
+      </c>
+      <c r="H89" t="n">
+        <v>43.47360379236693</v>
+      </c>
+      <c r="I89" t="n">
+        <v>39</v>
+      </c>
+      <c r="J89" t="n">
+        <v>49</v>
+      </c>
+      <c r="K89" t="n">
+        <v>67.91503751871213</v>
+      </c>
+      <c r="L89" t="n">
+        <v>4.990830911601019</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>0.7673768894293037</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.7959183673469388</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.2058592283753747</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.9680638559779168</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U89" t="n">
+        <v>1449</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2102</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2138</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2215</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3.711946865367672</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.016555026983538</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.6953918383841349</v>
+      </c>
+      <c r="G90" t="n">
+        <v>113</v>
+      </c>
+      <c r="H90" t="n">
+        <v>84.48380669027847</v>
+      </c>
+      <c r="I90" t="n">
+        <v>36</v>
+      </c>
+      <c r="J90" t="n">
+        <v>77</v>
+      </c>
+      <c r="K90" t="n">
+        <v>285.8009412138286</v>
+      </c>
+      <c r="L90" t="n">
+        <v>17.79872968421358</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>0.8416174858936649</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.4675324675324675</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.3452585008069963</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.9547152328199939</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U90" t="n">
+        <v>1450</v>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2215</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2234</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2338</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.215909140203022</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.520517301818887</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.6953918383841349</v>
+      </c>
+      <c r="G91" t="n">
+        <v>123</v>
+      </c>
+      <c r="H91" t="n">
+        <v>19.40843924285809</v>
+      </c>
+      <c r="I91" t="n">
+        <v>19</v>
+      </c>
+      <c r="J91" t="n">
+        <v>104</v>
+      </c>
+      <c r="K91" t="n">
+        <v>174.8712021795402</v>
+      </c>
+      <c r="L91" t="n">
+        <v>10.62525117458682</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>0.7954839617026698</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.1826923076923077</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.3370502253267176</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.7951817375089438</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U91" t="n">
+        <v>1451</v>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2508</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2532</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2566</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.072569598609898</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.377177760225764</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.6953918383841349</v>
+      </c>
+      <c r="G92" t="n">
+        <v>58</v>
+      </c>
+      <c r="H92" t="n">
+        <v>20.87382264816551</v>
+      </c>
+      <c r="I92" t="n">
+        <v>24</v>
+      </c>
+      <c r="J92" t="n">
+        <v>34</v>
+      </c>
+      <c r="K92" t="n">
+        <v>88.5101909623518</v>
+      </c>
+      <c r="L92" t="n">
+        <v>9.937940217181074</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>0.815622798239809</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.3400486417910939</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.9421061958956537</v>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U92" t="n">
+        <v>1452</v>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2566</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2598</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2688</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.411569638333262</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.716177799949127</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.6953918383841349</v>
+      </c>
+      <c r="G93" t="n">
+        <v>122</v>
+      </c>
+      <c r="H93" t="n">
+        <v>58.12002950402893</v>
+      </c>
+      <c r="I93" t="n">
+        <v>32</v>
+      </c>
+      <c r="J93" t="n">
+        <v>90</v>
+      </c>
+      <c r="K93" t="n">
+        <v>198.1062686726365</v>
+      </c>
+      <c r="L93" t="n">
+        <v>11.5634403358031</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>0.8716490228675441</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.3555555555555556</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.2963831984794846</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.72599840974654</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U93" t="n">
+        <v>1453</v>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2688</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2720</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2791</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4.063599440466764</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3.368207602082629</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.6953918383841349</v>
+      </c>
+      <c r="G94" t="n">
+        <v>103</v>
+      </c>
+      <c r="H94" t="n">
+        <v>55.72578576811293</v>
+      </c>
+      <c r="I94" t="n">
+        <v>32</v>
+      </c>
+      <c r="J94" t="n">
+        <v>71</v>
+      </c>
+      <c r="K94" t="n">
+        <v>258.1367084800785</v>
+      </c>
+      <c r="L94" t="n">
+        <v>19.48489852066496</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>0.80693766729465</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.4507042253521127</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.1609839562400123</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.9195459416536178</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U94" t="n">
+        <v>1454</v>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2791</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2822</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2947</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3.544307600324208</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.848915761940074</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.6953918383841349</v>
+      </c>
+      <c r="G95" t="n">
+        <v>156</v>
+      </c>
+      <c r="H95" t="n">
+        <v>69.56410640113154</v>
+      </c>
+      <c r="I95" t="n">
+        <v>31</v>
+      </c>
+      <c r="J95" t="n">
+        <v>125</v>
+      </c>
+      <c r="K95" t="n">
+        <v>355.0164179886908</v>
+      </c>
+      <c r="L95" t="n">
+        <v>16.99490191641677</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>0.8920266026574245</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.1582050297866683</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.9401798080585078</v>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U95" t="n">
+        <v>1455</v>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2947</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2965</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.430347048065733</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.7349552096815977</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.6953918383841349</v>
+      </c>
+      <c r="G96" t="n">
+        <v>51</v>
+      </c>
+      <c r="H96" t="n">
+        <v>19.46241403873364</v>
+      </c>
+      <c r="I96" t="n">
+        <v>18</v>
+      </c>
+      <c r="J96" t="n">
+        <v>33</v>
+      </c>
+      <c r="K96" t="n">
+        <v>49.1309472527996</v>
+      </c>
+      <c r="L96" t="n">
+        <v>6.858492695749604</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>0.8601776089058886</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.2989505313600355</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.8947250829053789</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U96" t="n">
+        <v>1456</v>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2061</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2090</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2135</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2.975773239760464</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.508313451816672</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.4674597879437922</v>
+      </c>
+      <c r="G97" t="n">
+        <v>74</v>
+      </c>
+      <c r="H97" t="n">
+        <v>19.18695419066717</v>
+      </c>
+      <c r="I97" t="n">
+        <v>29</v>
+      </c>
+      <c r="J97" t="n">
+        <v>45</v>
+      </c>
+      <c r="K97" t="n">
+        <v>157.3217402711118</v>
+      </c>
+      <c r="L97" t="n">
+        <v>12.33247692518417</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>0.7412471843120786</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.4904926817292557</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.7582473273176712</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U97" t="n">
+        <v>1457</v>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2135</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2164</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2259</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3.82606514092606</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.358605352982268</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.4674597879437922</v>
+      </c>
+      <c r="G98" t="n">
+        <v>124</v>
+      </c>
+      <c r="H98" t="n">
+        <v>155.6698312176427</v>
+      </c>
+      <c r="I98" t="n">
+        <v>29</v>
+      </c>
+      <c r="J98" t="n">
+        <v>95</v>
+      </c>
+      <c r="K98" t="n">
+        <v>304.3513137701154</v>
+      </c>
+      <c r="L98" t="n">
+        <v>15.85633590431787</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>0.8068345150407298</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.3052631578947368</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.2009371798546031</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.6145322417352004</v>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U98" t="n">
+        <v>1458</v>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2806</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2836</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.30514288485451</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.709211050116326</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.5959318347381837</v>
+      </c>
+      <c r="G99" t="n">
+        <v>192</v>
+      </c>
+      <c r="H99" t="n">
+        <v>116.2521664145993</v>
+      </c>
+      <c r="I99" t="n">
+        <v>30</v>
+      </c>
+      <c r="J99" t="n">
+        <v>162</v>
+      </c>
+      <c r="K99" t="n">
+        <v>272.0475419658988</v>
+      </c>
+      <c r="L99" t="n">
+        <v>5.469063371515889</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>0.828528206358512</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.2030148265465323</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.7337541131866452</v>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>n42</t>
+        </is>
+      </c>
+      <c r="U99" t="n">
+        <v>1459</v>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>879</v>
+      </c>
+      <c r="B100" t="n">
+        <v>906</v>
+      </c>
+      <c r="C100" t="n">
+        <v>984</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.59588813912521</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.168732415382045</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.427155723743165</v>
+      </c>
+      <c r="G100" t="n">
+        <v>105</v>
+      </c>
+      <c r="H100" t="n">
+        <v>30.44213122819826</v>
+      </c>
+      <c r="I100" t="n">
+        <v>27</v>
+      </c>
+      <c r="J100" t="n">
+        <v>78</v>
+      </c>
+      <c r="K100" t="n">
+        <v>93.60744108455425</v>
+      </c>
+      <c r="L100" t="n">
+        <v>4.719479778093357</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>0.8032974523317944</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.3798731610873834</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.468054509999253</v>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U100" t="n">
+        <v>1460</v>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2067</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2092</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2179</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3.164671949114787</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.737516225371622</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.427155723743165</v>
+      </c>
+      <c r="G101" t="n">
+        <v>112</v>
+      </c>
+      <c r="H101" t="n">
+        <v>82.85158124948475</v>
+      </c>
+      <c r="I101" t="n">
+        <v>25</v>
+      </c>
+      <c r="J101" t="n">
+        <v>87</v>
+      </c>
+      <c r="K101" t="n">
+        <v>215.8066579716452</v>
+      </c>
+      <c r="L101" t="n">
+        <v>9.358804606652139</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>0.8537011485929322</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.2873563218390804</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.162468316223564</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.865658661073512</v>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U101" t="n">
+        <v>1461</v>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1315</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1343</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1427</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3.469013487415774</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.856141891073711</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.6128715963420625</v>
+      </c>
+      <c r="G102" t="n">
+        <v>112</v>
+      </c>
+      <c r="H102" t="n">
+        <v>34.39047819320967</v>
+      </c>
+      <c r="I102" t="n">
+        <v>28</v>
+      </c>
+      <c r="J102" t="n">
         <v>84</v>
       </c>
-      <c r="K41" t="n">
-        <v>317.727540322691</v>
-      </c>
-      <c r="L41" t="n">
-        <v>15.82226424932629</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
-        <v>0.7249852811157557</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.7380952380952381</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.1748597289115532</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0.7068198740666443</v>
-      </c>
-      <c r="T41" t="inlineStr">
+      <c r="K102" t="n">
+        <v>274.439454773807</v>
+      </c>
+      <c r="L102" t="n">
+        <v>18.86480645804687</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>0.9297346354126416</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.2514913831782024</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.9747721351088552</v>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>n47</t>
+        </is>
+      </c>
+      <c r="U102" t="n">
+        <v>1462</v>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1812</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1842</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1896</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.850580020118127</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.237708423776065</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.6128715963420625</v>
+      </c>
+      <c r="G103" t="n">
+        <v>84</v>
+      </c>
+      <c r="H103" t="n">
+        <v>44.95021444602276</v>
+      </c>
+      <c r="I103" t="n">
+        <v>30</v>
+      </c>
+      <c r="J103" t="n">
+        <v>54</v>
+      </c>
+      <c r="K103" t="n">
+        <v>134.9267581256105</v>
+      </c>
+      <c r="L103" t="n">
+        <v>15.50170979956718</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>0.8105074332511517</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.2259552448544193</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0.8588746315170143</v>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>n47</t>
+        </is>
+      </c>
+      <c r="U103" t="n">
+        <v>1463</v>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1896</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2.50399827408097</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.891126677738907</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0.6128715963420625</v>
+      </c>
+      <c r="G104" t="n">
+        <v>102</v>
+      </c>
+      <c r="H104" t="n">
+        <v>40.6706289181318</v>
+      </c>
+      <c r="I104" t="n">
+        <v>36</v>
+      </c>
+      <c r="J104" t="n">
+        <v>66</v>
+      </c>
+      <c r="K104" t="n">
+        <v>149.6637168907684</v>
+      </c>
+      <c r="L104" t="n">
+        <v>13.61696718193224</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>0.7575188855566207</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.1183821060241369</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.8685757191917493</v>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>n47</t>
+        </is>
+      </c>
+      <c r="U104" t="n">
+        <v>1464</v>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2458</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2488</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2542</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.901034028622655</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.288162432280592</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.6128715963420625</v>
+      </c>
+      <c r="G105" t="n">
+        <v>84</v>
+      </c>
+      <c r="H105" t="n">
+        <v>134.1045360387152</v>
+      </c>
+      <c r="I105" t="n">
+        <v>30</v>
+      </c>
+      <c r="J105" t="n">
+        <v>54</v>
+      </c>
+      <c r="K105" t="n">
+        <v>101.6735229171466</v>
+      </c>
+      <c r="L105" t="n">
+        <v>10.33799353914972</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>0.7886105908514571</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.2875822922754083</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.9490218326087015</v>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>n47</t>
+        </is>
+      </c>
+      <c r="U105" t="n">
+        <v>1465</v>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2542</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2635</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.528669317693656</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.9157977213515935</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.6128715963420625</v>
+      </c>
+      <c r="G106" t="n">
+        <v>93</v>
+      </c>
+      <c r="H106" t="n">
+        <v>28.20422135407716</v>
+      </c>
+      <c r="I106" t="n">
+        <v>21</v>
+      </c>
+      <c r="J106" t="n">
+        <v>72</v>
+      </c>
+      <c r="K106" t="n">
+        <v>71.20453382751288</v>
+      </c>
+      <c r="L106" t="n">
+        <v>8.313040846124862</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>0.9424309456913647</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.3389184030067677</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.9416320451578726</v>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>n47</t>
+        </is>
+      </c>
+      <c r="U106" t="n">
+        <v>1466</v>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1770</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1787</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1820</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3.772100372742832</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3.275077853188803</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.4970225195540287</v>
+      </c>
+      <c r="G107" t="n">
+        <v>50</v>
+      </c>
+      <c r="H107" t="n">
+        <v>15.49602086431833</v>
+      </c>
+      <c r="I107" t="n">
+        <v>17</v>
+      </c>
+      <c r="J107" t="n">
+        <v>33</v>
+      </c>
+      <c r="K107" t="n">
+        <v>148.6132126885157</v>
+      </c>
+      <c r="L107" t="n">
+        <v>18.14092139313328</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>0.8416556949344475</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.2094843635360681</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0.9601610483738491</v>
+      </c>
+      <c r="T107" t="inlineStr">
         <is>
           <t>n50</t>
         </is>
       </c>
-      <c r="U41" t="n">
-        <v>726</v>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
+      <c r="U107" t="n">
+        <v>1467</v>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1968</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.538352468775503</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.041329949221474</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0.4970225195540287</v>
+      </c>
+      <c r="G108" t="n">
+        <v>54</v>
+      </c>
+      <c r="H108" t="n">
+        <v>19.88891438469045</v>
+      </c>
+      <c r="I108" t="n">
+        <v>20</v>
+      </c>
+      <c r="J108" t="n">
+        <v>34</v>
+      </c>
+      <c r="K108" t="n">
+        <v>98.07334718679301</v>
+      </c>
+      <c r="L108" t="n">
+        <v>12.20753639984372</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>0.8488498521781025</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.2189379449841475</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.9360338291157644</v>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>n50</t>
+        </is>
+      </c>
+      <c r="U108" t="n">
+        <v>1468</v>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>468</v>
+      </c>
+      <c r="B109" t="n">
+        <v>493</v>
+      </c>
+      <c r="C109" t="n">
+        <v>564</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2.450947063523053</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.871595213972507</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.5793518495505462</v>
+      </c>
+      <c r="G109" t="n">
+        <v>96</v>
+      </c>
+      <c r="H109" t="n">
+        <v>74.93897923585973</v>
+      </c>
+      <c r="I109" t="n">
+        <v>25</v>
+      </c>
+      <c r="J109" t="n">
+        <v>71</v>
+      </c>
+      <c r="K109" t="n">
+        <v>146.0433158858443</v>
+      </c>
+      <c r="L109" t="n">
+        <v>6.897828840501892</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>0.7892891834101398</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.352112676056338</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.1334755010490877</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.856037188710337</v>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>n51</t>
+        </is>
+      </c>
+      <c r="U109" t="n">
+        <v>1469</v>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace/processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace/processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X109"/>
+  <dimension ref="A1:X111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1362</v>
+        <v>1428</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1363</v>
+        <v>1429</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1364</v>
+        <v>1430</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1365</v>
+        <v>1431</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1366</v>
+        <v>1432</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1367</v>
+        <v>1433</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1368</v>
+        <v>1434</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1369</v>
+        <v>1435</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1370</v>
+        <v>1436</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1371</v>
+        <v>1437</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1372</v>
+        <v>1438</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1373</v>
+        <v>1439</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1374</v>
+        <v>1440</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1375</v>
+        <v>1441</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1376</v>
+        <v>1442</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1377</v>
+        <v>1443</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1378</v>
+        <v>1444</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1379</v>
+        <v>1445</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1380</v>
+        <v>1446</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1381</v>
+        <v>1447</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1382</v>
+        <v>1448</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1383</v>
+        <v>1449</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>1384</v>
+        <v>1450</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>1385</v>
+        <v>1451</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>1386</v>
+        <v>1452</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="U27" t="n">
-        <v>1387</v>
+        <v>1453</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>1388</v>
+        <v>1454</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>1389</v>
+        <v>1455</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>1390</v>
+        <v>1456</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2915</v>
+        <v>2454</v>
       </c>
       <c r="B31" t="n">
-        <v>2950</v>
+        <v>2485</v>
       </c>
       <c r="C31" t="n">
-        <v>2998</v>
+        <v>2563</v>
       </c>
       <c r="D31" t="n">
-        <v>1.335487483344391</v>
+        <v>4.079730605017773</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7577558603536092</v>
+        <v>3.501998982026991</v>
       </c>
       <c r="F31" t="n">
         <v>-0.5777316229907822</v>
       </c>
       <c r="G31" t="n">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="H31" t="n">
-        <v>24.05118202331641</v>
+        <v>139.2744548729011</v>
       </c>
       <c r="I31" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J31" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K31" t="n">
-        <v>56.14662177129924</v>
+        <v>274.7320562663292</v>
       </c>
       <c r="L31" t="n">
-        <v>5.312919986738485</v>
+        <v>16.2302399252948</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,16 +3100,16 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.6940311662080156</v>
+        <v>0.8628898311446017</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3869335935049395</v>
+        <v>0.2530936273416774</v>
       </c>
       <c r="S31" t="n">
-        <v>0.5684230546772002</v>
+        <v>0.9959303410101062</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="U31" t="n">
-        <v>1391</v>
+        <v>1457</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>337</v>
+        <v>2915</v>
       </c>
       <c r="B32" t="n">
-        <v>493</v>
+        <v>2950</v>
       </c>
       <c r="C32" t="n">
-        <v>767</v>
+        <v>2998</v>
       </c>
       <c r="D32" t="n">
-        <v>2.900843433856918</v>
+        <v>1.335487483344391</v>
       </c>
       <c r="E32" t="n">
-        <v>2.247547819356734</v>
+        <v>0.7577558603536092</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6532956145001835</v>
+        <v>-0.5777316229907822</v>
       </c>
       <c r="G32" t="n">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="H32" t="n">
-        <v>139.5791660643198</v>
+        <v>24.05118202331641</v>
       </c>
       <c r="I32" t="n">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="J32" t="n">
-        <v>274</v>
+        <v>48</v>
       </c>
       <c r="K32" t="n">
-        <v>599.6112492431992</v>
+        <v>56.14662177129924</v>
       </c>
       <c r="L32" t="n">
-        <v>6.548928835673225</v>
+        <v>5.312919986738485</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.6228254248733535</v>
+        <v>0.6940311662080156</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.5693430656934306</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="R32" t="n">
-        <v>0.3253705171898048</v>
+        <v>0.3869335935049395</v>
       </c>
       <c r="S32" t="n">
-        <v>0.7437335009892615</v>
+        <v>0.5684230546772002</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>1392</v>
+        <v>1458</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,65 +3223,65 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1285</v>
+        <v>581</v>
       </c>
       <c r="B33" t="n">
-        <v>1308</v>
+        <v>609</v>
       </c>
       <c r="C33" t="n">
-        <v>1410</v>
+        <v>767</v>
       </c>
       <c r="D33" t="n">
-        <v>2.862044110429381</v>
+        <v>1.776028406527062</v>
       </c>
       <c r="E33" t="n">
-        <v>2.208748495929197</v>
+        <v>1.122732792026879</v>
       </c>
       <c r="F33" t="n">
         <v>-0.6532956145001835</v>
       </c>
       <c r="G33" t="n">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="H33" t="n">
-        <v>23.65544102943954</v>
+        <v>28.50998470372906</v>
       </c>
       <c r="I33" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J33" t="n">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="K33" t="n">
-        <v>195.1335460019494</v>
+        <v>170.9670383984416</v>
       </c>
       <c r="L33" t="n">
-        <v>6.461335687751632</v>
+        <v>4.009552362850321</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(710), 'value': np.float64(0.29179217838999083), 'amplitude': np.float64(0.9450877928901743), 'start_idx': np.int64(678), 'end_idx': np.int64(721), 'duration': np.float64(43.0), 'fwhm': np.float64(54.66198333002217), 'rise_time': np.float64(32.0), 'decay_time': np.float64(11.0), 'auc': np.float64(33.15381932683742)}]</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8396540363692931</v>
+        <v>0.6822289032813864</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.2254901960784314</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4456901535190052</v>
+        <v>0.4627972662930989</v>
       </c>
       <c r="S33" t="n">
-        <v>0.8391175276672243</v>
+        <v>0.2999218918753631</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>1393</v>
+        <v>1459</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1285</v>
       </c>
       <c r="B34" t="n">
-        <v>26</v>
+        <v>1308</v>
       </c>
       <c r="C34" t="n">
-        <v>99</v>
+        <v>1410</v>
       </c>
       <c r="D34" t="n">
-        <v>4.664939518326262</v>
+        <v>2.862044110429381</v>
       </c>
       <c r="E34" t="n">
-        <v>4.096454081310123</v>
+        <v>2.208748495929197</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5684854370161395</v>
+        <v>-0.6532956145001835</v>
       </c>
       <c r="G34" t="n">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="H34" t="n">
-        <v>24.77049391606892</v>
+        <v>23.65544102943954</v>
       </c>
       <c r="I34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J34" t="n">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="K34" t="n">
-        <v>304.5842181588651</v>
+        <v>195.1335460019494</v>
       </c>
       <c r="L34" t="n">
-        <v>14.56991456888925</v>
+        <v>6.461335687751632</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.836490331389906</v>
+        <v>0.8396540363692931</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.3561643835616438</v>
+        <v>0.2254901960784314</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2596788188074818</v>
+        <v>0.4456901535190052</v>
       </c>
       <c r="S34" t="n">
-        <v>0.971351667960178</v>
+        <v>0.8391175276672243</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>1394</v>
+        <v>1460</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1159</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>1187</v>
+        <v>20</v>
       </c>
       <c r="C35" t="n">
-        <v>1250</v>
+        <v>54</v>
       </c>
       <c r="D35" t="n">
-        <v>1.815100024499332</v>
+        <v>2.007646741394082</v>
       </c>
       <c r="E35" t="n">
-        <v>1.246614587483193</v>
+        <v>1.481405769047774</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5684854370161395</v>
+        <v>-0.5262409723463072</v>
       </c>
       <c r="G35" t="n">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="H35" t="n">
-        <v>52.08597847756073</v>
+        <v>26.63999387809653</v>
       </c>
       <c r="I35" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J35" t="n">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="K35" t="n">
-        <v>81.67779185664222</v>
+        <v>90.28577393661601</v>
       </c>
       <c r="L35" t="n">
-        <v>5.669066487797163</v>
+        <v>3.722097560526485</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.7909956001639499</v>
+        <v>0.6917615532634106</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1747110642764287</v>
+        <v>0.06255082454388938</v>
       </c>
       <c r="S35" t="n">
-        <v>0.798988732272924</v>
+        <v>0.9823795808133773</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>1395</v>
+        <v>1461</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="C36" t="n">
-        <v>301</v>
+        <v>99</v>
       </c>
       <c r="D36" t="n">
-        <v>1.617257906291943</v>
+        <v>4.664939518326262</v>
       </c>
       <c r="E36" t="n">
-        <v>1.075464664234844</v>
+        <v>4.096454081310123</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5417932420570994</v>
+        <v>-0.5684854370161395</v>
       </c>
       <c r="G36" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="H36" t="n">
-        <v>27.01500143747739</v>
+        <v>24.77049391606892</v>
       </c>
       <c r="I36" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J36" t="n">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="K36" t="n">
-        <v>66.23598385597161</v>
+        <v>304.5842181588651</v>
       </c>
       <c r="L36" t="n">
-        <v>6.02039187106627</v>
+        <v>14.56991456888925</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.8307303020696293</v>
+        <v>0.836490331389906</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.5957446808510638</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3277038506898153</v>
+        <v>0.2596788188074818</v>
       </c>
       <c r="S36" t="n">
-        <v>0.8763255660346508</v>
+        <v>0.971351667960178</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>1396</v>
+        <v>1462</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>537</v>
+        <v>1159</v>
       </c>
       <c r="B37" t="n">
-        <v>554</v>
+        <v>1187</v>
       </c>
       <c r="C37" t="n">
-        <v>577</v>
+        <v>1250</v>
       </c>
       <c r="D37" t="n">
-        <v>1.15176335607314</v>
+        <v>1.815100024499332</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6099701140160405</v>
+        <v>1.246614587483193</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5417932420570994</v>
+        <v>-0.5684854370161395</v>
       </c>
       <c r="G37" t="n">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H37" t="n">
-        <v>15.12123865777608</v>
+        <v>52.08597847756073</v>
       </c>
       <c r="I37" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J37" t="n">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="K37" t="n">
-        <v>32.03450896988576</v>
+        <v>81.67779185664222</v>
       </c>
       <c r="L37" t="n">
-        <v>4.287545430643898</v>
+        <v>5.669066487797163</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.8078484294810431</v>
+        <v>0.7909956001639499</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2722656808296635</v>
+        <v>0.1747110642764287</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9044517184630331</v>
+        <v>0.798988732272924</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>1397</v>
+        <v>1463</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="B38" t="n">
-        <v>31</v>
+        <v>254</v>
       </c>
       <c r="C38" t="n">
-        <v>125</v>
+        <v>301</v>
       </c>
       <c r="D38" t="n">
-        <v>3.66258133167999</v>
+        <v>1.617257906291943</v>
       </c>
       <c r="E38" t="n">
-        <v>2.97694041498542</v>
+        <v>1.075464664234844</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.6856409166945699</v>
+        <v>-0.5417932420570994</v>
       </c>
       <c r="G38" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="H38" t="n">
-        <v>27.01478662642481</v>
+        <v>27.01500143747739</v>
       </c>
       <c r="I38" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J38" t="n">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="K38" t="n">
-        <v>322.7225395512751</v>
+        <v>66.23598385597161</v>
       </c>
       <c r="L38" t="n">
-        <v>11.3296975367815</v>
+        <v>6.02039187106627</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.6788545326624205</v>
+        <v>0.8307303020696293</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.3297872340425532</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2035051479223153</v>
+        <v>0.3277038506898153</v>
       </c>
       <c r="S38" t="n">
-        <v>0.8782125452237414</v>
+        <v>0.8763255660346508</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>1398</v>
+        <v>1464</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>231</v>
+        <v>537</v>
       </c>
       <c r="B39" t="n">
-        <v>297</v>
+        <v>554</v>
       </c>
       <c r="C39" t="n">
-        <v>393</v>
+        <v>577</v>
       </c>
       <c r="D39" t="n">
-        <v>2.295599362426385</v>
+        <v>1.15176335607314</v>
       </c>
       <c r="E39" t="n">
-        <v>1.609958445731815</v>
+        <v>0.6099701140160405</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.6856409166945699</v>
+        <v>-0.5417932420570994</v>
       </c>
       <c r="G39" t="n">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="H39" t="n">
-        <v>49.53307336780546</v>
+        <v>15.12123865777608</v>
       </c>
       <c r="I39" t="n">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="J39" t="n">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="K39" t="n">
-        <v>200.3319478537213</v>
+        <v>32.03450896988576</v>
       </c>
       <c r="L39" t="n">
-        <v>7.101124613112574</v>
+        <v>4.287545430643898</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.6006196898920462</v>
+        <v>0.8078484294810431</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.6875</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1952571135167044</v>
+        <v>0.2722656808296635</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9372975503858978</v>
+        <v>0.9044517184630331</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>1399</v>
+        <v>1465</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1121</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>1149</v>
+        <v>31</v>
       </c>
       <c r="C40" t="n">
-        <v>1196</v>
+        <v>125</v>
       </c>
       <c r="D40" t="n">
-        <v>2.816905132113329</v>
+        <v>3.66258133167999</v>
       </c>
       <c r="E40" t="n">
-        <v>2.13126421541876</v>
+        <v>2.97694041498542</v>
       </c>
       <c r="F40" t="n">
         <v>-0.6856409166945699</v>
       </c>
       <c r="G40" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="H40" t="n">
-        <v>161.9751186396045</v>
+        <v>27.01478662642481</v>
       </c>
       <c r="I40" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J40" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="K40" t="n">
-        <v>159.54726370551</v>
+        <v>322.7225395512751</v>
       </c>
       <c r="L40" t="n">
-        <v>8.713713156511016</v>
+        <v>11.3296975367815</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,16 +3874,16 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.7467815356060278</v>
+        <v>0.6788545326624205</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.5957446808510638</v>
+        <v>0.3297872340425532</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1928496012814613</v>
+        <v>0.2035051479223153</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9450051985809429</v>
+        <v>0.8782125452237414</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="U40" t="n">
-        <v>1400</v>
+        <v>1466</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="B41" t="n">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="C41" t="n">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="D41" t="n">
-        <v>2.857411871825149</v>
+        <v>2.295599362426385</v>
       </c>
       <c r="E41" t="n">
-        <v>2.166189211118798</v>
+        <v>1.609958445731815</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.6912226607063517</v>
+        <v>-0.6856409166945699</v>
       </c>
       <c r="G41" t="n">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="H41" t="n">
-        <v>68.96439616041653</v>
+        <v>49.53307336780546</v>
       </c>
       <c r="I41" t="n">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="J41" t="n">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="K41" t="n">
-        <v>237.6157668455807</v>
+        <v>200.3319478537213</v>
       </c>
       <c r="L41" t="n">
-        <v>7.176846431940409</v>
+        <v>7.101124613112574</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.9540126498368361</v>
+        <v>0.6006196898920462</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.2297297297297297</v>
+        <v>0.6875</v>
       </c>
       <c r="R41" t="n">
-        <v>0.3525841162291162</v>
+        <v>0.1952571135167044</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9241284652570638</v>
+        <v>0.9372975503858978</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>1401</v>
+        <v>1467</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>393</v>
+        <v>1121</v>
       </c>
       <c r="B42" t="n">
-        <v>422</v>
+        <v>1149</v>
       </c>
       <c r="C42" t="n">
-        <v>577</v>
+        <v>1196</v>
       </c>
       <c r="D42" t="n">
-        <v>2.487976132289541</v>
+        <v>2.816905132113329</v>
       </c>
       <c r="E42" t="n">
-        <v>1.796753471583189</v>
+        <v>2.13126421541876</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.6912226607063517</v>
+        <v>-0.6856409166945699</v>
       </c>
       <c r="G42" t="n">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="H42" t="n">
-        <v>128.5671682253899</v>
+        <v>161.9751186396045</v>
       </c>
       <c r="I42" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J42" t="n">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="K42" t="n">
-        <v>277.7622865629212</v>
+        <v>159.54726370551</v>
       </c>
       <c r="L42" t="n">
-        <v>6.248949549009128</v>
+        <v>8.713713156511016</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.8387107277900213</v>
+        <v>0.7467815356060278</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.1870967741935484</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2067593418256168</v>
+        <v>0.1928496012814613</v>
       </c>
       <c r="S42" t="n">
-        <v>0.7989107111822686</v>
+        <v>0.9450051985809429</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>1402</v>
+        <v>1468</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>988</v>
+        <v>145</v>
       </c>
       <c r="B43" t="n">
-        <v>1023</v>
+        <v>179</v>
       </c>
       <c r="C43" t="n">
-        <v>1253</v>
+        <v>327</v>
       </c>
       <c r="D43" t="n">
-        <v>3.255973358588605</v>
+        <v>2.857411871825149</v>
       </c>
       <c r="E43" t="n">
-        <v>2.564750697882254</v>
+        <v>2.166189211118798</v>
       </c>
       <c r="F43" t="n">
         <v>-0.6912226607063517</v>
       </c>
       <c r="G43" t="n">
-        <v>265</v>
+        <v>182</v>
       </c>
       <c r="H43" t="n">
-        <v>105.4405657394565</v>
+        <v>68.96439616041653</v>
       </c>
       <c r="I43" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J43" t="n">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="K43" t="n">
-        <v>333.8774703276302</v>
+        <v>237.6157668455807</v>
       </c>
       <c r="L43" t="n">
-        <v>8.177897282324155</v>
+        <v>7.176846431940409</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.8523003767222592</v>
+        <v>0.9540126498368361</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.1521739130434783</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4313807252395734</v>
+        <v>0.3525841162291162</v>
       </c>
       <c r="S43" t="n">
-        <v>0.6408297364215325</v>
+        <v>0.9241284652570638</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="U43" t="n">
-        <v>1403</v>
+        <v>1469</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="B44" t="n">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="C44" t="n">
-        <v>530</v>
+        <v>577</v>
       </c>
       <c r="D44" t="n">
-        <v>4.637394853534529</v>
+        <v>2.487976132289541</v>
       </c>
       <c r="E44" t="n">
-        <v>4.105217982270259</v>
+        <v>1.796753471583189</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5321768712642698</v>
+        <v>-0.6912226607063517</v>
       </c>
       <c r="G44" t="n">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="H44" t="n">
-        <v>53.81688131887262</v>
+        <v>128.5671682253899</v>
       </c>
       <c r="I44" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J44" t="n">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="K44" t="n">
-        <v>351.938777824857</v>
+        <v>277.7622865629212</v>
       </c>
       <c r="L44" t="n">
-        <v>15.34939544517842</v>
+        <v>6.248949549009128</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.8935169451795382</v>
+        <v>0.8387107277900213</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.3495934959349594</v>
+        <v>0.1870967741935484</v>
       </c>
       <c r="R44" t="n">
-        <v>0.3897197665666474</v>
+        <v>0.2067593418256168</v>
       </c>
       <c r="S44" t="n">
-        <v>0.8084936295422913</v>
+        <v>0.7989107111822686</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>1404</v>
+        <v>1470</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>185</v>
+        <v>988</v>
       </c>
       <c r="B45" t="n">
-        <v>207</v>
+        <v>1023</v>
       </c>
       <c r="C45" t="n">
-        <v>253</v>
+        <v>1072</v>
       </c>
       <c r="D45" t="n">
-        <v>1.155601740174177</v>
+        <v>3.255973358588605</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5596527252982665</v>
+        <v>2.564750697882254</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.5959490148759107</v>
+        <v>-0.6912226607063517</v>
       </c>
       <c r="G45" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H45" t="n">
-        <v>41.97768462182955</v>
+        <v>105.4405657394565</v>
       </c>
       <c r="I45" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J45" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K45" t="n">
-        <v>59.92711778156576</v>
+        <v>190.8872892846577</v>
       </c>
       <c r="L45" t="n">
-        <v>4.333863215550218</v>
+        <v>8.177897282324155</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.812183097618408</v>
+        <v>0.7491594398227668</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="R45" t="n">
-        <v>0.33530778132286</v>
+        <v>0.2133085806465092</v>
       </c>
       <c r="S45" t="n">
-        <v>0.7918260663254646</v>
+        <v>0.9772846424598782</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>1405</v>
+        <v>1471</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1070</v>
+        <v>364</v>
       </c>
       <c r="B46" t="n">
-        <v>1120</v>
+        <v>407</v>
       </c>
       <c r="C46" t="n">
-        <v>1197</v>
+        <v>530</v>
       </c>
       <c r="D46" t="n">
-        <v>1.308431784993036</v>
+        <v>4.637394853534529</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7124827701171248</v>
+        <v>4.105217982270259</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.5959490148759107</v>
+        <v>-0.5321768712642698</v>
       </c>
       <c r="G46" t="n">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="H46" t="n">
-        <v>31.11230810041639</v>
+        <v>53.81688131887262</v>
       </c>
       <c r="I46" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J46" t="n">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="K46" t="n">
-        <v>73.08199154623983</v>
+        <v>351.938777824857</v>
       </c>
       <c r="L46" t="n">
-        <v>4.907023056389078</v>
+        <v>15.34939544517842</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.6826281176326492</v>
+        <v>0.8935169451795382</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.6493506493506493</v>
+        <v>0.3495934959349594</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4043241197114963</v>
+        <v>0.3897197665666474</v>
       </c>
       <c r="S46" t="n">
-        <v>0.7786334435862292</v>
+        <v>0.8084936295422913</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>1406</v>
+        <v>1472</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1197</v>
+        <v>185</v>
       </c>
       <c r="B47" t="n">
-        <v>1229</v>
+        <v>207</v>
       </c>
       <c r="C47" t="n">
-        <v>1293</v>
+        <v>253</v>
       </c>
       <c r="D47" t="n">
-        <v>2.090305810558936</v>
+        <v>1.155601740174177</v>
       </c>
       <c r="E47" t="n">
-        <v>1.494356795683025</v>
+        <v>0.5596527252982665</v>
       </c>
       <c r="F47" t="n">
         <v>-0.5959490148759107</v>
       </c>
       <c r="G47" t="n">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="H47" t="n">
-        <v>43.66037652088585</v>
+        <v>41.97768462182955</v>
       </c>
       <c r="I47" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J47" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K47" t="n">
-        <v>101.4652645612701</v>
+        <v>59.92711778156576</v>
       </c>
       <c r="L47" t="n">
-        <v>7.839291986759061</v>
+        <v>4.333863215550218</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.7759228368767467</v>
+        <v>0.812183097618408</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.5</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="R47" t="n">
-        <v>0.1179567917555462</v>
+        <v>0.33530778132286</v>
       </c>
       <c r="S47" t="n">
-        <v>0.9635843948049929</v>
+        <v>0.7918260663254646</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="U47" t="n">
-        <v>1407</v>
+        <v>1473</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1439</v>
+        <v>1070</v>
       </c>
       <c r="B48" t="n">
-        <v>1466</v>
+        <v>1120</v>
       </c>
       <c r="C48" t="n">
-        <v>1520</v>
+        <v>1197</v>
       </c>
       <c r="D48" t="n">
-        <v>2.369346034838069</v>
+        <v>1.308431784993036</v>
       </c>
       <c r="E48" t="n">
-        <v>1.773397019962158</v>
+        <v>0.7124827701171248</v>
       </c>
       <c r="F48" t="n">
         <v>-0.5959490148759107</v>
       </c>
       <c r="G48" t="n">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="H48" t="n">
-        <v>15.10000754931548</v>
+        <v>31.11230810041639</v>
       </c>
       <c r="I48" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="J48" t="n">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="K48" t="n">
-        <v>135.8252190028096</v>
+        <v>73.08199154623983</v>
       </c>
       <c r="L48" t="n">
-        <v>8.885778956811514</v>
+        <v>4.907023056389078</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,16 +4562,16 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.786984337046024</v>
+        <v>0.6826281176326492</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.5</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="R48" t="n">
-        <v>0.3288597518116</v>
+        <v>0.4043241197114963</v>
       </c>
       <c r="S48" t="n">
-        <v>0.9273550870557394</v>
+        <v>0.7786334435862292</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         </is>
       </c>
       <c r="U48" t="n">
-        <v>1408</v>
+        <v>1474</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2937</v>
+        <v>1197</v>
       </c>
       <c r="B49" t="n">
-        <v>2960</v>
+        <v>1229</v>
       </c>
       <c r="C49" t="n">
-        <v>2998</v>
+        <v>1293</v>
       </c>
       <c r="D49" t="n">
-        <v>2.706030088925693</v>
+        <v>2.090305810558936</v>
       </c>
       <c r="E49" t="n">
-        <v>2.110081074049782</v>
+        <v>1.494356795683025</v>
       </c>
       <c r="F49" t="n">
         <v>-0.5959490148759107</v>
       </c>
       <c r="G49" t="n">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="H49" t="n">
-        <v>33.80108926571893</v>
+        <v>43.66037652088585</v>
       </c>
       <c r="I49" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J49" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="K49" t="n">
-        <v>125.0911410440832</v>
+        <v>101.4652645612701</v>
       </c>
       <c r="L49" t="n">
-        <v>10.14844808108329</v>
+        <v>7.839291986759061</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,16 +4648,16 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.7404249776977168</v>
+        <v>0.7759228368767467</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.5</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1317664024773371</v>
+        <v>0.1179567917555462</v>
       </c>
       <c r="S49" t="n">
-        <v>0.9872539628287973</v>
+        <v>0.9635843948049929</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         </is>
       </c>
       <c r="U49" t="n">
-        <v>1409</v>
+        <v>1475</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,73 +4685,73 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>195</v>
+        <v>1439</v>
       </c>
       <c r="B50" t="n">
-        <v>226</v>
+        <v>1466</v>
       </c>
       <c r="C50" t="n">
-        <v>465</v>
+        <v>1520</v>
       </c>
       <c r="D50" t="n">
-        <v>1.968825518648301</v>
+        <v>2.369346034838069</v>
       </c>
       <c r="E50" t="n">
-        <v>1.268482929563338</v>
+        <v>1.773397019962158</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.7003425890849637</v>
+        <v>-0.5959490148759107</v>
       </c>
       <c r="G50" t="n">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="H50" t="n">
-        <v>24.68509100671966</v>
+        <v>15.10000754931548</v>
       </c>
       <c r="I50" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J50" t="n">
-        <v>239</v>
+        <v>54</v>
       </c>
       <c r="K50" t="n">
-        <v>244.1961507274164</v>
+        <v>135.8252190028096</v>
       </c>
       <c r="L50" t="n">
-        <v>4.334907431043876</v>
+        <v>8.885778956811514</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(334), 'value': np.float64(0.677617590599821), 'amplitude': np.float64(1.3779601796847847), 'start_idx': np.int64(301), 'end_idx': np.int64(356), 'duration': np.float64(55.0), 'fwhm': np.float64(33.17629783542844), 'rise_time': np.float64(33.0), 'decay_time': np.float64(22.0), 'auc': np.float64(53.77989921534251)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.6792153302195657</v>
+        <v>0.786984337046024</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.1297071129707113</v>
+        <v>0.5</v>
       </c>
       <c r="R50" t="n">
-        <v>0.481075964449285</v>
+        <v>0.3288597518116</v>
       </c>
       <c r="S50" t="n">
-        <v>0.454075776189047</v>
+        <v>0.9273550870557394</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>1410</v>
+        <v>1476</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>465</v>
+        <v>2937</v>
       </c>
       <c r="B51" t="n">
-        <v>627</v>
+        <v>2960</v>
       </c>
       <c r="C51" t="n">
-        <v>867</v>
+        <v>2998</v>
       </c>
       <c r="D51" t="n">
-        <v>3.83291437658275</v>
+        <v>2.706030088925693</v>
       </c>
       <c r="E51" t="n">
-        <v>3.132571787497786</v>
+        <v>2.110081074049782</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.7003425890849637</v>
+        <v>-0.5959490148759107</v>
       </c>
       <c r="G51" t="n">
-        <v>402</v>
+        <v>61</v>
       </c>
       <c r="H51" t="n">
-        <v>186.1698001252322</v>
+        <v>33.80108926571893</v>
       </c>
       <c r="I51" t="n">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="J51" t="n">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="K51" t="n">
-        <v>732.7510429291009</v>
+        <v>125.0911410440832</v>
       </c>
       <c r="L51" t="n">
-        <v>8.439208480500971</v>
+        <v>10.14844808108329</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.6582293501028257</v>
+        <v>0.7404249776977168</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.675</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="R51" t="n">
-        <v>0.2295152728973961</v>
+        <v>0.1317664024773371</v>
       </c>
       <c r="S51" t="n">
-        <v>0.9262475347267772</v>
+        <v>0.9872539628287973</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>1411</v>
+        <v>1477</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,65 +4857,65 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1416</v>
+        <v>195</v>
       </c>
       <c r="B52" t="n">
-        <v>1473</v>
+        <v>226</v>
       </c>
       <c r="C52" t="n">
-        <v>1584</v>
+        <v>465</v>
       </c>
       <c r="D52" t="n">
-        <v>1.849287067094812</v>
+        <v>1.968825518648301</v>
       </c>
       <c r="E52" t="n">
-        <v>1.148944478009849</v>
+        <v>1.268482929563338</v>
       </c>
       <c r="F52" t="n">
         <v>-0.7003425890849637</v>
       </c>
       <c r="G52" t="n">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="H52" t="n">
-        <v>96.04832968021401</v>
+        <v>24.68509100671966</v>
       </c>
       <c r="I52" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="J52" t="n">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="K52" t="n">
-        <v>200.4799158494976</v>
+        <v>244.1961507274164</v>
       </c>
       <c r="L52" t="n">
-        <v>4.071710861806771</v>
+        <v>4.334907431043876</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(334), 'value': np.float64(0.677617590599821), 'amplitude': np.float64(1.3779601796847847), 'start_idx': np.int64(301), 'end_idx': np.int64(356), 'duration': np.float64(55.0), 'fwhm': np.float64(33.17629783542844), 'rise_time': np.float64(33.0), 'decay_time': np.float64(22.0), 'auc': np.float64(53.77989921534251)}]</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.6970993876458631</v>
+        <v>0.6792153302195657</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.1297071129707113</v>
       </c>
       <c r="R52" t="n">
-        <v>0.326736335698066</v>
+        <v>0.481075964449285</v>
       </c>
       <c r="S52" t="n">
-        <v>0.7366529187104742</v>
+        <v>0.454075776189047</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="U52" t="n">
-        <v>1412</v>
+        <v>1478</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="B53" t="n">
-        <v>41</v>
+        <v>627</v>
       </c>
       <c r="C53" t="n">
-        <v>101</v>
+        <v>867</v>
       </c>
       <c r="D53" t="n">
-        <v>1.854832782678578</v>
+        <v>3.83291437658275</v>
       </c>
       <c r="E53" t="n">
-        <v>1.196104173088893</v>
+        <v>3.132571787497786</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.6587286095896849</v>
+        <v>-0.7003425890849637</v>
       </c>
       <c r="G53" t="n">
-        <v>101</v>
+        <v>402</v>
       </c>
       <c r="H53" t="n">
-        <v>39.05103705789905</v>
+        <v>186.1698001252322</v>
       </c>
       <c r="I53" t="n">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="J53" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="K53" t="n">
-        <v>104.5185256616057</v>
+        <v>732.7510429291009</v>
       </c>
       <c r="L53" t="n">
-        <v>4.658245120567647</v>
+        <v>8.439208480500971</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,24 +4992,24 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.6487869767783673</v>
+        <v>0.6582293501028257</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.675</v>
       </c>
       <c r="R53" t="n">
-        <v>0.2042593206229421</v>
+        <v>0.2295152728973961</v>
       </c>
       <c r="S53" t="n">
-        <v>0.9311720076619865</v>
+        <v>0.9262475347267772</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>1413</v>
+        <v>1479</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,73 +5029,73 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>607</v>
+        <v>1416</v>
       </c>
       <c r="B54" t="n">
-        <v>684</v>
+        <v>1473</v>
       </c>
       <c r="C54" t="n">
-        <v>906</v>
+        <v>1584</v>
       </c>
       <c r="D54" t="n">
-        <v>1.547115890176038</v>
+        <v>1.849287067094812</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8883872805863535</v>
+        <v>1.148944478009849</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.6587286095896849</v>
+        <v>-0.7003425890849637</v>
       </c>
       <c r="G54" t="n">
-        <v>299</v>
+        <v>168</v>
       </c>
       <c r="H54" t="n">
-        <v>60.88735432389262</v>
+        <v>96.04832968021401</v>
       </c>
       <c r="I54" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="J54" t="n">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="K54" t="n">
-        <v>241.1549803231991</v>
+        <v>200.4799158494976</v>
       </c>
       <c r="L54" t="n">
-        <v>3.885441918897801</v>
+        <v>4.071710861806771</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(773), 'value': np.float64(0.7223397043349741), 'amplitude': np.float64(1.3810683139246591), 'start_idx': np.int64(738), 'end_idx': np.int64(782), 'duration': np.float64(44.0), 'fwhm': np.float64(63.01749823925377), 'rise_time': np.float64(35.0), 'decay_time': np.float64(9.0), 'auc': np.float64(46.43886925769373)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.6947925725018382</v>
+        <v>0.6970993876458631</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.3468468468468469</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="R54" t="n">
-        <v>0.354688366532177</v>
+        <v>0.326736335698066</v>
       </c>
       <c r="S54" t="n">
-        <v>0.4577614790700675</v>
+        <v>0.7366529187104742</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>1414</v>
+        <v>1480</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>469</v>
+        <v>41</v>
       </c>
       <c r="C55" t="n">
-        <v>520</v>
+        <v>101</v>
       </c>
       <c r="D55" t="n">
-        <v>2.088498984602312</v>
+        <v>1.854832782678578</v>
       </c>
       <c r="E55" t="n">
-        <v>1.481493258253889</v>
+        <v>1.196104173088893</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.6070057263484233</v>
+        <v>-0.6587286095896849</v>
       </c>
       <c r="G55" t="n">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="H55" t="n">
-        <v>23.2385062769045</v>
+        <v>39.05103705789905</v>
       </c>
       <c r="I55" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J55" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K55" t="n">
-        <v>97.65801754519821</v>
+        <v>104.5185256616057</v>
       </c>
       <c r="L55" t="n">
-        <v>5.136400035857343</v>
+        <v>4.658245120567647</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,24 +5164,24 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.8642538793057887</v>
+        <v>0.6487869767783673</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.2156862745098039</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="R55" t="n">
-        <v>0.1591088773546979</v>
+        <v>0.2042593206229421</v>
       </c>
       <c r="S55" t="n">
-        <v>0.8079537647415902</v>
+        <v>0.9311720076619865</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>1415</v>
+        <v>1481</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,73 +5201,73 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>184</v>
+        <v>607</v>
       </c>
       <c r="B56" t="n">
-        <v>207</v>
+        <v>684</v>
       </c>
       <c r="C56" t="n">
-        <v>242</v>
+        <v>906</v>
       </c>
       <c r="D56" t="n">
-        <v>1.656343887978338</v>
+        <v>1.547115890176038</v>
       </c>
       <c r="E56" t="n">
-        <v>1.013134284128672</v>
+        <v>0.8883872805863535</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.6432096038496659</v>
+        <v>-0.6587286095896849</v>
       </c>
       <c r="G56" t="n">
-        <v>58</v>
+        <v>299</v>
       </c>
       <c r="H56" t="n">
-        <v>32.92003739214977</v>
+        <v>60.88735432389262</v>
       </c>
       <c r="I56" t="n">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="J56" t="n">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="K56" t="n">
-        <v>54.49480146113539</v>
+        <v>241.1549803231991</v>
       </c>
       <c r="L56" t="n">
-        <v>4.762457443784274</v>
+        <v>3.885441918897801</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(773), 'value': np.float64(0.7223397043349741), 'amplitude': np.float64(1.3810683139246591), 'start_idx': np.int64(738), 'end_idx': np.int64(782), 'duration': np.float64(44.0), 'fwhm': np.float64(63.01749823925377), 'rise_time': np.float64(35.0), 'decay_time': np.float64(9.0), 'auc': np.float64(46.43886925769373)}]</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.7163624211272697</v>
+        <v>0.6947925725018382</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.6571428571428571</v>
+        <v>0.3468468468468469</v>
       </c>
       <c r="R56" t="n">
-        <v>0.1337060979925511</v>
+        <v>0.354688366532177</v>
       </c>
       <c r="S56" t="n">
-        <v>0.9437250005037023</v>
+        <v>0.4577614790700675</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>1416</v>
+        <v>1482</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,40 +5287,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>549</v>
+        <v>458</v>
       </c>
       <c r="B57" t="n">
-        <v>578</v>
+        <v>469</v>
       </c>
       <c r="C57" t="n">
-        <v>636</v>
+        <v>520</v>
       </c>
       <c r="D57" t="n">
-        <v>3.428205663066521</v>
+        <v>2.088498984602312</v>
       </c>
       <c r="E57" t="n">
-        <v>2.784996059216855</v>
+        <v>1.481493258253889</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.6432096038496659</v>
+        <v>-0.6070057263484233</v>
       </c>
       <c r="G57" t="n">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H57" t="n">
-        <v>235.9337315641915</v>
+        <v>23.2385062769045</v>
       </c>
       <c r="I57" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J57" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K57" t="n">
-        <v>205.6152283458682</v>
+        <v>97.65801754519821</v>
       </c>
       <c r="L57" t="n">
-        <v>9.85706150600296</v>
+        <v>5.136400035857343</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5336,24 +5336,24 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.7119074931700022</v>
+        <v>0.8642538793057887</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.5</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="R57" t="n">
-        <v>0.1175240644565949</v>
+        <v>0.1591088773546979</v>
       </c>
       <c r="S57" t="n">
-        <v>0.9642497094620848</v>
+        <v>0.8079537647415902</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>1417</v>
+        <v>1483</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>636</v>
+        <v>184</v>
       </c>
       <c r="B58" t="n">
-        <v>665</v>
+        <v>207</v>
       </c>
       <c r="C58" t="n">
-        <v>725</v>
+        <v>242</v>
       </c>
       <c r="D58" t="n">
-        <v>2.634334352652142</v>
+        <v>1.656343887978338</v>
       </c>
       <c r="E58" t="n">
-        <v>1.991124748802476</v>
+        <v>1.013134284128672</v>
       </c>
       <c r="F58" t="n">
         <v>-0.6432096038496659</v>
       </c>
       <c r="G58" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="H58" t="n">
-        <v>33.97492777257287</v>
+        <v>32.92003739214977</v>
       </c>
       <c r="I58" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J58" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K58" t="n">
-        <v>189.6053286654198</v>
+        <v>54.49480146113539</v>
       </c>
       <c r="L58" t="n">
-        <v>7.574456813142715</v>
+        <v>4.762457443784274</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,16 +5422,16 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.7447083664278968</v>
+        <v>0.7163624211272697</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="R58" t="n">
-        <v>0.1079527580246432</v>
+        <v>0.1337060979925511</v>
       </c>
       <c r="S58" t="n">
-        <v>0.7336063511150137</v>
+        <v>0.9437250005037023</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         </is>
       </c>
       <c r="U58" t="n">
-        <v>1418</v>
+        <v>1484</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>725</v>
+        <v>549</v>
       </c>
       <c r="B59" t="n">
-        <v>744</v>
+        <v>578</v>
       </c>
       <c r="C59" t="n">
-        <v>896</v>
+        <v>636</v>
       </c>
       <c r="D59" t="n">
-        <v>2.273394952430568</v>
+        <v>3.428205663066521</v>
       </c>
       <c r="E59" t="n">
-        <v>1.630185348580902</v>
+        <v>2.784996059216855</v>
       </c>
       <c r="F59" t="n">
         <v>-0.6432096038496659</v>
       </c>
       <c r="G59" t="n">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="H59" t="n">
-        <v>46.73939333974783</v>
+        <v>235.9337315641915</v>
       </c>
       <c r="I59" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J59" t="n">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="K59" t="n">
-        <v>240.6640245128557</v>
+        <v>205.6152283458682</v>
       </c>
       <c r="L59" t="n">
-        <v>6.536653887182484</v>
+        <v>9.85706150600296</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,16 +5508,16 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.7953650395884779</v>
+        <v>0.7119074931700022</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="R59" t="n">
-        <v>0.3308139431737208</v>
+        <v>0.1175240644565949</v>
       </c>
       <c r="S59" t="n">
-        <v>0.6519411552445998</v>
+        <v>0.9642497094620848</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="U59" t="n">
-        <v>1419</v>
+        <v>1485</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1322</v>
+        <v>636</v>
       </c>
       <c r="B60" t="n">
-        <v>1348</v>
+        <v>665</v>
       </c>
       <c r="C60" t="n">
-        <v>1381</v>
+        <v>725</v>
       </c>
       <c r="D60" t="n">
-        <v>1.844555511584651</v>
+        <v>2.634334352652142</v>
       </c>
       <c r="E60" t="n">
-        <v>1.201345907734986</v>
+        <v>1.991124748802476</v>
       </c>
       <c r="F60" t="n">
         <v>-0.6432096038496659</v>
       </c>
       <c r="G60" t="n">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="H60" t="n">
-        <v>29.19412128402041</v>
+        <v>33.97492777257287</v>
       </c>
       <c r="I60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J60" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="K60" t="n">
-        <v>62.67559663432282</v>
+        <v>189.6053286654198</v>
       </c>
       <c r="L60" t="n">
-        <v>5.303619127874319</v>
+        <v>7.574456813142715</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,16 +5594,16 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.64769079120257</v>
+        <v>0.7447083664278968</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="R60" t="n">
-        <v>0.08206466713697627</v>
+        <v>0.1079527580246432</v>
       </c>
       <c r="S60" t="n">
-        <v>0.9289545352641657</v>
+        <v>0.7336063511150137</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         </is>
       </c>
       <c r="U60" t="n">
-        <v>1420</v>
+        <v>1486</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5631,40 +5631,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2225</v>
+        <v>725</v>
       </c>
       <c r="B61" t="n">
-        <v>2253</v>
+        <v>744</v>
       </c>
       <c r="C61" t="n">
-        <v>2348</v>
+        <v>896</v>
       </c>
       <c r="D61" t="n">
-        <v>1.373388733379513</v>
+        <v>2.273394952430568</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7301791295298468</v>
+        <v>1.630185348580902</v>
       </c>
       <c r="F61" t="n">
         <v>-0.6432096038496659</v>
       </c>
       <c r="G61" t="n">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="H61" t="n">
-        <v>21.97684152252714</v>
+        <v>46.73939333974783</v>
       </c>
       <c r="I61" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J61" t="n">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="K61" t="n">
-        <v>122.8348829530144</v>
+        <v>240.6640245128557</v>
       </c>
       <c r="L61" t="n">
-        <v>3.948881294497375</v>
+        <v>6.536653887182484</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,16 +5680,16 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.7792160113041192</v>
+        <v>0.7953650395884779</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.2947368421052631</v>
+        <v>0.125</v>
       </c>
       <c r="R61" t="n">
-        <v>0.5115965394446248</v>
+        <v>0.3308139431737208</v>
       </c>
       <c r="S61" t="n">
-        <v>0.4922493228956833</v>
+        <v>0.6519411552445998</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="U61" t="n">
-        <v>1421</v>
+        <v>1487</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>786</v>
+        <v>1322</v>
       </c>
       <c r="B62" t="n">
-        <v>811</v>
+        <v>1348</v>
       </c>
       <c r="C62" t="n">
-        <v>920</v>
+        <v>1381</v>
       </c>
       <c r="D62" t="n">
-        <v>3.1208118875372</v>
+        <v>1.844555511584651</v>
       </c>
       <c r="E62" t="n">
-        <v>2.632858626146865</v>
+        <v>1.201345907734986</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.4879532613903346</v>
+        <v>-0.6432096038496659</v>
       </c>
       <c r="G62" t="n">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="H62" t="n">
-        <v>38.09172704513196</v>
+        <v>29.19412128402041</v>
       </c>
       <c r="I62" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J62" t="n">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="K62" t="n">
-        <v>295.5412810295264</v>
+        <v>62.67559663432282</v>
       </c>
       <c r="L62" t="n">
-        <v>7.132536902633849</v>
+        <v>5.303619127874319</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,24 +5766,24 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.9094349603957387</v>
+        <v>0.64769079120257</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.2293577981651376</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="R62" t="n">
-        <v>0.2624711604615277</v>
+        <v>0.08206466713697627</v>
       </c>
       <c r="S62" t="n">
-        <v>0.9284067348586454</v>
+        <v>0.9289545352641657</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>1422</v>
+        <v>1488</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,40 +5803,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1429</v>
+        <v>2225</v>
       </c>
       <c r="B63" t="n">
-        <v>1454</v>
+        <v>2253</v>
       </c>
       <c r="C63" t="n">
-        <v>1516</v>
+        <v>2348</v>
       </c>
       <c r="D63" t="n">
-        <v>3.176523692795569</v>
+        <v>1.373388733379513</v>
       </c>
       <c r="E63" t="n">
-        <v>2.639967617294715</v>
+        <v>0.7301791295298468</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.5365560755008544</v>
+        <v>-0.6432096038496659</v>
       </c>
       <c r="G63" t="n">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="H63" t="n">
-        <v>25.98780712661096</v>
+        <v>21.97684152252714</v>
       </c>
       <c r="I63" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J63" t="n">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="K63" t="n">
-        <v>205.9509203981237</v>
+        <v>122.8348829530144</v>
       </c>
       <c r="L63" t="n">
-        <v>28.54529609955554</v>
+        <v>3.948881294497375</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -5852,24 +5852,24 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.866474690588833</v>
+        <v>0.7792160113041192</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.4032258064516129</v>
+        <v>0.2947368421052631</v>
       </c>
       <c r="R63" t="n">
-        <v>0.2034498160131921</v>
+        <v>0.5115965394446248</v>
       </c>
       <c r="S63" t="n">
-        <v>0.9237799592867117</v>
+        <v>0.4922493228956833</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>1423</v>
+        <v>1489</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,40 +5889,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2451</v>
+        <v>786</v>
       </c>
       <c r="B64" t="n">
-        <v>2493</v>
+        <v>811</v>
       </c>
       <c r="C64" t="n">
-        <v>2647</v>
+        <v>920</v>
       </c>
       <c r="D64" t="n">
-        <v>3.956856848275242</v>
+        <v>3.1208118875372</v>
       </c>
       <c r="E64" t="n">
-        <v>3.420300772774388</v>
+        <v>2.632858626146865</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.5365560755008544</v>
+        <v>-0.4879532613903346</v>
       </c>
       <c r="G64" t="n">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="H64" t="n">
-        <v>82.04218147873371</v>
+        <v>38.09172704513196</v>
       </c>
       <c r="I64" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="J64" t="n">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="K64" t="n">
-        <v>350.1822111965337</v>
+        <v>295.5412810295264</v>
       </c>
       <c r="L64" t="n">
-        <v>35.55762880464054</v>
+        <v>7.132536902633849</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5938,24 +5938,24 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.9669513654977583</v>
+        <v>0.9094349603957387</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="R64" t="n">
-        <v>0.2302675956158363</v>
+        <v>0.2624711604615277</v>
       </c>
       <c r="S64" t="n">
-        <v>0.9273184487886605</v>
+        <v>0.9284067348586454</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U64" t="n">
-        <v>1424</v>
+        <v>1490</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,40 +5975,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2689</v>
+        <v>1429</v>
       </c>
       <c r="B65" t="n">
-        <v>2717</v>
+        <v>1454</v>
       </c>
       <c r="C65" t="n">
-        <v>2861</v>
+        <v>1516</v>
       </c>
       <c r="D65" t="n">
-        <v>3.494788290284765</v>
+        <v>3.176523692795569</v>
       </c>
       <c r="E65" t="n">
-        <v>2.958232214783911</v>
+        <v>2.639967617294715</v>
       </c>
       <c r="F65" t="n">
         <v>-0.5365560755008544</v>
       </c>
       <c r="G65" t="n">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="H65" t="n">
-        <v>72.2600834300174</v>
+        <v>25.98780712661096</v>
       </c>
       <c r="I65" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J65" t="n">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="K65" t="n">
-        <v>294.7233898757014</v>
+        <v>205.9509203981237</v>
       </c>
       <c r="L65" t="n">
-        <v>31.4053273953837</v>
+        <v>28.54529609955554</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6024,16 +6024,16 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.8638896377827004</v>
+        <v>0.866474690588833</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="R65" t="n">
-        <v>0.3648862752316683</v>
+        <v>0.2034498160131921</v>
       </c>
       <c r="S65" t="n">
-        <v>0.642956611362805</v>
+        <v>0.9237799592867117</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         </is>
       </c>
       <c r="U65" t="n">
-        <v>1425</v>
+        <v>1491</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2861</v>
+        <v>2451</v>
       </c>
       <c r="B66" t="n">
-        <v>2893</v>
+        <v>2493</v>
       </c>
       <c r="C66" t="n">
-        <v>2945</v>
+        <v>2647</v>
       </c>
       <c r="D66" t="n">
-        <v>1.394627970157991</v>
+        <v>3.956856848275242</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8580718946571364</v>
+        <v>3.420300772774388</v>
       </c>
       <c r="F66" t="n">
         <v>-0.5365560755008544</v>
       </c>
       <c r="G66" t="n">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="H66" t="n">
-        <v>31.58653725767681</v>
+        <v>82.04218147873371</v>
       </c>
       <c r="I66" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J66" t="n">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="K66" t="n">
-        <v>56.14013034241744</v>
+        <v>350.1822111965337</v>
       </c>
       <c r="L66" t="n">
-        <v>12.53258977641883</v>
+        <v>35.55762880464054</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,16 +6110,16 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.8242672704360845</v>
+        <v>0.9669513654977583</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R66" t="n">
-        <v>0.1888038661890085</v>
+        <v>0.2302675956158363</v>
       </c>
       <c r="S66" t="n">
-        <v>0.9693678100822296</v>
+        <v>0.9273184487886605</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="U66" t="n">
-        <v>1426</v>
+        <v>1492</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1920</v>
+        <v>2689</v>
       </c>
       <c r="B67" t="n">
-        <v>1949</v>
+        <v>2717</v>
       </c>
       <c r="C67" t="n">
-        <v>1987</v>
+        <v>2861</v>
       </c>
       <c r="D67" t="n">
-        <v>3.261872473049412</v>
+        <v>3.494788290284765</v>
       </c>
       <c r="E67" t="n">
-        <v>2.763965392287304</v>
+        <v>2.958232214783911</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4979070807621084</v>
+        <v>-0.5365560755008544</v>
       </c>
       <c r="G67" t="n">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="H67" t="n">
-        <v>34.09598766029171</v>
+        <v>72.2600834300174</v>
       </c>
       <c r="I67" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J67" t="n">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="K67" t="n">
-        <v>172.3858449488125</v>
+        <v>294.7233898757014</v>
       </c>
       <c r="L67" t="n">
-        <v>20.18089452262664</v>
+        <v>31.4053273953837</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,24 +6196,24 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.6480527409598508</v>
+        <v>0.8638896377827004</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="R67" t="n">
-        <v>0.07821525211268199</v>
+        <v>0.3648862752316683</v>
       </c>
       <c r="S67" t="n">
-        <v>0.9353425034450359</v>
+        <v>0.642956611362805</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>1427</v>
+        <v>1493</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1987</v>
+        <v>2861</v>
       </c>
       <c r="B68" t="n">
-        <v>2022</v>
+        <v>2893</v>
       </c>
       <c r="C68" t="n">
-        <v>2094</v>
+        <v>2945</v>
       </c>
       <c r="D68" t="n">
-        <v>3.249196848319899</v>
+        <v>1.394627970157991</v>
       </c>
       <c r="E68" t="n">
-        <v>2.751289767557791</v>
+        <v>0.8580718946571364</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4979070807621084</v>
+        <v>-0.5365560755008544</v>
       </c>
       <c r="G68" t="n">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="H68" t="n">
-        <v>28.48725907683502</v>
+        <v>31.58653725767681</v>
       </c>
       <c r="I68" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J68" t="n">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K68" t="n">
-        <v>238.52898671886</v>
+        <v>56.14013034241744</v>
       </c>
       <c r="L68" t="n">
-        <v>20.10247163890318</v>
+        <v>12.53258977641883</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,24 +6282,24 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.7269454141712411</v>
+        <v>0.8242672704360845</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.4861111111111111</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="R68" t="n">
-        <v>0.3008402861330947</v>
+        <v>0.1888038661890085</v>
       </c>
       <c r="S68" t="n">
-        <v>0.8897661283602577</v>
+        <v>0.9693678100822296</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U68" t="n">
-        <v>1428</v>
+        <v>1494</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>699</v>
+        <v>1920</v>
       </c>
       <c r="B69" t="n">
-        <v>752</v>
+        <v>1949</v>
       </c>
       <c r="C69" t="n">
-        <v>825</v>
+        <v>1987</v>
       </c>
       <c r="D69" t="n">
-        <v>1.835483909858773</v>
+        <v>3.261872473049412</v>
       </c>
       <c r="E69" t="n">
-        <v>1.247801845421479</v>
+        <v>2.763965392287304</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5876820644372943</v>
+        <v>-0.4979070807621084</v>
       </c>
       <c r="G69" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="H69" t="n">
-        <v>80.42195519774748</v>
+        <v>34.09598766029171</v>
       </c>
       <c r="I69" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="J69" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="K69" t="n">
-        <v>156.3071773410744</v>
+        <v>172.3858449488125</v>
       </c>
       <c r="L69" t="n">
-        <v>4.841708281434036</v>
+        <v>20.18089452262664</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,24 +6368,24 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.6073928419676007</v>
+        <v>0.6480527409598508</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.726027397260274</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="R69" t="n">
-        <v>0.6187967712342024</v>
+        <v>0.07821525211268199</v>
       </c>
       <c r="S69" t="n">
-        <v>0.4382617398469988</v>
+        <v>0.9353425034450359</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>1429</v>
+        <v>1495</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1048</v>
+        <v>1987</v>
       </c>
       <c r="B70" t="n">
-        <v>1128</v>
+        <v>2022</v>
       </c>
       <c r="C70" t="n">
-        <v>1255</v>
+        <v>2094</v>
       </c>
       <c r="D70" t="n">
-        <v>1.680311724809614</v>
+        <v>3.249196848319899</v>
       </c>
       <c r="E70" t="n">
-        <v>1.192516787544114</v>
+        <v>2.751289767557791</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.4877949372654997</v>
+        <v>-0.4979070807621084</v>
       </c>
       <c r="G70" t="n">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="H70" t="n">
-        <v>34.52203420113483</v>
+        <v>28.48725907683502</v>
       </c>
       <c r="I70" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="J70" t="n">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="K70" t="n">
-        <v>151.7817256083005</v>
+        <v>238.52898671886</v>
       </c>
       <c r="L70" t="n">
-        <v>5.663895796798165</v>
+        <v>20.10247163890318</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,24 +6454,24 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.5510509617342848</v>
+        <v>0.7269454141712411</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.6299212598425197</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="R70" t="n">
-        <v>0.3234106788147</v>
+        <v>0.3008402861330947</v>
       </c>
       <c r="S70" t="n">
-        <v>0.8554127381713383</v>
+        <v>0.8897661283602577</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>1430</v>
+        <v>1496</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>724</v>
+        <v>699</v>
       </c>
       <c r="B71" t="n">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C71" t="n">
         <v>825</v>
       </c>
       <c r="D71" t="n">
-        <v>1.481395093067409</v>
+        <v>1.835483909858773</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9419983023114211</v>
+        <v>1.247801845421479</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.539396790755988</v>
+        <v>-0.5876820644372943</v>
       </c>
       <c r="G71" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="H71" t="n">
-        <v>34.98061966538535</v>
+        <v>80.42195519774748</v>
       </c>
       <c r="I71" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="J71" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K71" t="n">
-        <v>82.84816506524825</v>
+        <v>156.3071773410744</v>
       </c>
       <c r="L71" t="n">
-        <v>4.319891245847491</v>
+        <v>4.841708281434036</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,24 +6540,24 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.9019495616806678</v>
+        <v>0.6073928419676007</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.3466666666666667</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="R71" t="n">
-        <v>0.265710814388784</v>
+        <v>0.6187967712342024</v>
       </c>
       <c r="S71" t="n">
-        <v>0.7922588891323404</v>
+        <v>0.4382617398469988</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>1431</v>
+        <v>1497</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>922</v>
+        <v>1048</v>
       </c>
       <c r="B72" t="n">
-        <v>990</v>
+        <v>1128</v>
       </c>
       <c r="C72" t="n">
-        <v>1123</v>
+        <v>1255</v>
       </c>
       <c r="D72" t="n">
-        <v>4.424750730009031</v>
+        <v>1.680311724809614</v>
       </c>
       <c r="E72" t="n">
-        <v>3.885353939253043</v>
+        <v>1.192516787544114</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.539396790755988</v>
+        <v>-0.4877949372654997</v>
       </c>
       <c r="G72" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H72" t="n">
-        <v>101.071852949943</v>
+        <v>34.52203420113483</v>
       </c>
       <c r="I72" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J72" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K72" t="n">
-        <v>443.6281028479954</v>
+        <v>151.7817256083005</v>
       </c>
       <c r="L72" t="n">
-        <v>12.90300071403944</v>
+        <v>5.663895796798165</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,24 +6626,24 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.7653144032269455</v>
+        <v>0.5510509617342848</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.5112781954887218</v>
+        <v>0.6299212598425197</v>
       </c>
       <c r="R72" t="n">
-        <v>0.2315708163939998</v>
+        <v>0.3234106788147</v>
       </c>
       <c r="S72" t="n">
-        <v>0.9692875214968367</v>
+        <v>0.8554127381713383</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>1432</v>
+        <v>1498</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>444</v>
+        <v>724</v>
       </c>
       <c r="B73" t="n">
-        <v>465</v>
+        <v>750</v>
       </c>
       <c r="C73" t="n">
-        <v>519</v>
+        <v>825</v>
       </c>
       <c r="D73" t="n">
-        <v>1.49086620473621</v>
+        <v>1.481395093067409</v>
       </c>
       <c r="E73" t="n">
-        <v>1.001963993321218</v>
+        <v>0.9419983023114211</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.4889022114149922</v>
+        <v>-0.539396790755988</v>
       </c>
       <c r="G73" t="n">
+        <v>101</v>
+      </c>
+      <c r="H73" t="n">
+        <v>34.98061966538535</v>
+      </c>
+      <c r="I73" t="n">
+        <v>26</v>
+      </c>
+      <c r="J73" t="n">
         <v>75</v>
       </c>
-      <c r="H73" t="n">
-        <v>23.6421963569864</v>
-      </c>
-      <c r="I73" t="n">
-        <v>21</v>
-      </c>
-      <c r="J73" t="n">
-        <v>54</v>
-      </c>
       <c r="K73" t="n">
-        <v>71.22532611406031</v>
+        <v>82.84816506524825</v>
       </c>
       <c r="L73" t="n">
-        <v>4.972322266350377</v>
+        <v>4.319891245847491</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,24 +6712,24 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.8722120872936622</v>
+        <v>0.9019495616806678</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="R73" t="n">
-        <v>0.2887991932863159</v>
+        <v>0.265710814388784</v>
       </c>
       <c r="S73" t="n">
-        <v>0.8152597452207941</v>
+        <v>0.7922588891323404</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U73" t="n">
-        <v>1433</v>
+        <v>1499</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,40 +6749,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1097</v>
+        <v>922</v>
       </c>
       <c r="B74" t="n">
-        <v>1157</v>
+        <v>990</v>
       </c>
       <c r="C74" t="n">
-        <v>1243</v>
+        <v>1123</v>
       </c>
       <c r="D74" t="n">
-        <v>3.041202440875472</v>
+        <v>4.424750730009031</v>
       </c>
       <c r="E74" t="n">
-        <v>2.55230022946048</v>
+        <v>3.885353939253043</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.4889022114149922</v>
+        <v>-0.539396790755988</v>
       </c>
       <c r="G74" t="n">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="H74" t="n">
-        <v>34.97448193023615</v>
+        <v>101.071852949943</v>
       </c>
       <c r="I74" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J74" t="n">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="K74" t="n">
-        <v>141.915494686638</v>
+        <v>443.6281028479954</v>
       </c>
       <c r="L74" t="n">
-        <v>10.14298839507188</v>
+        <v>12.90300071403944</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6798,24 +6798,24 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.6524099401734703</v>
+        <v>0.7653144032269455</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.6976744186046512</v>
+        <v>0.5112781954887218</v>
       </c>
       <c r="R74" t="n">
-        <v>0.2380410483885928</v>
+        <v>0.2315708163939998</v>
       </c>
       <c r="S74" t="n">
-        <v>0.7718378896425235</v>
+        <v>0.9692875214968367</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>1434</v>
+        <v>1500</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,40 +6835,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>12</v>
+        <v>444</v>
       </c>
       <c r="B75" t="n">
-        <v>61</v>
+        <v>465</v>
       </c>
       <c r="C75" t="n">
-        <v>126</v>
+        <v>519</v>
       </c>
       <c r="D75" t="n">
-        <v>2.117042957639308</v>
+        <v>1.49086620473621</v>
       </c>
       <c r="E75" t="n">
-        <v>1.395813787699773</v>
+        <v>1.001963993321218</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.7212291699395355</v>
+        <v>-0.4889022114149922</v>
       </c>
       <c r="G75" t="n">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="H75" t="n">
-        <v>94.32182779436147</v>
+        <v>23.6421963569864</v>
       </c>
       <c r="I75" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="J75" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K75" t="n">
-        <v>162.7954742997937</v>
+        <v>71.22532611406031</v>
       </c>
       <c r="L75" t="n">
-        <v>6.702371158306837</v>
+        <v>4.972322266350377</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6884,24 +6884,24 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.4782562058296396</v>
+        <v>0.8722120872936622</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.7538461538461538</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="R75" t="n">
-        <v>0.1520552746727767</v>
+        <v>0.2887991932863159</v>
       </c>
       <c r="S75" t="n">
-        <v>0.7417358888021457</v>
+        <v>0.8152597452207941</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U75" t="n">
-        <v>1435</v>
+        <v>1501</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1352</v>
+        <v>1097</v>
       </c>
       <c r="B76" t="n">
-        <v>1397</v>
+        <v>1157</v>
       </c>
       <c r="C76" t="n">
-        <v>1559</v>
+        <v>1243</v>
       </c>
       <c r="D76" t="n">
-        <v>2.706453729846005</v>
+        <v>3.041202440875472</v>
       </c>
       <c r="E76" t="n">
-        <v>1.985224559906469</v>
+        <v>2.55230022946048</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.7212291699395355</v>
+        <v>-0.4889022114149922</v>
       </c>
       <c r="G76" t="n">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="H76" t="n">
-        <v>123.9259657592836</v>
+        <v>34.97448193023615</v>
       </c>
       <c r="I76" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="J76" t="n">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="K76" t="n">
-        <v>283.1378409177436</v>
+        <v>141.915494686638</v>
       </c>
       <c r="L76" t="n">
-        <v>8.568393643008152</v>
+        <v>10.14298839507188</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6970,24 +6970,24 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.8733777504398349</v>
+        <v>0.6524099401734703</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="R76" t="n">
-        <v>0.207737248482065</v>
+        <v>0.2380410483885928</v>
       </c>
       <c r="S76" t="n">
-        <v>0.8378075909045187</v>
+        <v>0.7718378896425235</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U76" t="n">
-        <v>1436</v>
+        <v>1502</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -7007,40 +7007,40 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1838</v>
+        <v>12</v>
       </c>
       <c r="B77" t="n">
-        <v>1859</v>
+        <v>61</v>
       </c>
       <c r="C77" t="n">
-        <v>1938</v>
+        <v>126</v>
       </c>
       <c r="D77" t="n">
-        <v>2.345581830888531</v>
+        <v>2.117042957639308</v>
       </c>
       <c r="E77" t="n">
-        <v>1.624352660948995</v>
+        <v>1.395813787699773</v>
       </c>
       <c r="F77" t="n">
         <v>-0.7212291699395355</v>
       </c>
       <c r="G77" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="H77" t="n">
-        <v>43.57752280234808</v>
+        <v>94.32182779436147</v>
       </c>
       <c r="I77" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="J77" t="n">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="K77" t="n">
-        <v>206.1171913259454</v>
+        <v>162.7954742997937</v>
       </c>
       <c r="L77" t="n">
-        <v>7.42590506067298</v>
+        <v>6.702371158306837</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7056,16 +7056,16 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.8543268272331948</v>
+        <v>0.4782562058296396</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.2658227848101266</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="R77" t="n">
-        <v>0.1985601107113987</v>
+        <v>0.1520552746727767</v>
       </c>
       <c r="S77" t="n">
-        <v>0.545663893804986</v>
+        <v>0.7417358888021457</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         </is>
       </c>
       <c r="U77" t="n">
-        <v>1437</v>
+        <v>1503</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -7093,40 +7093,40 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2210</v>
+        <v>1352</v>
       </c>
       <c r="B78" t="n">
-        <v>2245</v>
+        <v>1397</v>
       </c>
       <c r="C78" t="n">
-        <v>2390</v>
+        <v>1559</v>
       </c>
       <c r="D78" t="n">
-        <v>2.299209176167677</v>
+        <v>2.706453729846005</v>
       </c>
       <c r="E78" t="n">
-        <v>1.577980006228142</v>
+        <v>1.985224559906469</v>
       </c>
       <c r="F78" t="n">
         <v>-0.7212291699395355</v>
       </c>
       <c r="G78" t="n">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="H78" t="n">
-        <v>71.05445618074873</v>
+        <v>123.9259657592836</v>
       </c>
       <c r="I78" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J78" t="n">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="K78" t="n">
-        <v>219.3788841546243</v>
+        <v>283.1378409177436</v>
       </c>
       <c r="L78" t="n">
-        <v>7.279093328575797</v>
+        <v>8.568393643008152</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7142,16 +7142,16 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.9182313845012411</v>
+        <v>0.8733777504398349</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="R78" t="n">
-        <v>0.2471386186380984</v>
+        <v>0.207737248482065</v>
       </c>
       <c r="S78" t="n">
-        <v>0.7423217819570002</v>
+        <v>0.8378075909045187</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         </is>
       </c>
       <c r="U78" t="n">
-        <v>1438</v>
+        <v>1504</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -7179,40 +7179,40 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2577</v>
+        <v>1838</v>
       </c>
       <c r="B79" t="n">
-        <v>2607</v>
+        <v>1859</v>
       </c>
       <c r="C79" t="n">
-        <v>2672</v>
+        <v>1938</v>
       </c>
       <c r="D79" t="n">
-        <v>1.943940031615287</v>
+        <v>2.345581830888531</v>
       </c>
       <c r="E79" t="n">
-        <v>1.222710861675751</v>
+        <v>1.624352660948995</v>
       </c>
       <c r="F79" t="n">
         <v>-0.7212291699395355</v>
       </c>
       <c r="G79" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H79" t="n">
-        <v>55.94466100120644</v>
+        <v>43.57752280234808</v>
       </c>
       <c r="I79" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J79" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="K79" t="n">
-        <v>112.6580874492156</v>
+        <v>206.1171913259454</v>
       </c>
       <c r="L79" t="n">
-        <v>6.154342572200275</v>
+        <v>7.42590506067298</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7228,16 +7228,16 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.8551547889415937</v>
+        <v>0.8543268272331948</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.2658227848101266</v>
       </c>
       <c r="R79" t="n">
-        <v>0.3384846504428479</v>
+        <v>0.1985601107113987</v>
       </c>
       <c r="S79" t="n">
-        <v>0.9436015641662965</v>
+        <v>0.545663893804986</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="U79" t="n">
-        <v>1439</v>
+        <v>1505</v>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -7265,40 +7265,40 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>313</v>
+        <v>2210</v>
       </c>
       <c r="B80" t="n">
-        <v>340</v>
+        <v>2245</v>
       </c>
       <c r="C80" t="n">
-        <v>493</v>
+        <v>2390</v>
       </c>
       <c r="D80" t="n">
-        <v>2.678121929985426</v>
+        <v>2.299209176167677</v>
       </c>
       <c r="E80" t="n">
-        <v>2.07126036678653</v>
+        <v>1.577980006228142</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.6068615631988957</v>
+        <v>-0.7212291699395355</v>
       </c>
       <c r="G80" t="n">
         <v>180</v>
       </c>
       <c r="H80" t="n">
-        <v>26.93248982011636</v>
+        <v>71.05445618074873</v>
       </c>
       <c r="I80" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J80" t="n">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="K80" t="n">
-        <v>166.569626523908</v>
+        <v>219.3788841546243</v>
       </c>
       <c r="L80" t="n">
-        <v>12.00447775700693</v>
+        <v>7.279093328575797</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7314,24 +7314,24 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.7547121838884497</v>
+        <v>0.9182313845012411</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="R80" t="n">
-        <v>0.6647373931093429</v>
+        <v>0.2471386186380984</v>
       </c>
       <c r="S80" t="n">
-        <v>0.6372948326621957</v>
+        <v>0.7423217819570002</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U80" t="n">
-        <v>1440</v>
+        <v>1506</v>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -7351,40 +7351,40 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1445</v>
+        <v>2577</v>
       </c>
       <c r="B81" t="n">
-        <v>1475</v>
+        <v>2607</v>
       </c>
       <c r="C81" t="n">
-        <v>1520</v>
+        <v>2672</v>
       </c>
       <c r="D81" t="n">
-        <v>2.737853079791232</v>
+        <v>1.943940031615287</v>
       </c>
       <c r="E81" t="n">
-        <v>2.130991516592336</v>
+        <v>1.222710861675751</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.6068615631988957</v>
+        <v>-0.7212291699395355</v>
       </c>
       <c r="G81" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="H81" t="n">
-        <v>59.27876611864531</v>
+        <v>55.94466100120644</v>
       </c>
       <c r="I81" t="n">
         <v>30</v>
       </c>
       <c r="J81" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K81" t="n">
-        <v>146.0828706624604</v>
+        <v>112.6580874492156</v>
       </c>
       <c r="L81" t="n">
-        <v>12.27221809071465</v>
+        <v>6.154342572200275</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7400,24 +7400,24 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.6512744526572354</v>
+        <v>0.8551547889415937</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="R81" t="n">
-        <v>0.09870250285063976</v>
+        <v>0.3384846504428479</v>
       </c>
       <c r="S81" t="n">
-        <v>0.8892594989483869</v>
+        <v>0.9436015641662965</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U81" t="n">
-        <v>1441</v>
+        <v>1507</v>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -7437,40 +7437,40 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1816</v>
+        <v>313</v>
       </c>
       <c r="B82" t="n">
-        <v>1847</v>
+        <v>340</v>
       </c>
       <c r="C82" t="n">
-        <v>1903</v>
+        <v>493</v>
       </c>
       <c r="D82" t="n">
-        <v>3.224447229519643</v>
+        <v>2.678121929985426</v>
       </c>
       <c r="E82" t="n">
-        <v>2.617585666320748</v>
+        <v>2.07126036678653</v>
       </c>
       <c r="F82" t="n">
         <v>-0.6068615631988957</v>
       </c>
       <c r="G82" t="n">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="H82" t="n">
-        <v>32.37484646516918</v>
+        <v>26.93248982011636</v>
       </c>
       <c r="I82" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J82" t="n">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="K82" t="n">
-        <v>193.028053574852</v>
+        <v>166.569626523908</v>
       </c>
       <c r="L82" t="n">
-        <v>14.45333933904265</v>
+        <v>12.00447775700693</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7486,16 +7486,16 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.8621187731547126</v>
+        <v>0.7547121838884497</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.5535714285714286</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="R82" t="n">
-        <v>0.3314479884770388</v>
+        <v>0.6647373931093429</v>
       </c>
       <c r="S82" t="n">
-        <v>0.9348239329115247</v>
+        <v>0.6372948326621957</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         </is>
       </c>
       <c r="U82" t="n">
-        <v>1442</v>
+        <v>1508</v>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -7523,40 +7523,40 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2250</v>
+        <v>1445</v>
       </c>
       <c r="B83" t="n">
-        <v>2273</v>
+        <v>1475</v>
       </c>
       <c r="C83" t="n">
-        <v>2351</v>
+        <v>1520</v>
       </c>
       <c r="D83" t="n">
-        <v>4.181764675181319</v>
+        <v>2.737853079791232</v>
       </c>
       <c r="E83" t="n">
-        <v>3.621655582610011</v>
+        <v>2.130991516592336</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.5601090925713078</v>
+        <v>-0.6068615631988957</v>
       </c>
       <c r="G83" t="n">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="H83" t="n">
-        <v>143.9560216406885</v>
+        <v>59.27876611864531</v>
       </c>
       <c r="I83" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J83" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="K83" t="n">
-        <v>300.2805728806237</v>
+        <v>146.0828706624604</v>
       </c>
       <c r="L83" t="n">
-        <v>17.01353229660753</v>
+        <v>12.27221809071465</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -7572,24 +7572,24 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.8995951682879382</v>
+        <v>0.6512744526572354</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.2948717948717949</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R83" t="n">
-        <v>0.2791135075701007</v>
+        <v>0.09870250285063976</v>
       </c>
       <c r="S83" t="n">
-        <v>0.9431094872036468</v>
+        <v>0.8892594989483869</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U83" t="n">
-        <v>1443</v>
+        <v>1509</v>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -7609,40 +7609,40 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2351</v>
+        <v>1816</v>
       </c>
       <c r="B84" t="n">
-        <v>2382</v>
+        <v>1847</v>
       </c>
       <c r="C84" t="n">
-        <v>2425</v>
+        <v>1903</v>
       </c>
       <c r="D84" t="n">
-        <v>3.503646829017928</v>
+        <v>3.224447229519643</v>
       </c>
       <c r="E84" t="n">
-        <v>2.943537736446621</v>
+        <v>2.617585666320748</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5601090925713078</v>
+        <v>-0.6068615631988957</v>
       </c>
       <c r="G84" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H84" t="n">
-        <v>37.61530175377675</v>
+        <v>32.37484646516918</v>
       </c>
       <c r="I84" t="n">
         <v>31</v>
       </c>
       <c r="J84" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K84" t="n">
-        <v>176.2160745233971</v>
+        <v>193.028053574852</v>
       </c>
       <c r="L84" t="n">
-        <v>14.25460615590916</v>
+        <v>14.45333933904265</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -7658,24 +7658,24 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.6598531033608361</v>
+        <v>0.8621187731547126</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.7209302325581395</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="R84" t="n">
-        <v>0.06844865916525111</v>
+        <v>0.3314479884770388</v>
       </c>
       <c r="S84" t="n">
-        <v>0.9861812666569589</v>
+        <v>0.9348239329115247</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U84" t="n">
-        <v>1444</v>
+        <v>1510</v>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -7695,40 +7695,40 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1958</v>
+        <v>2250</v>
       </c>
       <c r="B85" t="n">
-        <v>1978</v>
+        <v>2273</v>
       </c>
       <c r="C85" t="n">
-        <v>2023</v>
+        <v>2351</v>
       </c>
       <c r="D85" t="n">
-        <v>1.73315533261475</v>
+        <v>4.181764675181319</v>
       </c>
       <c r="E85" t="n">
-        <v>1.1320845266807</v>
+        <v>3.621655582610011</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.6010708059340496</v>
+        <v>-0.5601090925713078</v>
       </c>
       <c r="G85" t="n">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="H85" t="n">
-        <v>20.88586868049151</v>
+        <v>143.9560216406885</v>
       </c>
       <c r="I85" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J85" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="K85" t="n">
-        <v>64.61535793188858</v>
+        <v>300.2805728806237</v>
       </c>
       <c r="L85" t="n">
-        <v>6.774314200600859</v>
+        <v>17.01353229660753</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -7744,24 +7744,24 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.870331011972247</v>
+        <v>0.8995951682879382</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="R85" t="n">
-        <v>0.3044286255099506</v>
+        <v>0.2791135075701007</v>
       </c>
       <c r="S85" t="n">
-        <v>0.9008080649403155</v>
+        <v>0.9431094872036468</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U85" t="n">
-        <v>1445</v>
+        <v>1511</v>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -7781,40 +7781,40 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2023</v>
+        <v>2351</v>
       </c>
       <c r="B86" t="n">
-        <v>2056</v>
+        <v>2382</v>
       </c>
       <c r="C86" t="n">
-        <v>2150</v>
+        <v>2425</v>
       </c>
       <c r="D86" t="n">
-        <v>3.241200807694875</v>
+        <v>3.503646829017928</v>
       </c>
       <c r="E86" t="n">
-        <v>2.640130001760825</v>
+        <v>2.943537736446621</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.6010708059340496</v>
+        <v>-0.5601090925713078</v>
       </c>
       <c r="G86" t="n">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="H86" t="n">
-        <v>38.3232808878679</v>
+        <v>37.61530175377675</v>
       </c>
       <c r="I86" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J86" t="n">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="K86" t="n">
-        <v>195.0543946829001</v>
+        <v>176.2160745233971</v>
       </c>
       <c r="L86" t="n">
-        <v>12.66875059919803</v>
+        <v>14.25460615590916</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -7830,24 +7830,24 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.8965719745446259</v>
+        <v>0.6598531033608361</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.351063829787234</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="R86" t="n">
-        <v>0.2920876683358092</v>
+        <v>0.06844865916525111</v>
       </c>
       <c r="S86" t="n">
-        <v>0.8758846788611437</v>
+        <v>0.9861812666569589</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U86" t="n">
-        <v>1446</v>
+        <v>1512</v>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -7867,40 +7867,40 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2284</v>
+        <v>1958</v>
       </c>
       <c r="B87" t="n">
-        <v>2308</v>
+        <v>1978</v>
       </c>
       <c r="C87" t="n">
-        <v>2403</v>
+        <v>2023</v>
       </c>
       <c r="D87" t="n">
-        <v>3.462022287849256</v>
+        <v>1.73315533261475</v>
       </c>
       <c r="E87" t="n">
-        <v>2.860951481915206</v>
+        <v>1.1320845266807</v>
       </c>
       <c r="F87" t="n">
         <v>-0.6010708059340496</v>
       </c>
       <c r="G87" t="n">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="H87" t="n">
-        <v>20.9480747900011</v>
+        <v>20.88586868049151</v>
       </c>
       <c r="I87" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J87" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K87" t="n">
-        <v>306.7782886587555</v>
+        <v>64.61535793188858</v>
       </c>
       <c r="L87" t="n">
-        <v>13.53186659385656</v>
+        <v>6.774314200600859</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -7916,16 +7916,16 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.8151084685907655</v>
+        <v>0.870331011972247</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.2526315789473684</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="R87" t="n">
-        <v>0.2527521317699524</v>
+        <v>0.3044286255099506</v>
       </c>
       <c r="S87" t="n">
-        <v>0.6916512135899691</v>
+        <v>0.9008080649403155</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         </is>
       </c>
       <c r="U87" t="n">
-        <v>1447</v>
+        <v>1513</v>
       </c>
       <c r="V87" t="inlineStr">
         <is>
@@ -7953,40 +7953,40 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2403</v>
+        <v>2023</v>
       </c>
       <c r="B88" t="n">
-        <v>2425</v>
+        <v>2056</v>
       </c>
       <c r="C88" t="n">
-        <v>2492</v>
+        <v>2150</v>
       </c>
       <c r="D88" t="n">
-        <v>2.795748042240944</v>
+        <v>3.241200807694875</v>
       </c>
       <c r="E88" t="n">
-        <v>2.194677236306894</v>
+        <v>2.640130001760825</v>
       </c>
       <c r="F88" t="n">
         <v>-0.6010708059340496</v>
       </c>
       <c r="G88" t="n">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="H88" t="n">
-        <v>23.18755156257021</v>
+        <v>38.3232808878679</v>
       </c>
       <c r="I88" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J88" t="n">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="K88" t="n">
-        <v>157.2328588452006</v>
+        <v>195.0543946829001</v>
       </c>
       <c r="L88" t="n">
-        <v>10.92762737848884</v>
+        <v>12.66875059919803</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -8002,16 +8002,16 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.8687991662605141</v>
+        <v>0.8965719745446259</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.3283582089552239</v>
+        <v>0.351063829787234</v>
       </c>
       <c r="R88" t="n">
-        <v>0.2920425883839323</v>
+        <v>0.2920876683358092</v>
       </c>
       <c r="S88" t="n">
-        <v>0.7937181394493905</v>
+        <v>0.8758846788611437</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         </is>
       </c>
       <c r="U88" t="n">
-        <v>1448</v>
+        <v>1514</v>
       </c>
       <c r="V88" t="inlineStr">
         <is>
@@ -8039,40 +8039,40 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1902</v>
+        <v>2284</v>
       </c>
       <c r="B89" t="n">
-        <v>1941</v>
+        <v>2308</v>
       </c>
       <c r="C89" t="n">
-        <v>1990</v>
+        <v>2403</v>
       </c>
       <c r="D89" t="n">
-        <v>1.040843896535419</v>
+        <v>3.462022287849256</v>
       </c>
       <c r="E89" t="n">
-        <v>0.3454520581512841</v>
+        <v>2.860951481915206</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6953918383841349</v>
+        <v>-0.6010708059340496</v>
       </c>
       <c r="G89" t="n">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="H89" t="n">
-        <v>43.47360379236693</v>
+        <v>20.9480747900011</v>
       </c>
       <c r="I89" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J89" t="n">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="K89" t="n">
-        <v>67.91503751871213</v>
+        <v>306.7782886587555</v>
       </c>
       <c r="L89" t="n">
-        <v>4.990830911601019</v>
+        <v>13.53186659385656</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8088,24 +8088,24 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.7673768894293037</v>
+        <v>0.8151084685907655</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.7959183673469388</v>
+        <v>0.2526315789473684</v>
       </c>
       <c r="R89" t="n">
-        <v>0.2058592283753747</v>
+        <v>0.2527521317699524</v>
       </c>
       <c r="S89" t="n">
-        <v>0.9680638559779168</v>
+        <v>0.6916512135899691</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n38</t>
         </is>
       </c>
       <c r="U89" t="n">
-        <v>1449</v>
+        <v>1515</v>
       </c>
       <c r="V89" t="inlineStr">
         <is>
@@ -8125,40 +8125,40 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2102</v>
+        <v>2449</v>
       </c>
       <c r="B90" t="n">
-        <v>2138</v>
+        <v>2463</v>
       </c>
       <c r="C90" t="n">
-        <v>2215</v>
+        <v>2492</v>
       </c>
       <c r="D90" t="n">
-        <v>3.711946865367672</v>
+        <v>1.701234148804692</v>
       </c>
       <c r="E90" t="n">
-        <v>3.016555026983538</v>
+        <v>1.100163342870642</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6953918383841349</v>
+        <v>-0.6010708059340496</v>
       </c>
       <c r="G90" t="n">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="H90" t="n">
-        <v>84.48380669027847</v>
+        <v>15.04761310477897</v>
       </c>
       <c r="I90" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="J90" t="n">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="K90" t="n">
-        <v>285.8009412138286</v>
+        <v>54.567317886829</v>
       </c>
       <c r="L90" t="n">
-        <v>17.79872968421358</v>
+        <v>6.649545159583497</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8174,24 +8174,24 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.8416174858936649</v>
+        <v>0.8752359594439589</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.4675324675324675</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="R90" t="n">
-        <v>0.3452585008069963</v>
+        <v>0.284795213767412</v>
       </c>
       <c r="S90" t="n">
-        <v>0.9547152328199939</v>
+        <v>0.9285878549501425</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n38</t>
         </is>
       </c>
       <c r="U90" t="n">
-        <v>1450</v>
+        <v>1516</v>
       </c>
       <c r="V90" t="inlineStr">
         <is>
@@ -8211,40 +8211,40 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2215</v>
+        <v>1902</v>
       </c>
       <c r="B91" t="n">
-        <v>2234</v>
+        <v>1941</v>
       </c>
       <c r="C91" t="n">
-        <v>2338</v>
+        <v>1990</v>
       </c>
       <c r="D91" t="n">
-        <v>2.215909140203022</v>
+        <v>1.040843896535419</v>
       </c>
       <c r="E91" t="n">
-        <v>1.520517301818887</v>
+        <v>0.3454520581512841</v>
       </c>
       <c r="F91" t="n">
         <v>-0.6953918383841349</v>
       </c>
       <c r="G91" t="n">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="H91" t="n">
-        <v>19.40843924285809</v>
+        <v>43.47360379236693</v>
       </c>
       <c r="I91" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J91" t="n">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="K91" t="n">
-        <v>174.8712021795402</v>
+        <v>67.91503751871213</v>
       </c>
       <c r="L91" t="n">
-        <v>10.62525117458682</v>
+        <v>4.990830911601019</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -8260,16 +8260,16 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.7954839617026698</v>
+        <v>0.7673768894293037</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.1826923076923077</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="R91" t="n">
-        <v>0.3370502253267176</v>
+        <v>0.2058592283753747</v>
       </c>
       <c r="S91" t="n">
-        <v>0.7951817375089438</v>
+        <v>0.9680638559779168</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         </is>
       </c>
       <c r="U91" t="n">
-        <v>1451</v>
+        <v>1517</v>
       </c>
       <c r="V91" t="inlineStr">
         <is>
@@ -8297,40 +8297,40 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2508</v>
+        <v>2102</v>
       </c>
       <c r="B92" t="n">
-        <v>2532</v>
+        <v>2138</v>
       </c>
       <c r="C92" t="n">
-        <v>2566</v>
+        <v>2215</v>
       </c>
       <c r="D92" t="n">
-        <v>2.072569598609898</v>
+        <v>3.711946865367672</v>
       </c>
       <c r="E92" t="n">
-        <v>1.377177760225764</v>
+        <v>3.016555026983538</v>
       </c>
       <c r="F92" t="n">
         <v>-0.6953918383841349</v>
       </c>
       <c r="G92" t="n">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="H92" t="n">
-        <v>20.87382264816551</v>
+        <v>84.48380669027847</v>
       </c>
       <c r="I92" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J92" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="K92" t="n">
-        <v>88.5101909623518</v>
+        <v>285.8009412138286</v>
       </c>
       <c r="L92" t="n">
-        <v>9.937940217181074</v>
+        <v>17.79872968421358</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8346,16 +8346,16 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.815622798239809</v>
+        <v>0.8416174858936649</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.4675324675324675</v>
       </c>
       <c r="R92" t="n">
-        <v>0.3400486417910939</v>
+        <v>0.3452585008069963</v>
       </c>
       <c r="S92" t="n">
-        <v>0.9421061958956537</v>
+        <v>0.9547152328199939</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         </is>
       </c>
       <c r="U92" t="n">
-        <v>1452</v>
+        <v>1518</v>
       </c>
       <c r="V92" t="inlineStr">
         <is>
@@ -8383,40 +8383,40 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2566</v>
+        <v>2215</v>
       </c>
       <c r="B93" t="n">
-        <v>2598</v>
+        <v>2234</v>
       </c>
       <c r="C93" t="n">
-        <v>2688</v>
+        <v>2338</v>
       </c>
       <c r="D93" t="n">
-        <v>2.411569638333262</v>
+        <v>2.215909140203022</v>
       </c>
       <c r="E93" t="n">
-        <v>1.716177799949127</v>
+        <v>1.520517301818887</v>
       </c>
       <c r="F93" t="n">
         <v>-0.6953918383841349</v>
       </c>
       <c r="G93" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H93" t="n">
-        <v>58.12002950402893</v>
+        <v>19.40843924285809</v>
       </c>
       <c r="I93" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J93" t="n">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="K93" t="n">
-        <v>198.1062686726365</v>
+        <v>174.8712021795402</v>
       </c>
       <c r="L93" t="n">
-        <v>11.5634403358031</v>
+        <v>10.62525117458682</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8432,16 +8432,16 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.8716490228675441</v>
+        <v>0.7954839617026698</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.3555555555555556</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="R93" t="n">
-        <v>0.2963831984794846</v>
+        <v>0.3370502253267176</v>
       </c>
       <c r="S93" t="n">
-        <v>0.72599840974654</v>
+        <v>0.7951817375089438</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         </is>
       </c>
       <c r="U93" t="n">
-        <v>1453</v>
+        <v>1519</v>
       </c>
       <c r="V93" t="inlineStr">
         <is>
@@ -8469,40 +8469,40 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2688</v>
+        <v>2508</v>
       </c>
       <c r="B94" t="n">
-        <v>2720</v>
+        <v>2532</v>
       </c>
       <c r="C94" t="n">
-        <v>2791</v>
+        <v>2566</v>
       </c>
       <c r="D94" t="n">
-        <v>4.063599440466764</v>
+        <v>2.072569598609898</v>
       </c>
       <c r="E94" t="n">
-        <v>3.368207602082629</v>
+        <v>1.377177760225764</v>
       </c>
       <c r="F94" t="n">
         <v>-0.6953918383841349</v>
       </c>
       <c r="G94" t="n">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="H94" t="n">
-        <v>55.72578576811293</v>
+        <v>20.87382264816551</v>
       </c>
       <c r="I94" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J94" t="n">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="K94" t="n">
-        <v>258.1367084800785</v>
+        <v>88.5101909623518</v>
       </c>
       <c r="L94" t="n">
-        <v>19.48489852066496</v>
+        <v>9.937940217181074</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -8518,16 +8518,16 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.80693766729465</v>
+        <v>0.815622798239809</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.4507042253521127</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="R94" t="n">
-        <v>0.1609839562400123</v>
+        <v>0.3400486417910939</v>
       </c>
       <c r="S94" t="n">
-        <v>0.9195459416536178</v>
+        <v>0.9421061958956537</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         </is>
       </c>
       <c r="U94" t="n">
-        <v>1454</v>
+        <v>1520</v>
       </c>
       <c r="V94" t="inlineStr">
         <is>
@@ -8555,40 +8555,40 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2791</v>
+        <v>2566</v>
       </c>
       <c r="B95" t="n">
-        <v>2822</v>
+        <v>2598</v>
       </c>
       <c r="C95" t="n">
-        <v>2947</v>
+        <v>2688</v>
       </c>
       <c r="D95" t="n">
-        <v>3.544307600324208</v>
+        <v>2.411569638333262</v>
       </c>
       <c r="E95" t="n">
-        <v>2.848915761940074</v>
+        <v>1.716177799949127</v>
       </c>
       <c r="F95" t="n">
         <v>-0.6953918383841349</v>
       </c>
       <c r="G95" t="n">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="H95" t="n">
-        <v>69.56410640113154</v>
+        <v>58.12002950402893</v>
       </c>
       <c r="I95" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J95" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K95" t="n">
-        <v>355.0164179886908</v>
+        <v>198.1062686726365</v>
       </c>
       <c r="L95" t="n">
-        <v>16.99490191641677</v>
+        <v>11.5634403358031</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -8604,16 +8604,16 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.8920266026574245</v>
+        <v>0.8716490228675441</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.248</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="R95" t="n">
-        <v>0.1582050297866683</v>
+        <v>0.2963831984794846</v>
       </c>
       <c r="S95" t="n">
-        <v>0.9401798080585078</v>
+        <v>0.72599840974654</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="U95" t="n">
-        <v>1455</v>
+        <v>1521</v>
       </c>
       <c r="V95" t="inlineStr">
         <is>
@@ -8641,40 +8641,40 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2947</v>
+        <v>2688</v>
       </c>
       <c r="B96" t="n">
-        <v>2965</v>
+        <v>2720</v>
       </c>
       <c r="C96" t="n">
-        <v>2998</v>
+        <v>2791</v>
       </c>
       <c r="D96" t="n">
-        <v>1.430347048065733</v>
+        <v>4.063599440466764</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7349552096815977</v>
+        <v>3.368207602082629</v>
       </c>
       <c r="F96" t="n">
         <v>-0.6953918383841349</v>
       </c>
       <c r="G96" t="n">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="H96" t="n">
-        <v>19.46241403873364</v>
+        <v>55.72578576811293</v>
       </c>
       <c r="I96" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J96" t="n">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="K96" t="n">
-        <v>49.1309472527996</v>
+        <v>258.1367084800785</v>
       </c>
       <c r="L96" t="n">
-        <v>6.858492695749604</v>
+        <v>19.48489852066496</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -8690,16 +8690,16 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.8601776089058886</v>
+        <v>0.80693766729465</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="R96" t="n">
-        <v>0.2989505313600355</v>
+        <v>0.1609839562400123</v>
       </c>
       <c r="S96" t="n">
-        <v>0.8947250829053789</v>
+        <v>0.9195459416536178</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         </is>
       </c>
       <c r="U96" t="n">
-        <v>1456</v>
+        <v>1522</v>
       </c>
       <c r="V96" t="inlineStr">
         <is>
@@ -8727,40 +8727,40 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2061</v>
+        <v>2791</v>
       </c>
       <c r="B97" t="n">
-        <v>2090</v>
+        <v>2822</v>
       </c>
       <c r="C97" t="n">
-        <v>2135</v>
+        <v>2947</v>
       </c>
       <c r="D97" t="n">
-        <v>2.975773239760464</v>
+        <v>3.544307600324208</v>
       </c>
       <c r="E97" t="n">
-        <v>2.508313451816672</v>
+        <v>2.848915761940074</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.4674597879437922</v>
+        <v>-0.6953918383841349</v>
       </c>
       <c r="G97" t="n">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="H97" t="n">
-        <v>19.18695419066717</v>
+        <v>69.56410640113154</v>
       </c>
       <c r="I97" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J97" t="n">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="K97" t="n">
-        <v>157.3217402711118</v>
+        <v>355.0164179886908</v>
       </c>
       <c r="L97" t="n">
-        <v>12.33247692518417</v>
+        <v>16.99490191641677</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -8776,24 +8776,24 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.7412471843120786</v>
+        <v>0.8920266026574245</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.248</v>
       </c>
       <c r="R97" t="n">
-        <v>0.4904926817292557</v>
+        <v>0.1582050297866683</v>
       </c>
       <c r="S97" t="n">
-        <v>0.7582473273176712</v>
+        <v>0.9401798080585078</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U97" t="n">
-        <v>1457</v>
+        <v>1523</v>
       </c>
       <c r="V97" t="inlineStr">
         <is>
@@ -8813,40 +8813,40 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2135</v>
+        <v>2947</v>
       </c>
       <c r="B98" t="n">
-        <v>2164</v>
+        <v>2965</v>
       </c>
       <c r="C98" t="n">
-        <v>2259</v>
+        <v>2998</v>
       </c>
       <c r="D98" t="n">
-        <v>3.82606514092606</v>
+        <v>1.430347048065733</v>
       </c>
       <c r="E98" t="n">
-        <v>3.358605352982268</v>
+        <v>0.7349552096815977</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4674597879437922</v>
+        <v>-0.6953918383841349</v>
       </c>
       <c r="G98" t="n">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="H98" t="n">
-        <v>155.6698312176427</v>
+        <v>19.46241403873364</v>
       </c>
       <c r="I98" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J98" t="n">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="K98" t="n">
-        <v>304.3513137701154</v>
+        <v>49.1309472527996</v>
       </c>
       <c r="L98" t="n">
-        <v>15.85633590431787</v>
+        <v>6.858492695749604</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -8862,24 +8862,24 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.8068345150407298</v>
+        <v>0.8601776089058886</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.3052631578947368</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="R98" t="n">
-        <v>0.2009371798546031</v>
+        <v>0.2989505313600355</v>
       </c>
       <c r="S98" t="n">
-        <v>0.6145322417352004</v>
+        <v>0.8947250829053789</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U98" t="n">
-        <v>1458</v>
+        <v>1524</v>
       </c>
       <c r="V98" t="inlineStr">
         <is>
@@ -8899,40 +8899,40 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2806</v>
+        <v>2061</v>
       </c>
       <c r="B99" t="n">
-        <v>2836</v>
+        <v>2090</v>
       </c>
       <c r="C99" t="n">
-        <v>2998</v>
+        <v>2135</v>
       </c>
       <c r="D99" t="n">
-        <v>2.30514288485451</v>
+        <v>2.975773239760464</v>
       </c>
       <c r="E99" t="n">
-        <v>1.709211050116326</v>
+        <v>2.508313451816672</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.5959318347381837</v>
+        <v>-0.4674597879437922</v>
       </c>
       <c r="G99" t="n">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="H99" t="n">
-        <v>116.2521664145993</v>
+        <v>19.18695419066717</v>
       </c>
       <c r="I99" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J99" t="n">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="K99" t="n">
-        <v>272.0475419658988</v>
+        <v>157.3217402711118</v>
       </c>
       <c r="L99" t="n">
-        <v>5.469063371515889</v>
+        <v>12.33247692518417</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -8948,24 +8948,24 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.828528206358512</v>
+        <v>0.7412471843120786</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="R99" t="n">
-        <v>0.2030148265465323</v>
+        <v>0.4904926817292557</v>
       </c>
       <c r="S99" t="n">
-        <v>0.7337541131866452</v>
+        <v>0.7582473273176712</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>n42</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U99" t="n">
-        <v>1459</v>
+        <v>1525</v>
       </c>
       <c r="V99" t="inlineStr">
         <is>
@@ -8985,40 +8985,40 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>879</v>
+        <v>2135</v>
       </c>
       <c r="B100" t="n">
-        <v>906</v>
+        <v>2164</v>
       </c>
       <c r="C100" t="n">
-        <v>984</v>
+        <v>2259</v>
       </c>
       <c r="D100" t="n">
-        <v>1.59588813912521</v>
+        <v>3.82606514092606</v>
       </c>
       <c r="E100" t="n">
-        <v>1.168732415382045</v>
+        <v>3.358605352982268</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.427155723743165</v>
+        <v>-0.4674597879437922</v>
       </c>
       <c r="G100" t="n">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="H100" t="n">
-        <v>30.44213122819826</v>
+        <v>155.6698312176427</v>
       </c>
       <c r="I100" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J100" t="n">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K100" t="n">
-        <v>93.60744108455425</v>
+        <v>304.3513137701154</v>
       </c>
       <c r="L100" t="n">
-        <v>4.719479778093357</v>
+        <v>15.85633590431787</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -9034,24 +9034,24 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.8032974523317944</v>
+        <v>0.8068345150407298</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.3052631578947368</v>
       </c>
       <c r="R100" t="n">
-        <v>0.3798731610873834</v>
+        <v>0.2009371798546031</v>
       </c>
       <c r="S100" t="n">
-        <v>0.468054509999253</v>
+        <v>0.6145322417352004</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U100" t="n">
-        <v>1460</v>
+        <v>1526</v>
       </c>
       <c r="V100" t="inlineStr">
         <is>
@@ -9071,40 +9071,40 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2067</v>
+        <v>2806</v>
       </c>
       <c r="B101" t="n">
-        <v>2092</v>
+        <v>2836</v>
       </c>
       <c r="C101" t="n">
-        <v>2179</v>
+        <v>2998</v>
       </c>
       <c r="D101" t="n">
-        <v>3.164671949114787</v>
+        <v>2.30514288485451</v>
       </c>
       <c r="E101" t="n">
-        <v>2.737516225371622</v>
+        <v>1.709211050116326</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.427155723743165</v>
+        <v>-0.5959318347381837</v>
       </c>
       <c r="G101" t="n">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="H101" t="n">
-        <v>82.85158124948475</v>
+        <v>116.2521664145993</v>
       </c>
       <c r="I101" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J101" t="n">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="K101" t="n">
-        <v>215.8066579716452</v>
+        <v>272.0475419658988</v>
       </c>
       <c r="L101" t="n">
-        <v>9.358804606652139</v>
+        <v>5.469063371515889</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9120,24 +9120,24 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.8537011485929322</v>
+        <v>0.828528206358512</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.2873563218390804</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="R101" t="n">
-        <v>0.162468316223564</v>
+        <v>0.2030148265465323</v>
       </c>
       <c r="S101" t="n">
-        <v>0.865658661073512</v>
+        <v>0.7337541131866452</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n42</t>
         </is>
       </c>
       <c r="U101" t="n">
-        <v>1461</v>
+        <v>1527</v>
       </c>
       <c r="V101" t="inlineStr">
         <is>
@@ -9157,40 +9157,40 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1315</v>
+        <v>879</v>
       </c>
       <c r="B102" t="n">
-        <v>1343</v>
+        <v>906</v>
       </c>
       <c r="C102" t="n">
-        <v>1427</v>
+        <v>984</v>
       </c>
       <c r="D102" t="n">
-        <v>3.469013487415774</v>
+        <v>1.59588813912521</v>
       </c>
       <c r="E102" t="n">
-        <v>2.856141891073711</v>
+        <v>1.168732415382045</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.6128715963420625</v>
+        <v>-0.427155723743165</v>
       </c>
       <c r="G102" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H102" t="n">
-        <v>34.39047819320967</v>
+        <v>30.44213122819826</v>
       </c>
       <c r="I102" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J102" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K102" t="n">
-        <v>274.439454773807</v>
+        <v>93.60744108455425</v>
       </c>
       <c r="L102" t="n">
-        <v>18.86480645804687</v>
+        <v>4.719479778093357</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -9206,24 +9206,24 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>0.9297346354126416</v>
+        <v>0.8032974523317944</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="R102" t="n">
-        <v>0.2514913831782024</v>
+        <v>0.3798731610873834</v>
       </c>
       <c r="S102" t="n">
-        <v>0.9747721351088552</v>
+        <v>0.468054509999253</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n43</t>
         </is>
       </c>
       <c r="U102" t="n">
-        <v>1462</v>
+        <v>1528</v>
       </c>
       <c r="V102" t="inlineStr">
         <is>
@@ -9243,40 +9243,40 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1812</v>
+        <v>2067</v>
       </c>
       <c r="B103" t="n">
-        <v>1842</v>
+        <v>2092</v>
       </c>
       <c r="C103" t="n">
-        <v>1896</v>
+        <v>2179</v>
       </c>
       <c r="D103" t="n">
-        <v>2.850580020118127</v>
+        <v>3.164671949114787</v>
       </c>
       <c r="E103" t="n">
-        <v>2.237708423776065</v>
+        <v>2.737516225371622</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.6128715963420625</v>
+        <v>-0.427155723743165</v>
       </c>
       <c r="G103" t="n">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="H103" t="n">
-        <v>44.95021444602276</v>
+        <v>82.85158124948475</v>
       </c>
       <c r="I103" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J103" t="n">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="K103" t="n">
-        <v>134.9267581256105</v>
+        <v>215.8066579716452</v>
       </c>
       <c r="L103" t="n">
-        <v>15.50170979956718</v>
+        <v>9.358804606652139</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -9292,24 +9292,24 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>0.8105074332511517</v>
+        <v>0.8537011485929322</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.2873563218390804</v>
       </c>
       <c r="R103" t="n">
-        <v>0.2259552448544193</v>
+        <v>0.162468316223564</v>
       </c>
       <c r="S103" t="n">
-        <v>0.8588746315170143</v>
+        <v>0.865658661073512</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n43</t>
         </is>
       </c>
       <c r="U103" t="n">
-        <v>1463</v>
+        <v>1529</v>
       </c>
       <c r="V103" t="inlineStr">
         <is>
@@ -9329,40 +9329,40 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1896</v>
+        <v>1315</v>
       </c>
       <c r="B104" t="n">
-        <v>1932</v>
+        <v>1343</v>
       </c>
       <c r="C104" t="n">
-        <v>1998</v>
+        <v>1427</v>
       </c>
       <c r="D104" t="n">
-        <v>2.50399827408097</v>
+        <v>3.469013487415774</v>
       </c>
       <c r="E104" t="n">
-        <v>1.891126677738907</v>
+        <v>2.856141891073711</v>
       </c>
       <c r="F104" t="n">
         <v>-0.6128715963420625</v>
       </c>
       <c r="G104" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H104" t="n">
-        <v>40.6706289181318</v>
+        <v>34.39047819320967</v>
       </c>
       <c r="I104" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J104" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="K104" t="n">
-        <v>149.6637168907684</v>
+        <v>274.439454773807</v>
       </c>
       <c r="L104" t="n">
-        <v>13.61696718193224</v>
+        <v>18.86480645804687</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -9378,16 +9378,16 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>0.7575188855566207</v>
+        <v>0.9297346354126416</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R104" t="n">
-        <v>0.1183821060241369</v>
+        <v>0.2514913831782024</v>
       </c>
       <c r="S104" t="n">
-        <v>0.8685757191917493</v>
+        <v>0.9747721351088552</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         </is>
       </c>
       <c r="U104" t="n">
-        <v>1464</v>
+        <v>1530</v>
       </c>
       <c r="V104" t="inlineStr">
         <is>
@@ -9415,19 +9415,19 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2458</v>
+        <v>1812</v>
       </c>
       <c r="B105" t="n">
-        <v>2488</v>
+        <v>1842</v>
       </c>
       <c r="C105" t="n">
-        <v>2542</v>
+        <v>1896</v>
       </c>
       <c r="D105" t="n">
-        <v>1.901034028622655</v>
+        <v>2.850580020118127</v>
       </c>
       <c r="E105" t="n">
-        <v>1.288162432280592</v>
+        <v>2.237708423776065</v>
       </c>
       <c r="F105" t="n">
         <v>-0.6128715963420625</v>
@@ -9436,7 +9436,7 @@
         <v>84</v>
       </c>
       <c r="H105" t="n">
-        <v>134.1045360387152</v>
+        <v>44.95021444602276</v>
       </c>
       <c r="I105" t="n">
         <v>30</v>
@@ -9445,10 +9445,10 @@
         <v>54</v>
       </c>
       <c r="K105" t="n">
-        <v>101.6735229171466</v>
+        <v>134.9267581256105</v>
       </c>
       <c r="L105" t="n">
-        <v>10.33799353914972</v>
+        <v>15.50170979956718</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -9464,16 +9464,16 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>0.7886105908514571</v>
+        <v>0.8105074332511517</v>
       </c>
       <c r="Q105" t="n">
         <v>0.5555555555555556</v>
       </c>
       <c r="R105" t="n">
-        <v>0.2875822922754083</v>
+        <v>0.2259552448544193</v>
       </c>
       <c r="S105" t="n">
-        <v>0.9490218326087015</v>
+        <v>0.8588746315170143</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         </is>
       </c>
       <c r="U105" t="n">
-        <v>1465</v>
+        <v>1531</v>
       </c>
       <c r="V105" t="inlineStr">
         <is>
@@ -9501,40 +9501,40 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2542</v>
+        <v>1896</v>
       </c>
       <c r="B106" t="n">
-        <v>2563</v>
+        <v>1932</v>
       </c>
       <c r="C106" t="n">
-        <v>2635</v>
+        <v>1998</v>
       </c>
       <c r="D106" t="n">
-        <v>1.528669317693656</v>
+        <v>2.50399827408097</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9157977213515935</v>
+        <v>1.891126677738907</v>
       </c>
       <c r="F106" t="n">
         <v>-0.6128715963420625</v>
       </c>
       <c r="G106" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H106" t="n">
-        <v>28.20422135407716</v>
+        <v>40.6706289181318</v>
       </c>
       <c r="I106" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J106" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K106" t="n">
-        <v>71.20453382751288</v>
+        <v>149.6637168907684</v>
       </c>
       <c r="L106" t="n">
-        <v>8.313040846124862</v>
+        <v>13.61696718193224</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -9550,16 +9550,16 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>0.9424309456913647</v>
+        <v>0.7575188855566207</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="R106" t="n">
-        <v>0.3389184030067677</v>
+        <v>0.1183821060241369</v>
       </c>
       <c r="S106" t="n">
-        <v>0.9416320451578726</v>
+        <v>0.8685757191917493</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         </is>
       </c>
       <c r="U106" t="n">
-        <v>1466</v>
+        <v>1532</v>
       </c>
       <c r="V106" t="inlineStr">
         <is>
@@ -9587,40 +9587,40 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1770</v>
+        <v>2458</v>
       </c>
       <c r="B107" t="n">
-        <v>1787</v>
+        <v>2488</v>
       </c>
       <c r="C107" t="n">
-        <v>1820</v>
+        <v>2542</v>
       </c>
       <c r="D107" t="n">
-        <v>3.772100372742832</v>
+        <v>1.901034028622655</v>
       </c>
       <c r="E107" t="n">
-        <v>3.275077853188803</v>
+        <v>1.288162432280592</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.4970225195540287</v>
+        <v>-0.6128715963420625</v>
       </c>
       <c r="G107" t="n">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="H107" t="n">
-        <v>15.49602086431833</v>
+        <v>134.1045360387152</v>
       </c>
       <c r="I107" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J107" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="K107" t="n">
-        <v>148.6132126885157</v>
+        <v>101.6735229171466</v>
       </c>
       <c r="L107" t="n">
-        <v>18.14092139313328</v>
+        <v>10.33799353914972</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -9636,24 +9636,24 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>0.8416556949344475</v>
+        <v>0.7886105908514571</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R107" t="n">
-        <v>0.2094843635360681</v>
+        <v>0.2875822922754083</v>
       </c>
       <c r="S107" t="n">
-        <v>0.9601610483738491</v>
+        <v>0.9490218326087015</v>
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>n50</t>
+          <t>n47</t>
         </is>
       </c>
       <c r="U107" t="n">
-        <v>1467</v>
+        <v>1533</v>
       </c>
       <c r="V107" t="inlineStr">
         <is>
@@ -9673,40 +9673,40 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1968</v>
+        <v>2542</v>
       </c>
       <c r="B108" t="n">
-        <v>1988</v>
+        <v>2563</v>
       </c>
       <c r="C108" t="n">
-        <v>2022</v>
+        <v>2635</v>
       </c>
       <c r="D108" t="n">
-        <v>2.538352468775503</v>
+        <v>1.528669317693656</v>
       </c>
       <c r="E108" t="n">
-        <v>2.041329949221474</v>
+        <v>0.9157977213515935</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.4970225195540287</v>
+        <v>-0.6128715963420625</v>
       </c>
       <c r="G108" t="n">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="H108" t="n">
-        <v>19.88891438469045</v>
+        <v>28.20422135407716</v>
       </c>
       <c r="I108" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J108" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="K108" t="n">
-        <v>98.07334718679301</v>
+        <v>71.20453382751288</v>
       </c>
       <c r="L108" t="n">
-        <v>12.20753639984372</v>
+        <v>8.313040846124862</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
@@ -9722,24 +9722,24 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>0.8488498521781025</v>
+        <v>0.9424309456913647</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="R108" t="n">
-        <v>0.2189379449841475</v>
+        <v>0.3389184030067677</v>
       </c>
       <c r="S108" t="n">
-        <v>0.9360338291157644</v>
+        <v>0.9416320451578726</v>
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>n50</t>
+          <t>n47</t>
         </is>
       </c>
       <c r="U108" t="n">
-        <v>1468</v>
+        <v>1534</v>
       </c>
       <c r="V108" t="inlineStr">
         <is>
@@ -9759,85 +9759,257 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
+        <v>1770</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1787</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1820</v>
+      </c>
+      <c r="D109" t="n">
+        <v>3.772100372742832</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.275077853188803</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.4970225195540287</v>
+      </c>
+      <c r="G109" t="n">
+        <v>50</v>
+      </c>
+      <c r="H109" t="n">
+        <v>15.49602086431833</v>
+      </c>
+      <c r="I109" t="n">
+        <v>17</v>
+      </c>
+      <c r="J109" t="n">
+        <v>33</v>
+      </c>
+      <c r="K109" t="n">
+        <v>148.6132126885157</v>
+      </c>
+      <c r="L109" t="n">
+        <v>18.14092139313328</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>0.8416556949344475</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.2094843635360681</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.9601610483738491</v>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>n50</t>
+        </is>
+      </c>
+      <c r="U109" t="n">
+        <v>1535</v>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1968</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2.538352468775503</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.041329949221474</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.4970225195540287</v>
+      </c>
+      <c r="G110" t="n">
+        <v>54</v>
+      </c>
+      <c r="H110" t="n">
+        <v>19.88891438469045</v>
+      </c>
+      <c r="I110" t="n">
+        <v>20</v>
+      </c>
+      <c r="J110" t="n">
+        <v>34</v>
+      </c>
+      <c r="K110" t="n">
+        <v>98.07334718679301</v>
+      </c>
+      <c r="L110" t="n">
+        <v>12.20753639984372</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>0.8488498521781025</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.2189379449841475</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.9360338291157644</v>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>n50</t>
+        </is>
+      </c>
+      <c r="U110" t="n">
+        <v>1536</v>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
         <v>468</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B111" t="n">
         <v>493</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C111" t="n">
         <v>564</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D111" t="n">
         <v>2.450947063523053</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E111" t="n">
         <v>1.871595213972507</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F111" t="n">
         <v>-0.5793518495505462</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G111" t="n">
         <v>96</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H111" t="n">
         <v>74.93897923585973</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I111" t="n">
         <v>25</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J111" t="n">
         <v>71</v>
       </c>
-      <c r="K109" t="n">
+      <c r="K111" t="n">
         <v>146.0433158858443</v>
       </c>
-      <c r="L109" t="n">
+      <c r="L111" t="n">
         <v>6.897828840501892</v>
       </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
-        <v>0</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P109" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
         <v>0.7892891834101398</v>
       </c>
-      <c r="Q109" t="n">
+      <c r="Q111" t="n">
         <v>0.352112676056338</v>
       </c>
-      <c r="R109" t="n">
+      <c r="R111" t="n">
         <v>0.1334755010490877</v>
       </c>
-      <c r="S109" t="n">
+      <c r="S111" t="n">
         <v>0.856037188710337</v>
       </c>
-      <c r="T109" t="inlineStr">
+      <c r="T111" t="inlineStr">
         <is>
           <t>n51</t>
         </is>
       </c>
-      <c r="U109" t="n">
-        <v>1469</v>
-      </c>
-      <c r="V109" t="inlineStr">
-        <is>
-          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W109" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X109" t="inlineStr">
+      <c r="U111" t="n">
+        <v>1537</v>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuitiewangCellVedio22024-12-04214328trace.xlsx</t>
         </is>
